--- a/server/public/uploads/applicantListsExcel.xlsx
+++ b/server/public/uploads/applicantListsExcel.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\oktay\Desktop\erasmusApp\319-Project\server\public\uploads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\oktay\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{159BA163-1265-49FB-8892-E34EBCEAB55A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D1B8B4B-F0FB-4D67-8860-B8DD1006941A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13356" yWindow="1764" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1224" yWindow="1152" windowWidth="21600" windowHeight="11208" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sayfa1" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1078" uniqueCount="326">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1138" uniqueCount="326">
   <si>
     <t>#</t>
   </si>
@@ -995,10 +995,10 @@
     <t>ATAÇ</t>
   </si>
   <si>
-    <t>İLKER</t>
-  </si>
-  <si>
     <t>ÖZGEN</t>
+  </si>
+  <si>
+    <t>İlker</t>
   </si>
 </sst>
 </file>
@@ -1164,23 +1164,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="12">
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFE06666"/>
-          <bgColor rgb="FFE06666"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFE06666"/>
-          <bgColor rgb="FFE06666"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="13">
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -1258,6 +1242,30 @@
         <patternFill patternType="solid">
           <fgColor rgb="FFEA9999"/>
           <bgColor rgb="FFEA9999"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFE06666"/>
+          <bgColor rgb="FFE06666"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFE06666"/>
+          <bgColor rgb="FFE06666"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFE06666"/>
+          <bgColor rgb="FFE06666"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1474,8 +1482,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AD1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="S1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView topLeftCell="T12" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="W39" sqref="W39:AA39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1989,10 +1997,10 @@
     <row r="7" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A7" s="3"/>
       <c r="B7" s="4" t="s">
+        <v>325</v>
+      </c>
+      <c r="C7" s="4" t="s">
         <v>324</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>325</v>
       </c>
       <c r="D7" s="4">
         <v>21902719</v>
@@ -2076,8 +2084,8 @@
       <c r="C8" s="4" t="s">
         <v>246</v>
       </c>
-      <c r="D8" s="4" t="s">
-        <v>247</v>
+      <c r="D8" s="4">
+        <v>21903245</v>
       </c>
       <c r="E8" s="4" t="s">
         <v>26</v>
@@ -2933,21 +2941,6 @@
       <c r="V18" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="W18" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="X18" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="Y18" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="Z18" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="AA18" s="4" t="s">
-        <v>37</v>
-      </c>
       <c r="AB18" s="10"/>
       <c r="AC18" s="10"/>
       <c r="AD18" s="10"/>
@@ -3015,21 +3008,6 @@
       <c r="V19" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="W19" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="X19" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="Y19" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="Z19" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="AA19" s="4" t="s">
-        <v>64</v>
-      </c>
       <c r="AB19" s="10"/>
       <c r="AC19" s="10"/>
       <c r="AD19" s="10"/>
@@ -3099,21 +3077,6 @@
       <c r="V20" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="W20" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="X20" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="Y20" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="Z20" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="AA20" s="4" t="s">
-        <v>36</v>
-      </c>
       <c r="AB20" s="10"/>
       <c r="AC20" s="10"/>
       <c r="AD20" s="10"/>
@@ -3183,21 +3146,6 @@
       <c r="V21" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="W21" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="X21" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="Y21" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="Z21" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="AA21" s="4" t="s">
-        <v>51</v>
-      </c>
       <c r="AB21" s="10"/>
       <c r="AC21" s="10"/>
       <c r="AD21" s="10"/>
@@ -3265,19 +3213,6 @@
       <c r="V22" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="W22" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="X22" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="Y22" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="Z22" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="AA22" s="10"/>
       <c r="AB22" s="10"/>
       <c r="AC22" s="10"/>
       <c r="AD22" s="10"/>
@@ -3671,21 +3606,6 @@
       <c r="V27" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="W27" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="X27" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="Y27" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="Z27" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="AA27" s="4" t="s">
-        <v>45</v>
-      </c>
       <c r="AB27" s="10"/>
       <c r="AC27" s="10" t="s">
         <v>141</v>
@@ -3755,21 +3675,6 @@
       <c r="V28" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="W28" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="X28" s="4">
-        <v>0</v>
-      </c>
-      <c r="Y28" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="Z28" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="AA28" s="4" t="s">
-        <v>51</v>
-      </c>
       <c r="AB28" s="10"/>
       <c r="AC28" s="10"/>
       <c r="AD28" s="10"/>
@@ -3837,21 +3742,6 @@
       <c r="V29" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="W29" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="X29" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="Y29" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="Z29" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="AA29" s="4" t="s">
-        <v>45</v>
-      </c>
       <c r="AB29" s="10"/>
       <c r="AC29" s="10"/>
       <c r="AD29" s="10"/>
@@ -3919,21 +3809,6 @@
       <c r="V30" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="W30" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="X30" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="Y30" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="Z30" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="AA30" s="4" t="s">
-        <v>44</v>
-      </c>
       <c r="AB30" s="10"/>
       <c r="AC30" s="10" t="s">
         <v>141</v>
@@ -4007,19 +3882,6 @@
       <c r="V31" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="W31" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="X31" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="Y31" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="Z31" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="AA31" s="10"/>
       <c r="AB31" s="10"/>
       <c r="AC31" s="10"/>
       <c r="AD31" s="10"/>
@@ -4087,15 +3949,6 @@
       <c r="V32" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="W32" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="X32" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="Y32" s="10"/>
-      <c r="Z32" s="10"/>
-      <c r="AA32" s="10"/>
       <c r="AB32" s="10"/>
       <c r="AC32" s="10"/>
       <c r="AD32" s="10"/>
@@ -4165,17 +4018,6 @@
       <c r="V33" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="W33" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="X33" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="Y33" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="Z33" s="10"/>
-      <c r="AA33" s="10"/>
       <c r="AB33" s="10"/>
       <c r="AC33" s="10"/>
       <c r="AD33" s="10"/>
@@ -4243,21 +4085,6 @@
       <c r="V34" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="W34" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="X34" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="Y34" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="Z34" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="AA34" s="4" t="s">
-        <v>37</v>
-      </c>
       <c r="AB34" s="10"/>
       <c r="AC34" s="10"/>
       <c r="AD34" s="10"/>
@@ -4660,21 +4487,6 @@
       </c>
       <c r="V39" s="4" t="s">
         <v>34</v>
-      </c>
-      <c r="W39" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="X39" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="Y39" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="Z39" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="AA39" s="4" t="s">
-        <v>35</v>
       </c>
       <c r="AB39" s="10"/>
       <c r="AC39" s="10" t="s">
@@ -11098,12 +10910,17 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B6:D27">
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="3" operator="equal">
       <formula>"Vrije Üniversitesi"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B32:D53">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="2" operator="equal">
+      <formula>"Vrije Üniversitesi"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D2">
+    <cfRule type="cellIs" dxfId="10" priority="1" operator="equal">
       <formula>"Vrije Üniversitesi"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11117,10 +10934,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:F27"/>
+  <dimension ref="A1:K28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:C27"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -11129,7 +10946,7 @@
     <col min="5" max="5" width="29.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>308</v>
       </c>
@@ -11148,8 +10965,23 @@
       <c r="F1" s="2" t="s">
         <v>313</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G1" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>227</v>
       </c>
@@ -11168,8 +11000,23 @@
       <c r="F2" s="9">
         <v>99.333333333333343</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G2" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="J2" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="K2" s="4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>230</v>
       </c>
@@ -11188,8 +11035,20 @@
       <c r="F3" s="9">
         <v>99</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G3" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="I3" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="J3" s="4" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
         <v>233</v>
       </c>
@@ -11208,8 +11067,23 @@
       <c r="F4" s="9">
         <v>97.333333333333343</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G4" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="I4" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="J4" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="K4" s="4" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
         <v>236</v>
       </c>
@@ -11228,8 +11102,23 @@
       <c r="F5" s="9">
         <v>93.666666666666671</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G5" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="I5" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="J5" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="K5" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
         <v>239</v>
       </c>
@@ -11248,8 +11137,17 @@
       <c r="F6" s="9">
         <v>90.333333333333343</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G6" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="I6" s="10"/>
+      <c r="J6" s="10"/>
+      <c r="K6" s="10"/>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
         <v>242</v>
       </c>
@@ -11268,8 +11166,23 @@
       <c r="F7" s="9">
         <v>87.666666666666686</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G7" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="H7" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="I7" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="J7" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="K7" s="4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
         <v>245</v>
       </c>
@@ -11288,8 +11201,23 @@
       <c r="F8" s="9">
         <v>83.666666666666671</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G8" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="H8" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="I8" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="J8" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="K8" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
         <v>248</v>
       </c>
@@ -11308,8 +11236,23 @@
       <c r="F9" s="9">
         <v>83</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G9" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="H9" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="I9" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="J9" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="K9" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
         <v>252</v>
       </c>
@@ -11328,8 +11271,19 @@
       <c r="F10" s="9">
         <v>82</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G10" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="H10" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="I10" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="J10" s="10"/>
+      <c r="K10" s="10"/>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="s">
         <v>255</v>
       </c>
@@ -11348,8 +11302,23 @@
       <c r="F11" s="9">
         <v>82</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G11" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="H11" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="I11" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="J11" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="K11" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="s">
         <v>258</v>
       </c>
@@ -11368,8 +11337,17 @@
       <c r="F12" s="9">
         <v>81.666666666666671</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G12" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="H12" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="I12" s="4" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="4" t="s">
         <v>261</v>
       </c>
@@ -11388,8 +11366,21 @@
       <c r="F13" s="9">
         <v>78</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G13" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="H13" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="I13" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="J13" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="K13" s="10"/>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="4" t="s">
         <v>264</v>
       </c>
@@ -11408,8 +11399,23 @@
       <c r="F14" s="9">
         <v>77.333333333333343</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G14" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="H14" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="I14" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="J14" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="K14" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="4" t="s">
         <v>267</v>
       </c>
@@ -11428,8 +11434,23 @@
       <c r="F15" s="9">
         <v>77.333333333333329</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G15" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="H15" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="I15" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="J15" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="K15" s="4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" s="4" t="s">
         <v>270</v>
       </c>
@@ -11448,8 +11469,23 @@
       <c r="F16" s="9">
         <v>74</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G16" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="H16" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="I16" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="J16" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="K16" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" s="4" t="s">
         <v>273</v>
       </c>
@@ -11468,8 +11504,23 @@
       <c r="F17" s="9">
         <v>74</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G17" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="H17" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="I17" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="J17" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="K17" s="4" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" s="4" t="s">
         <v>276</v>
       </c>
@@ -11488,8 +11539,23 @@
       <c r="F18" s="9">
         <v>73.333333333333329</v>
       </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G18" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="H18" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="I18" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="J18" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="K18" s="4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" s="4" t="s">
         <v>279</v>
       </c>
@@ -11508,8 +11574,23 @@
       <c r="F19" s="9">
         <v>71.333333333333343</v>
       </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G19" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="H19" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="I19" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="J19" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="K19" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" s="4" t="s">
         <v>282</v>
       </c>
@@ -11528,8 +11609,21 @@
       <c r="F20" s="9">
         <v>71</v>
       </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G20" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="H20" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="I20" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="J20" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="K20" s="10"/>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" s="4" t="s">
         <v>285</v>
       </c>
@@ -11548,8 +11642,23 @@
       <c r="F21" s="9">
         <v>70</v>
       </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G21" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="H21" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="I21" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="J21" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="K21" s="4" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" s="4" t="s">
         <v>289</v>
       </c>
@@ -11568,8 +11677,20 @@
       <c r="F22" s="9">
         <v>66</v>
       </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G22" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="H22" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="I22" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="J22" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" s="4" t="s">
         <v>293</v>
       </c>
@@ -11588,8 +11709,23 @@
       <c r="F23" s="9">
         <v>62.333333333333329</v>
       </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G23" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="H23" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="I23" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="J23" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="K23" s="4" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24" s="4" t="s">
         <v>296</v>
       </c>
@@ -11608,8 +11744,23 @@
       <c r="F24" s="9">
         <v>57.333333333333336</v>
       </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G24" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="H24" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="I24" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="J24" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="K24" s="4" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" s="4" t="s">
         <v>299</v>
       </c>
@@ -11628,8 +11779,21 @@
       <c r="F25" s="9">
         <v>49.666666666666657</v>
       </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G25" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="H25" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="I25" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="J25" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="K25" s="10"/>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" s="4" t="s">
         <v>302</v>
       </c>
@@ -11648,8 +11812,23 @@
       <c r="F26" s="9">
         <v>48.666666666666671</v>
       </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G26" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="H26" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="I26" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="J26" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="K26" s="4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" s="4" t="s">
         <v>305</v>
       </c>
@@ -11668,55 +11847,77 @@
       <c r="F27" s="9">
         <v>48.333333333333329</v>
       </c>
+      <c r="G27" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="H27" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="I27" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="J27" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="K27" s="4" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G28" s="4"/>
+      <c r="H28" s="4"/>
+      <c r="I28" s="4"/>
+      <c r="J28" s="4"/>
+      <c r="K28" s="4"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="E4:E27">
-    <cfRule type="cellIs" dxfId="11" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="1" operator="equal">
       <formula>"École Polytechnique Fédérale (EPF)"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A6:F27">
-    <cfRule type="cellIs" dxfId="10" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="2" operator="equal">
       <formula>"Vrije Üniversitesi"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E9:E27">
-    <cfRule type="containsText" dxfId="9" priority="3" operator="containsText" text="Saarland">
+    <cfRule type="containsText" dxfId="7" priority="3" operator="containsText" text="Saarland">
       <formula>NOT(ISERROR(SEARCH(("Saarland"),(E9))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E11:E27">
-    <cfRule type="cellIs" dxfId="8" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="4" operator="equal">
       <formula>"AGH University of Science and Technology"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E16:E27">
-    <cfRule type="cellIs" dxfId="7" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="5" operator="equal">
       <formula>"Technical University of Berlin"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E16:E27">
-    <cfRule type="cellIs" dxfId="6" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="6" operator="equal">
       <formula>"Universita degli Studi di L&amp;#039;Aquila"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E20 E23">
-    <cfRule type="cellIs" dxfId="5" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="7" operator="equal">
       <formula>"Kingston University"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E20 E23">
-    <cfRule type="cellIs" dxfId="4" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="8" operator="equal">
       <formula>"Roskilde Universitesi"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E24:E27">
-    <cfRule type="containsText" dxfId="3" priority="9" operator="containsText" text="Dortmund">
+    <cfRule type="containsText" dxfId="1" priority="9" operator="containsText" text="Dortmund">
       <formula>NOT(ISERROR(SEARCH(("Dortmund"),(E24))))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E20 E23">
-    <cfRule type="containsText" dxfId="2" priority="10" operator="containsText" text="Roskilde">
+    <cfRule type="containsText" dxfId="0" priority="10" operator="containsText" text="Roskilde">
       <formula>NOT(ISERROR(SEARCH(("Roskilde"),(E20))))</formula>
     </cfRule>
   </conditionalFormatting>

--- a/server/public/uploads/applicantListsExcel.xlsx
+++ b/server/public/uploads/applicantListsExcel.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10711"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\oktay\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Applications/development/319-Project/server/public/uploads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D1B8B4B-F0FB-4D67-8860-B8DD1006941A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3D10B79-6E40-A34D-AC88-93DF509F6C17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1224" yWindow="1152" windowWidth="21600" windowHeight="11208" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1220" yWindow="1160" windowWidth="27560" windowHeight="15320" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sayfa1" sheetId="1" r:id="rId1"/>
@@ -1486,27 +1486,27 @@
       <selection activeCell="W39" sqref="W39:AA39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3.88671875" customWidth="1"/>
+    <col min="1" max="1" width="3.83203125" customWidth="1"/>
     <col min="2" max="2" width="21" customWidth="1"/>
-    <col min="3" max="3" width="12.88671875" customWidth="1"/>
+    <col min="3" max="3" width="12.83203125" customWidth="1"/>
     <col min="4" max="4" width="8.6640625" customWidth="1"/>
-    <col min="5" max="5" width="15.44140625" customWidth="1"/>
-    <col min="6" max="6" width="23.88671875" customWidth="1"/>
+    <col min="5" max="5" width="15.5" customWidth="1"/>
+    <col min="6" max="6" width="23.83203125" customWidth="1"/>
     <col min="7" max="13" width="8.6640625" customWidth="1"/>
-    <col min="14" max="14" width="11.5546875" customWidth="1"/>
+    <col min="14" max="14" width="11.5" customWidth="1"/>
     <col min="15" max="21" width="8.6640625" customWidth="1"/>
     <col min="22" max="22" width="11" customWidth="1"/>
-    <col min="23" max="24" width="40.44140625" customWidth="1"/>
-    <col min="25" max="25" width="45.44140625" customWidth="1"/>
-    <col min="26" max="26" width="54.5546875" customWidth="1"/>
-    <col min="27" max="27" width="40.44140625" customWidth="1"/>
+    <col min="23" max="24" width="40.5" customWidth="1"/>
+    <col min="25" max="25" width="45.5" customWidth="1"/>
+    <col min="26" max="26" width="54.5" customWidth="1"/>
+    <col min="27" max="27" width="40.5" customWidth="1"/>
     <col min="28" max="30" width="11.6640625" customWidth="1"/>
     <col min="31" max="43" width="8.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" ht="67.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:30" ht="67.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1592,7 +1592,7 @@
       <c r="AC1" s="2"/>
       <c r="AD1" s="2"/>
     </row>
-    <row r="2" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A2" s="3"/>
       <c r="B2" s="4" t="s">
         <v>314</v>
@@ -1674,7 +1674,7 @@
       <c r="AC2" s="10"/>
       <c r="AD2" s="10"/>
     </row>
-    <row r="3" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A3" s="3"/>
       <c r="B3" s="4" t="s">
         <v>317</v>
@@ -1754,7 +1754,7 @@
       <c r="AC3" s="10"/>
       <c r="AD3" s="10"/>
     </row>
-    <row r="4" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A4" s="3"/>
       <c r="B4" s="4" t="s">
         <v>318</v>
@@ -1836,7 +1836,7 @@
       <c r="AC4" s="10"/>
       <c r="AD4" s="10"/>
     </row>
-    <row r="5" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A5" s="3"/>
       <c r="B5" s="4" t="s">
         <v>319</v>
@@ -1918,7 +1918,7 @@
       <c r="AC5" s="10"/>
       <c r="AD5" s="10"/>
     </row>
-    <row r="6" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A6" s="3"/>
       <c r="B6" s="4" t="s">
         <v>322</v>
@@ -1994,7 +1994,7 @@
       <c r="AC6" s="10"/>
       <c r="AD6" s="10"/>
     </row>
-    <row r="7" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A7" s="3"/>
       <c r="B7" s="4" t="s">
         <v>325</v>
@@ -2076,7 +2076,7 @@
       <c r="AC7" s="10"/>
       <c r="AD7" s="10"/>
     </row>
-    <row r="8" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A8" s="3"/>
       <c r="B8" s="4" t="s">
         <v>245</v>
@@ -2154,7 +2154,7 @@
       <c r="AC8" s="10"/>
       <c r="AD8" s="10"/>
     </row>
-    <row r="9" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A9" s="3"/>
       <c r="B9" s="4" t="s">
         <v>248</v>
@@ -2230,7 +2230,7 @@
       <c r="AC9" s="10"/>
       <c r="AD9" s="10"/>
     </row>
-    <row r="10" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A10" s="3"/>
       <c r="B10" s="4" t="s">
         <v>252</v>
@@ -2312,7 +2312,7 @@
       <c r="AC10" s="10"/>
       <c r="AD10" s="10"/>
     </row>
-    <row r="11" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A11" s="3"/>
       <c r="B11" s="4" t="s">
         <v>255</v>
@@ -2394,7 +2394,7 @@
       <c r="AC11" s="10"/>
       <c r="AD11" s="10"/>
     </row>
-    <row r="12" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A12" s="3"/>
       <c r="B12" s="4" t="s">
         <v>258</v>
@@ -2472,7 +2472,7 @@
       <c r="AC12" s="10"/>
       <c r="AD12" s="10"/>
     </row>
-    <row r="13" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A13" s="3"/>
       <c r="B13" s="4" t="s">
         <v>261</v>
@@ -2554,7 +2554,7 @@
       <c r="AC13" s="10"/>
       <c r="AD13" s="10"/>
     </row>
-    <row r="14" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A14" s="3"/>
       <c r="B14" s="4" t="s">
         <v>264</v>
@@ -2632,7 +2632,7 @@
       <c r="AC14" s="10"/>
       <c r="AD14" s="10"/>
     </row>
-    <row r="15" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A15" s="3"/>
       <c r="B15" s="4" t="s">
         <v>267</v>
@@ -2712,7 +2712,7 @@
       <c r="AC15" s="10"/>
       <c r="AD15" s="10"/>
     </row>
-    <row r="16" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A16" s="3"/>
       <c r="B16" s="4" t="s">
         <v>270</v>
@@ -2794,7 +2794,7 @@
       <c r="AC16" s="10"/>
       <c r="AD16" s="10"/>
     </row>
-    <row r="17" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A17" s="3"/>
       <c r="B17" s="4" t="s">
         <v>273</v>
@@ -2878,7 +2878,7 @@
       <c r="AC17" s="10"/>
       <c r="AD17" s="10"/>
     </row>
-    <row r="18" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A18" s="3"/>
       <c r="B18" s="4" t="s">
         <v>276</v>
@@ -2945,7 +2945,7 @@
       <c r="AC18" s="10"/>
       <c r="AD18" s="10"/>
     </row>
-    <row r="19" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A19" s="3"/>
       <c r="B19" s="4" t="s">
         <v>279</v>
@@ -3012,7 +3012,7 @@
       <c r="AC19" s="10"/>
       <c r="AD19" s="10"/>
     </row>
-    <row r="20" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A20" s="3"/>
       <c r="B20" s="4" t="s">
         <v>282</v>
@@ -3081,7 +3081,7 @@
       <c r="AC20" s="10"/>
       <c r="AD20" s="10"/>
     </row>
-    <row r="21" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="3"/>
       <c r="B21" s="4" t="s">
         <v>285</v>
@@ -3150,7 +3150,7 @@
       <c r="AC21" s="10"/>
       <c r="AD21" s="10"/>
     </row>
-    <row r="22" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="3"/>
       <c r="B22" s="4" t="s">
         <v>289</v>
@@ -3217,7 +3217,7 @@
       <c r="AC22" s="10"/>
       <c r="AD22" s="10"/>
     </row>
-    <row r="23" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="3"/>
       <c r="B23" s="4" t="s">
         <v>293</v>
@@ -3297,7 +3297,7 @@
       <c r="AC23" s="10"/>
       <c r="AD23" s="10"/>
     </row>
-    <row r="24" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="3"/>
       <c r="B24" s="4" t="s">
         <v>296</v>
@@ -3379,7 +3379,7 @@
       <c r="AC24" s="10"/>
       <c r="AD24" s="10"/>
     </row>
-    <row r="25" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="3"/>
       <c r="B25" s="4" t="s">
         <v>299</v>
@@ -3461,7 +3461,7 @@
       <c r="AC25" s="10"/>
       <c r="AD25" s="10"/>
     </row>
-    <row r="26" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="3"/>
       <c r="B26" s="4" t="s">
         <v>302</v>
@@ -3543,7 +3543,7 @@
       <c r="AC26" s="10"/>
       <c r="AD26" s="10"/>
     </row>
-    <row r="27" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="3"/>
       <c r="B27" s="4" t="s">
         <v>305</v>
@@ -3612,7 +3612,7 @@
       </c>
       <c r="AD27" s="10"/>
     </row>
-    <row r="28" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="3"/>
       <c r="B28" s="4" t="s">
         <v>227</v>
@@ -3679,7 +3679,7 @@
       <c r="AC28" s="10"/>
       <c r="AD28" s="10"/>
     </row>
-    <row r="29" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="3"/>
       <c r="B29" s="4" t="s">
         <v>230</v>
@@ -3746,7 +3746,7 @@
       <c r="AC29" s="10"/>
       <c r="AD29" s="10"/>
     </row>
-    <row r="30" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="3"/>
       <c r="B30" s="4" t="s">
         <v>233</v>
@@ -3817,7 +3817,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="31" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="3"/>
       <c r="B31" s="4" t="s">
         <v>236</v>
@@ -3886,7 +3886,7 @@
       <c r="AC31" s="10"/>
       <c r="AD31" s="10"/>
     </row>
-    <row r="32" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="3"/>
       <c r="B32" s="4" t="s">
         <v>239</v>
@@ -3953,7 +3953,7 @@
       <c r="AC32" s="10"/>
       <c r="AD32" s="10"/>
     </row>
-    <row r="33" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="3"/>
       <c r="B33" s="4" t="s">
         <v>242</v>
@@ -4022,7 +4022,7 @@
       <c r="AC33" s="10"/>
       <c r="AD33" s="10"/>
     </row>
-    <row r="34" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="3"/>
       <c r="B34" s="4" t="s">
         <v>245</v>
@@ -4089,7 +4089,7 @@
       <c r="AC34" s="10"/>
       <c r="AD34" s="10"/>
     </row>
-    <row r="35" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="3"/>
       <c r="B35" s="4" t="s">
         <v>248</v>
@@ -4171,7 +4171,7 @@
       <c r="AC35" s="10"/>
       <c r="AD35" s="10"/>
     </row>
-    <row r="36" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="3"/>
       <c r="B36" s="4" t="s">
         <v>252</v>
@@ -4255,7 +4255,7 @@
       <c r="AC36" s="10"/>
       <c r="AD36" s="10"/>
     </row>
-    <row r="37" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="3"/>
       <c r="B37" s="4" t="s">
         <v>255</v>
@@ -4337,7 +4337,7 @@
       <c r="AC37" s="10"/>
       <c r="AD37" s="10"/>
     </row>
-    <row r="38" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="3"/>
       <c r="B38" s="4" t="s">
         <v>258</v>
@@ -4423,7 +4423,7 @@
       </c>
       <c r="AD38" s="10"/>
     </row>
-    <row r="39" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="3"/>
       <c r="B39" s="4" t="s">
         <v>261</v>
@@ -4496,7 +4496,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="40" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="3"/>
       <c r="B40" s="4" t="s">
         <v>264</v>
@@ -4578,7 +4578,7 @@
       <c r="AC40" s="10"/>
       <c r="AD40" s="10"/>
     </row>
-    <row r="41" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="3"/>
       <c r="B41" s="4" t="s">
         <v>267</v>
@@ -4660,7 +4660,7 @@
       <c r="AC41" s="10"/>
       <c r="AD41" s="10"/>
     </row>
-    <row r="42" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="3"/>
       <c r="B42" s="4" t="s">
         <v>270</v>
@@ -4744,7 +4744,7 @@
       <c r="AC42" s="10"/>
       <c r="AD42" s="10"/>
     </row>
-    <row r="43" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="3"/>
       <c r="B43" s="4" t="s">
         <v>273</v>
@@ -4826,7 +4826,7 @@
       <c r="AC43" s="10"/>
       <c r="AD43" s="10"/>
     </row>
-    <row r="44" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="3"/>
       <c r="B44" s="4" t="s">
         <v>276</v>
@@ -4910,7 +4910,7 @@
       <c r="AC44" s="10"/>
       <c r="AD44" s="10"/>
     </row>
-    <row r="45" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="3"/>
       <c r="B45" s="4" t="s">
         <v>279</v>
@@ -4992,7 +4992,7 @@
       <c r="AC45" s="10"/>
       <c r="AD45" s="10"/>
     </row>
-    <row r="46" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="3"/>
       <c r="B46" s="4" t="s">
         <v>282</v>
@@ -5074,7 +5074,7 @@
       <c r="AC46" s="10"/>
       <c r="AD46" s="10"/>
     </row>
-    <row r="47" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="3"/>
       <c r="B47" s="4" t="s">
         <v>285</v>
@@ -5156,7 +5156,7 @@
       <c r="AC47" s="10"/>
       <c r="AD47" s="10"/>
     </row>
-    <row r="48" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="3"/>
       <c r="B48" s="4" t="s">
         <v>289</v>
@@ -5240,7 +5240,7 @@
       <c r="AC48" s="10"/>
       <c r="AD48" s="10"/>
     </row>
-    <row r="49" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="3"/>
       <c r="B49" s="4"/>
       <c r="C49" s="4"/>
@@ -5272,7 +5272,7 @@
       <c r="AC49" s="10"/>
       <c r="AD49" s="10"/>
     </row>
-    <row r="50" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="3"/>
       <c r="B50" s="4"/>
       <c r="C50" s="4"/>
@@ -5304,7 +5304,7 @@
       <c r="AC50" s="10"/>
       <c r="AD50" s="10"/>
     </row>
-    <row r="51" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="3"/>
       <c r="B51" s="4"/>
       <c r="C51" s="4"/>
@@ -5336,7 +5336,7 @@
       <c r="AC51" s="10"/>
       <c r="AD51" s="10"/>
     </row>
-    <row r="52" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="3"/>
       <c r="B52" s="4"/>
       <c r="C52" s="4"/>
@@ -5368,7 +5368,7 @@
       <c r="AC52" s="10"/>
       <c r="AD52" s="10"/>
     </row>
-    <row r="53" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="3"/>
       <c r="B53" s="4"/>
       <c r="C53" s="4"/>
@@ -5400,7 +5400,7 @@
       <c r="AC53" s="10"/>
       <c r="AD53" s="10"/>
     </row>
-    <row r="54" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="3"/>
       <c r="B54" s="4"/>
       <c r="C54" s="4"/>
@@ -5432,7 +5432,7 @@
       <c r="AC54" s="10"/>
       <c r="AD54" s="10"/>
     </row>
-    <row r="55" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="3"/>
       <c r="B55" s="4"/>
       <c r="C55" s="4"/>
@@ -5464,7 +5464,7 @@
       <c r="AC55" s="10"/>
       <c r="AD55" s="10"/>
     </row>
-    <row r="56" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="3"/>
       <c r="B56" s="4"/>
       <c r="C56" s="4"/>
@@ -5496,7 +5496,7 @@
       <c r="AC56" s="10"/>
       <c r="AD56" s="10"/>
     </row>
-    <row r="57" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="3"/>
       <c r="B57" s="4"/>
       <c r="C57" s="4"/>
@@ -5528,7 +5528,7 @@
       <c r="AC57" s="10"/>
       <c r="AD57" s="10"/>
     </row>
-    <row r="58" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="3"/>
       <c r="B58" s="4"/>
       <c r="C58" s="4"/>
@@ -5560,7 +5560,7 @@
       <c r="AC58" s="10"/>
       <c r="AD58" s="10"/>
     </row>
-    <row r="59" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="3"/>
       <c r="B59" s="4"/>
       <c r="C59" s="4"/>
@@ -5592,7 +5592,7 @@
       <c r="AC59" s="10"/>
       <c r="AD59" s="10"/>
     </row>
-    <row r="60" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="3"/>
       <c r="B60" s="4"/>
       <c r="C60" s="4"/>
@@ -5624,7 +5624,7 @@
       <c r="AC60" s="10"/>
       <c r="AD60" s="10"/>
     </row>
-    <row r="61" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="3"/>
       <c r="B61" s="4"/>
       <c r="C61" s="4"/>
@@ -5656,7 +5656,7 @@
       <c r="AC61" s="10"/>
       <c r="AD61" s="10"/>
     </row>
-    <row r="62" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="3"/>
       <c r="B62" s="4"/>
       <c r="C62" s="4"/>
@@ -5688,7 +5688,7 @@
       <c r="AC62" s="10"/>
       <c r="AD62" s="10"/>
     </row>
-    <row r="63" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="3"/>
       <c r="B63" s="4"/>
       <c r="C63" s="4"/>
@@ -5720,7 +5720,7 @@
       <c r="AC63" s="10"/>
       <c r="AD63" s="10"/>
     </row>
-    <row r="64" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="3"/>
       <c r="B64" s="4"/>
       <c r="C64" s="4"/>
@@ -5752,7 +5752,7 @@
       <c r="AC64" s="10"/>
       <c r="AD64" s="10"/>
     </row>
-    <row r="65" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="3"/>
       <c r="B65" s="4"/>
       <c r="C65" s="4"/>
@@ -5784,7 +5784,7 @@
       <c r="AC65" s="10"/>
       <c r="AD65" s="10"/>
     </row>
-    <row r="66" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="3"/>
       <c r="B66" s="4"/>
       <c r="C66" s="4"/>
@@ -5816,7 +5816,7 @@
       <c r="AC66" s="10"/>
       <c r="AD66" s="10"/>
     </row>
-    <row r="67" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="3"/>
       <c r="B67" s="4"/>
       <c r="C67" s="4"/>
@@ -5848,7 +5848,7 @@
       <c r="AC67" s="10"/>
       <c r="AD67" s="10"/>
     </row>
-    <row r="68" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="3"/>
       <c r="B68" s="4"/>
       <c r="C68" s="4"/>
@@ -5880,7 +5880,7 @@
       <c r="AC68" s="10"/>
       <c r="AD68" s="10"/>
     </row>
-    <row r="69" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="3"/>
       <c r="B69" s="4"/>
       <c r="C69" s="4"/>
@@ -5912,7 +5912,7 @@
       <c r="AC69" s="10"/>
       <c r="AD69" s="10"/>
     </row>
-    <row r="70" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="3"/>
       <c r="B70" s="4"/>
       <c r="C70" s="4"/>
@@ -5944,7 +5944,7 @@
       <c r="AC70" s="10"/>
       <c r="AD70" s="10"/>
     </row>
-    <row r="71" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="3"/>
       <c r="B71" s="4"/>
       <c r="C71" s="4"/>
@@ -5976,7 +5976,7 @@
       <c r="AC71" s="10"/>
       <c r="AD71" s="10"/>
     </row>
-    <row r="72" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="3"/>
       <c r="B72" s="4"/>
       <c r="C72" s="4"/>
@@ -6008,7 +6008,7 @@
       <c r="AC72" s="10"/>
       <c r="AD72" s="10"/>
     </row>
-    <row r="73" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="3"/>
       <c r="B73" s="4"/>
       <c r="C73" s="4"/>
@@ -6040,7 +6040,7 @@
       <c r="AC73" s="10"/>
       <c r="AD73" s="10"/>
     </row>
-    <row r="74" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="3"/>
       <c r="B74" s="4"/>
       <c r="C74" s="4"/>
@@ -6072,7 +6072,7 @@
       <c r="AC74" s="10"/>
       <c r="AD74" s="10"/>
     </row>
-    <row r="75" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="3"/>
       <c r="B75" s="4"/>
       <c r="C75" s="4"/>
@@ -6104,7 +6104,7 @@
       <c r="AC75" s="10"/>
       <c r="AD75" s="10"/>
     </row>
-    <row r="76" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="3"/>
       <c r="B76" s="4"/>
       <c r="C76" s="4"/>
@@ -6136,7 +6136,7 @@
       <c r="AC76" s="10"/>
       <c r="AD76" s="10"/>
     </row>
-    <row r="77" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" s="3"/>
       <c r="B77" s="4"/>
       <c r="C77" s="4"/>
@@ -6168,7 +6168,7 @@
       <c r="AC77" s="10"/>
       <c r="AD77" s="10"/>
     </row>
-    <row r="78" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" s="3"/>
       <c r="B78" s="4"/>
       <c r="C78" s="4"/>
@@ -6200,7 +6200,7 @@
       <c r="AC78" s="10"/>
       <c r="AD78" s="10"/>
     </row>
-    <row r="79" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79" s="3"/>
       <c r="B79" s="4"/>
       <c r="C79" s="4"/>
@@ -6232,7 +6232,7 @@
       <c r="AC79" s="10"/>
       <c r="AD79" s="10"/>
     </row>
-    <row r="80" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80" s="3"/>
       <c r="B80" s="4"/>
       <c r="C80" s="4"/>
@@ -6264,7 +6264,7 @@
       <c r="AC80" s="10"/>
       <c r="AD80" s="10"/>
     </row>
-    <row r="81" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" s="3"/>
       <c r="B81" s="4"/>
       <c r="C81" s="4"/>
@@ -6296,7 +6296,7 @@
       <c r="AC81" s="10"/>
       <c r="AD81" s="10"/>
     </row>
-    <row r="82" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A82" s="3"/>
       <c r="B82" s="4"/>
       <c r="C82" s="4"/>
@@ -6328,7 +6328,7 @@
       <c r="AC82" s="10"/>
       <c r="AD82" s="10"/>
     </row>
-    <row r="83" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="3"/>
       <c r="B83" s="4"/>
       <c r="C83" s="4"/>
@@ -6360,7 +6360,7 @@
       <c r="AC83" s="10"/>
       <c r="AD83" s="10"/>
     </row>
-    <row r="84" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A84" s="3"/>
       <c r="B84" s="4"/>
       <c r="C84" s="4"/>
@@ -6392,7 +6392,7 @@
       <c r="AC84" s="10"/>
       <c r="AD84" s="10"/>
     </row>
-    <row r="85" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85" s="3"/>
       <c r="B85" s="4"/>
       <c r="C85" s="4"/>
@@ -6424,7 +6424,7 @@
       <c r="AC85" s="10"/>
       <c r="AD85" s="10"/>
     </row>
-    <row r="86" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86" s="3"/>
       <c r="B86" s="4"/>
       <c r="C86" s="4"/>
@@ -6456,7 +6456,7 @@
       <c r="AC86" s="10"/>
       <c r="AD86" s="10"/>
     </row>
-    <row r="87" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A87" s="3"/>
       <c r="B87" s="4"/>
       <c r="C87" s="4"/>
@@ -6488,7 +6488,7 @@
       <c r="AC87" s="10"/>
       <c r="AD87" s="10"/>
     </row>
-    <row r="88" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A88" s="3"/>
       <c r="B88" s="4"/>
       <c r="C88" s="4"/>
@@ -6520,7 +6520,7 @@
       <c r="AC88" s="10"/>
       <c r="AD88" s="10"/>
     </row>
-    <row r="89" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A89" s="3"/>
       <c r="B89" s="4"/>
       <c r="C89" s="4"/>
@@ -6552,7 +6552,7 @@
       <c r="AC89" s="10"/>
       <c r="AD89" s="10"/>
     </row>
-    <row r="90" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A90" s="3"/>
       <c r="B90" s="4"/>
       <c r="C90" s="4"/>
@@ -6584,7 +6584,7 @@
       <c r="AC90" s="10"/>
       <c r="AD90" s="10"/>
     </row>
-    <row r="91" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A91" s="3"/>
       <c r="B91" s="4"/>
       <c r="C91" s="4"/>
@@ -6616,7 +6616,7 @@
       <c r="AC91" s="10"/>
       <c r="AD91" s="10"/>
     </row>
-    <row r="92" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A92" s="3"/>
       <c r="B92" s="4"/>
       <c r="C92" s="4"/>
@@ -6648,7 +6648,7 @@
       <c r="AC92" s="10"/>
       <c r="AD92" s="10"/>
     </row>
-    <row r="93" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A93" s="3"/>
       <c r="B93" s="4"/>
       <c r="C93" s="4"/>
@@ -6680,7 +6680,7 @@
       <c r="AC93" s="10"/>
       <c r="AD93" s="10"/>
     </row>
-    <row r="94" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A94" s="3"/>
       <c r="B94" s="4"/>
       <c r="C94" s="4"/>
@@ -6712,7 +6712,7 @@
       <c r="AC94" s="10"/>
       <c r="AD94" s="10"/>
     </row>
-    <row r="95" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A95" s="3"/>
       <c r="B95" s="4"/>
       <c r="C95" s="4"/>
@@ -6744,7 +6744,7 @@
       <c r="AC95" s="10"/>
       <c r="AD95" s="10"/>
     </row>
-    <row r="96" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A96" s="3"/>
       <c r="B96" s="4"/>
       <c r="C96" s="4"/>
@@ -6776,7 +6776,7 @@
       <c r="AC96" s="10"/>
       <c r="AD96" s="10"/>
     </row>
-    <row r="97" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A97" s="3"/>
       <c r="B97" s="4"/>
       <c r="C97" s="4"/>
@@ -6808,7 +6808,7 @@
       <c r="AC97" s="10"/>
       <c r="AD97" s="10"/>
     </row>
-    <row r="98" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A98" s="3"/>
       <c r="B98" s="4"/>
       <c r="C98" s="4"/>
@@ -6840,7 +6840,7 @@
       <c r="AC98" s="10"/>
       <c r="AD98" s="10"/>
     </row>
-    <row r="99" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A99" s="3"/>
       <c r="B99" s="4"/>
       <c r="C99" s="4"/>
@@ -6872,7 +6872,7 @@
       <c r="AC99" s="10"/>
       <c r="AD99" s="10"/>
     </row>
-    <row r="100" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A100" s="3"/>
       <c r="B100" s="4"/>
       <c r="C100" s="4"/>
@@ -6904,7 +6904,7 @@
       <c r="AC100" s="10"/>
       <c r="AD100" s="10"/>
     </row>
-    <row r="101" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A101" s="3"/>
       <c r="B101" s="4"/>
       <c r="C101" s="4"/>
@@ -6936,7 +6936,7 @@
       <c r="AC101" s="10"/>
       <c r="AD101" s="10"/>
     </row>
-    <row r="102" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A102" s="3"/>
       <c r="B102" s="4"/>
       <c r="C102" s="4"/>
@@ -6968,7 +6968,7 @@
       <c r="AC102" s="10"/>
       <c r="AD102" s="10"/>
     </row>
-    <row r="103" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A103" s="3"/>
       <c r="B103" s="4"/>
       <c r="C103" s="4"/>
@@ -7000,7 +7000,7 @@
       <c r="AC103" s="10"/>
       <c r="AD103" s="10"/>
     </row>
-    <row r="104" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A104" s="3"/>
       <c r="B104" s="4"/>
       <c r="C104" s="4"/>
@@ -7032,7 +7032,7 @@
       <c r="AC104" s="10"/>
       <c r="AD104" s="10"/>
     </row>
-    <row r="105" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A105" s="3"/>
       <c r="B105" s="4"/>
       <c r="C105" s="4"/>
@@ -7064,7 +7064,7 @@
       <c r="AC105" s="10"/>
       <c r="AD105" s="10"/>
     </row>
-    <row r="106" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A106" s="3"/>
       <c r="B106" s="4"/>
       <c r="C106" s="4"/>
@@ -7096,7 +7096,7 @@
       <c r="AC106" s="10"/>
       <c r="AD106" s="10"/>
     </row>
-    <row r="107" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A107" s="3"/>
       <c r="B107" s="4"/>
       <c r="C107" s="4"/>
@@ -7128,7 +7128,7 @@
       <c r="AC107" s="10"/>
       <c r="AD107" s="10"/>
     </row>
-    <row r="108" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A108" s="3"/>
       <c r="B108" s="4"/>
       <c r="C108" s="4"/>
@@ -7160,7 +7160,7 @@
       <c r="AC108" s="10"/>
       <c r="AD108" s="10"/>
     </row>
-    <row r="109" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A109" s="3"/>
       <c r="B109" s="4"/>
       <c r="C109" s="4"/>
@@ -7192,7 +7192,7 @@
       <c r="AC109" s="10"/>
       <c r="AD109" s="10"/>
     </row>
-    <row r="110" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A110" s="3"/>
       <c r="B110" s="4"/>
       <c r="C110" s="4"/>
@@ -7224,7 +7224,7 @@
       <c r="AC110" s="10"/>
       <c r="AD110" s="10"/>
     </row>
-    <row r="111" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A111" s="3"/>
       <c r="B111" s="4"/>
       <c r="C111" s="4"/>
@@ -7256,7 +7256,7 @@
       <c r="AC111" s="10"/>
       <c r="AD111" s="10"/>
     </row>
-    <row r="112" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A112" s="3"/>
       <c r="B112" s="4"/>
       <c r="C112" s="4"/>
@@ -7288,7 +7288,7 @@
       <c r="AC112" s="10"/>
       <c r="AD112" s="10"/>
     </row>
-    <row r="113" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A113" s="3"/>
       <c r="B113" s="4"/>
       <c r="C113" s="4"/>
@@ -7320,7 +7320,7 @@
       <c r="AC113" s="10"/>
       <c r="AD113" s="10"/>
     </row>
-    <row r="114" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A114" s="3"/>
       <c r="B114" s="4"/>
       <c r="C114" s="4"/>
@@ -7352,7 +7352,7 @@
       <c r="AC114" s="10"/>
       <c r="AD114" s="10"/>
     </row>
-    <row r="115" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A115" s="3"/>
       <c r="B115" s="4"/>
       <c r="C115" s="4"/>
@@ -7384,7 +7384,7 @@
       <c r="AC115" s="10"/>
       <c r="AD115" s="10"/>
     </row>
-    <row r="116" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A116" s="3"/>
       <c r="B116" s="4"/>
       <c r="C116" s="4"/>
@@ -7416,7 +7416,7 @@
       <c r="AC116" s="10"/>
       <c r="AD116" s="10"/>
     </row>
-    <row r="117" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A117" s="3"/>
       <c r="B117" s="4"/>
       <c r="C117" s="4"/>
@@ -7448,7 +7448,7 @@
       <c r="AC117" s="10"/>
       <c r="AD117" s="10"/>
     </row>
-    <row r="118" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A118" s="3"/>
       <c r="B118" s="4"/>
       <c r="C118" s="4"/>
@@ -7480,7 +7480,7 @@
       <c r="AC118" s="10"/>
       <c r="AD118" s="10"/>
     </row>
-    <row r="119" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A119" s="3"/>
       <c r="B119" s="4"/>
       <c r="C119" s="4"/>
@@ -7512,7 +7512,7 @@
       <c r="AC119" s="10"/>
       <c r="AD119" s="10"/>
     </row>
-    <row r="120" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A120" s="3"/>
       <c r="B120" s="4"/>
       <c r="C120" s="4"/>
@@ -7544,7 +7544,7 @@
       <c r="AC120" s="10"/>
       <c r="AD120" s="10"/>
     </row>
-    <row r="121" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A121" s="3"/>
       <c r="B121" s="4"/>
       <c r="C121" s="4"/>
@@ -7576,7 +7576,7 @@
       <c r="AC121" s="10"/>
       <c r="AD121" s="10"/>
     </row>
-    <row r="122" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A122" s="3"/>
       <c r="B122" s="4"/>
       <c r="C122" s="4"/>
@@ -7608,7 +7608,7 @@
       <c r="AC122" s="10"/>
       <c r="AD122" s="10"/>
     </row>
-    <row r="123" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A123" s="3"/>
       <c r="B123" s="4"/>
       <c r="C123" s="4"/>
@@ -7640,7 +7640,7 @@
       <c r="AC123" s="10"/>
       <c r="AD123" s="10"/>
     </row>
-    <row r="124" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A124" s="3"/>
       <c r="B124" s="4"/>
       <c r="C124" s="4"/>
@@ -7672,7 +7672,7 @@
       <c r="AC124" s="10"/>
       <c r="AD124" s="10"/>
     </row>
-    <row r="125" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A125" s="3"/>
       <c r="B125" s="4"/>
       <c r="C125" s="4"/>
@@ -7704,7 +7704,7 @@
       <c r="AC125" s="10"/>
       <c r="AD125" s="10"/>
     </row>
-    <row r="126" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A126" s="3"/>
       <c r="B126" s="4"/>
       <c r="C126" s="4"/>
@@ -7736,7 +7736,7 @@
       <c r="AC126" s="10"/>
       <c r="AD126" s="10"/>
     </row>
-    <row r="127" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A127" s="3"/>
       <c r="B127" s="4"/>
       <c r="C127" s="4"/>
@@ -7768,7 +7768,7 @@
       <c r="AC127" s="10"/>
       <c r="AD127" s="10"/>
     </row>
-    <row r="128" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A128" s="3"/>
       <c r="B128" s="4"/>
       <c r="C128" s="4"/>
@@ -7800,7 +7800,7 @@
       <c r="AC128" s="10"/>
       <c r="AD128" s="10"/>
     </row>
-    <row r="129" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A129" s="12"/>
       <c r="B129" s="13"/>
       <c r="C129" s="13"/>
@@ -7821,7 +7821,7 @@
       <c r="X129" s="19"/>
       <c r="Y129" s="20"/>
     </row>
-    <row r="130" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A130" s="12"/>
       <c r="B130" s="13"/>
       <c r="C130" s="13"/>
@@ -7842,7 +7842,7 @@
       <c r="X130" s="19"/>
       <c r="Y130" s="20"/>
     </row>
-    <row r="131" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A131" s="12"/>
       <c r="B131" s="13"/>
       <c r="C131" s="13"/>
@@ -7863,7 +7863,7 @@
       <c r="X131" s="19"/>
       <c r="Y131" s="20"/>
     </row>
-    <row r="132" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A132" s="12"/>
       <c r="B132" s="13"/>
       <c r="C132" s="13"/>
@@ -7884,7 +7884,7 @@
       <c r="X132" s="19"/>
       <c r="Y132" s="20"/>
     </row>
-    <row r="133" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A133" s="12"/>
       <c r="B133" s="13"/>
       <c r="C133" s="13"/>
@@ -7905,7 +7905,7 @@
       <c r="X133" s="19"/>
       <c r="Y133" s="20"/>
     </row>
-    <row r="134" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A134" s="12"/>
       <c r="B134" s="13"/>
       <c r="C134" s="13"/>
@@ -7926,7 +7926,7 @@
       <c r="X134" s="19"/>
       <c r="Y134" s="20"/>
     </row>
-    <row r="135" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A135" s="21"/>
       <c r="N135" s="22"/>
       <c r="O135" s="22"/>
@@ -7937,7 +7937,7 @@
       <c r="T135" s="22"/>
       <c r="U135" s="23"/>
     </row>
-    <row r="136" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A136" s="21"/>
       <c r="N136" s="22"/>
       <c r="O136" s="22"/>
@@ -7948,7 +7948,7 @@
       <c r="T136" s="22"/>
       <c r="U136" s="23"/>
     </row>
-    <row r="137" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A137" s="21"/>
       <c r="N137" s="22"/>
       <c r="O137" s="22"/>
@@ -7959,7 +7959,7 @@
       <c r="T137" s="22"/>
       <c r="U137" s="23"/>
     </row>
-    <row r="138" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A138" s="21"/>
       <c r="N138" s="22"/>
       <c r="O138" s="22"/>
@@ -7970,7 +7970,7 @@
       <c r="T138" s="22"/>
       <c r="U138" s="23"/>
     </row>
-    <row r="139" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A139" s="21"/>
       <c r="N139" s="22"/>
       <c r="O139" s="22"/>
@@ -7981,7 +7981,7 @@
       <c r="T139" s="22"/>
       <c r="U139" s="23"/>
     </row>
-    <row r="140" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A140" s="21"/>
       <c r="N140" s="22"/>
       <c r="O140" s="22"/>
@@ -7992,7 +7992,7 @@
       <c r="T140" s="22"/>
       <c r="U140" s="23"/>
     </row>
-    <row r="141" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A141" s="21"/>
       <c r="N141" s="22"/>
       <c r="O141" s="22"/>
@@ -8003,7 +8003,7 @@
       <c r="T141" s="22"/>
       <c r="U141" s="23"/>
     </row>
-    <row r="142" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A142" s="21"/>
       <c r="N142" s="22"/>
       <c r="O142" s="22"/>
@@ -8014,7 +8014,7 @@
       <c r="T142" s="22"/>
       <c r="U142" s="23"/>
     </row>
-    <row r="143" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A143" s="21"/>
       <c r="N143" s="22"/>
       <c r="O143" s="22"/>
@@ -8025,7 +8025,7 @@
       <c r="T143" s="22"/>
       <c r="U143" s="23"/>
     </row>
-    <row r="144" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A144" s="21"/>
       <c r="N144" s="22"/>
       <c r="O144" s="22"/>
@@ -8036,7 +8036,7 @@
       <c r="T144" s="22"/>
       <c r="U144" s="23"/>
     </row>
-    <row r="145" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A145" s="21"/>
       <c r="N145" s="22"/>
       <c r="O145" s="22"/>
@@ -8047,7 +8047,7 @@
       <c r="T145" s="22"/>
       <c r="U145" s="23"/>
     </row>
-    <row r="146" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A146" s="21"/>
       <c r="N146" s="22"/>
       <c r="O146" s="22"/>
@@ -8058,7 +8058,7 @@
       <c r="T146" s="22"/>
       <c r="U146" s="23"/>
     </row>
-    <row r="147" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A147" s="21"/>
       <c r="N147" s="22"/>
       <c r="O147" s="22"/>
@@ -8069,7 +8069,7 @@
       <c r="T147" s="22"/>
       <c r="U147" s="23"/>
     </row>
-    <row r="148" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A148" s="21"/>
       <c r="N148" s="22"/>
       <c r="O148" s="22"/>
@@ -8080,7 +8080,7 @@
       <c r="T148" s="22"/>
       <c r="U148" s="23"/>
     </row>
-    <row r="149" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A149" s="21"/>
       <c r="N149" s="22"/>
       <c r="O149" s="22"/>
@@ -8091,7 +8091,7 @@
       <c r="T149" s="22"/>
       <c r="U149" s="23"/>
     </row>
-    <row r="150" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A150" s="21"/>
       <c r="N150" s="22"/>
       <c r="O150" s="22"/>
@@ -8102,7 +8102,7 @@
       <c r="T150" s="22"/>
       <c r="U150" s="23"/>
     </row>
-    <row r="151" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A151" s="21"/>
       <c r="N151" s="22"/>
       <c r="O151" s="22"/>
@@ -8113,7 +8113,7 @@
       <c r="T151" s="22"/>
       <c r="U151" s="23"/>
     </row>
-    <row r="152" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A152" s="21"/>
       <c r="N152" s="22"/>
       <c r="O152" s="22"/>
@@ -8124,7 +8124,7 @@
       <c r="T152" s="22"/>
       <c r="U152" s="23"/>
     </row>
-    <row r="153" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A153" s="21"/>
       <c r="N153" s="22"/>
       <c r="O153" s="22"/>
@@ -8135,7 +8135,7 @@
       <c r="T153" s="22"/>
       <c r="U153" s="23"/>
     </row>
-    <row r="154" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A154" s="21"/>
       <c r="N154" s="22"/>
       <c r="O154" s="22"/>
@@ -8146,7 +8146,7 @@
       <c r="T154" s="22"/>
       <c r="U154" s="23"/>
     </row>
-    <row r="155" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A155" s="21"/>
       <c r="N155" s="22"/>
       <c r="O155" s="22"/>
@@ -8157,7 +8157,7 @@
       <c r="T155" s="22"/>
       <c r="U155" s="23"/>
     </row>
-    <row r="156" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A156" s="21"/>
       <c r="N156" s="22"/>
       <c r="O156" s="22"/>
@@ -8168,7 +8168,7 @@
       <c r="T156" s="22"/>
       <c r="U156" s="23"/>
     </row>
-    <row r="157" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A157" s="21"/>
       <c r="N157" s="22"/>
       <c r="O157" s="22"/>
@@ -8179,7 +8179,7 @@
       <c r="T157" s="22"/>
       <c r="U157" s="23"/>
     </row>
-    <row r="158" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A158" s="21"/>
       <c r="N158" s="22"/>
       <c r="O158" s="22"/>
@@ -8190,7 +8190,7 @@
       <c r="T158" s="22"/>
       <c r="U158" s="23"/>
     </row>
-    <row r="159" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A159" s="21"/>
       <c r="N159" s="22"/>
       <c r="O159" s="22"/>
@@ -8201,7 +8201,7 @@
       <c r="T159" s="22"/>
       <c r="U159" s="23"/>
     </row>
-    <row r="160" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A160" s="21"/>
       <c r="N160" s="22"/>
       <c r="O160" s="22"/>
@@ -8212,7 +8212,7 @@
       <c r="T160" s="22"/>
       <c r="U160" s="23"/>
     </row>
-    <row r="161" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A161" s="21"/>
       <c r="N161" s="22"/>
       <c r="O161" s="22"/>
@@ -8223,7 +8223,7 @@
       <c r="T161" s="22"/>
       <c r="U161" s="23"/>
     </row>
-    <row r="162" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A162" s="21"/>
       <c r="N162" s="22"/>
       <c r="O162" s="22"/>
@@ -8234,7 +8234,7 @@
       <c r="T162" s="22"/>
       <c r="U162" s="23"/>
     </row>
-    <row r="163" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A163" s="21"/>
       <c r="N163" s="22"/>
       <c r="O163" s="22"/>
@@ -8245,7 +8245,7 @@
       <c r="T163" s="22"/>
       <c r="U163" s="23"/>
     </row>
-    <row r="164" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A164" s="21"/>
       <c r="N164" s="22"/>
       <c r="O164" s="22"/>
@@ -8256,7 +8256,7 @@
       <c r="T164" s="22"/>
       <c r="U164" s="23"/>
     </row>
-    <row r="165" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A165" s="21"/>
       <c r="N165" s="22"/>
       <c r="O165" s="22"/>
@@ -8267,7 +8267,7 @@
       <c r="T165" s="22"/>
       <c r="U165" s="23"/>
     </row>
-    <row r="166" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A166" s="21"/>
       <c r="N166" s="22"/>
       <c r="O166" s="22"/>
@@ -8278,7 +8278,7 @@
       <c r="T166" s="22"/>
       <c r="U166" s="23"/>
     </row>
-    <row r="167" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A167" s="21"/>
       <c r="N167" s="22"/>
       <c r="O167" s="22"/>
@@ -8289,7 +8289,7 @@
       <c r="T167" s="22"/>
       <c r="U167" s="23"/>
     </row>
-    <row r="168" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A168" s="21"/>
       <c r="N168" s="22"/>
       <c r="O168" s="22"/>
@@ -8300,7 +8300,7 @@
       <c r="T168" s="22"/>
       <c r="U168" s="23"/>
     </row>
-    <row r="169" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A169" s="21"/>
       <c r="N169" s="22"/>
       <c r="O169" s="22"/>
@@ -8311,7 +8311,7 @@
       <c r="T169" s="22"/>
       <c r="U169" s="23"/>
     </row>
-    <row r="170" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A170" s="21"/>
       <c r="N170" s="22"/>
       <c r="O170" s="22"/>
@@ -8322,7 +8322,7 @@
       <c r="T170" s="22"/>
       <c r="U170" s="23"/>
     </row>
-    <row r="171" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A171" s="21"/>
       <c r="N171" s="22"/>
       <c r="O171" s="22"/>
@@ -8333,7 +8333,7 @@
       <c r="T171" s="22"/>
       <c r="U171" s="23"/>
     </row>
-    <row r="172" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A172" s="21"/>
       <c r="N172" s="22"/>
       <c r="O172" s="22"/>
@@ -8344,7 +8344,7 @@
       <c r="T172" s="22"/>
       <c r="U172" s="23"/>
     </row>
-    <row r="173" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A173" s="21"/>
       <c r="N173" s="22"/>
       <c r="O173" s="22"/>
@@ -8355,7 +8355,7 @@
       <c r="T173" s="22"/>
       <c r="U173" s="23"/>
     </row>
-    <row r="174" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A174" s="21"/>
       <c r="N174" s="22"/>
       <c r="O174" s="22"/>
@@ -8366,7 +8366,7 @@
       <c r="T174" s="22"/>
       <c r="U174" s="23"/>
     </row>
-    <row r="175" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A175" s="21"/>
       <c r="N175" s="22"/>
       <c r="O175" s="22"/>
@@ -8377,7 +8377,7 @@
       <c r="T175" s="22"/>
       <c r="U175" s="23"/>
     </row>
-    <row r="176" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A176" s="21"/>
       <c r="N176" s="22"/>
       <c r="O176" s="22"/>
@@ -8388,7 +8388,7 @@
       <c r="T176" s="22"/>
       <c r="U176" s="23"/>
     </row>
-    <row r="177" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A177" s="21"/>
       <c r="N177" s="22"/>
       <c r="O177" s="22"/>
@@ -8399,7 +8399,7 @@
       <c r="T177" s="22"/>
       <c r="U177" s="23"/>
     </row>
-    <row r="178" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A178" s="21"/>
       <c r="N178" s="22"/>
       <c r="O178" s="22"/>
@@ -8410,7 +8410,7 @@
       <c r="T178" s="22"/>
       <c r="U178" s="23"/>
     </row>
-    <row r="179" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A179" s="21"/>
       <c r="N179" s="22"/>
       <c r="O179" s="22"/>
@@ -8421,7 +8421,7 @@
       <c r="T179" s="22"/>
       <c r="U179" s="23"/>
     </row>
-    <row r="180" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A180" s="21"/>
       <c r="N180" s="22"/>
       <c r="O180" s="22"/>
@@ -8432,7 +8432,7 @@
       <c r="T180" s="22"/>
       <c r="U180" s="23"/>
     </row>
-    <row r="181" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A181" s="21"/>
       <c r="N181" s="22"/>
       <c r="O181" s="22"/>
@@ -8443,7 +8443,7 @@
       <c r="T181" s="22"/>
       <c r="U181" s="23"/>
     </row>
-    <row r="182" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A182" s="21"/>
       <c r="N182" s="22"/>
       <c r="O182" s="22"/>
@@ -8454,2458 +8454,2458 @@
       <c r="T182" s="22"/>
       <c r="U182" s="23"/>
     </row>
-    <row r="183" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A183" s="21"/>
     </row>
-    <row r="184" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A184" s="21"/>
     </row>
-    <row r="185" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A185" s="21"/>
     </row>
-    <row r="186" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A186" s="21"/>
     </row>
-    <row r="187" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A187" s="21"/>
     </row>
-    <row r="188" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A188" s="21"/>
     </row>
-    <row r="189" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A189" s="21"/>
     </row>
-    <row r="190" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A190" s="21"/>
     </row>
-    <row r="191" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A191" s="21"/>
     </row>
-    <row r="192" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A192" s="21"/>
     </row>
-    <row r="193" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A193" s="21"/>
     </row>
-    <row r="194" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A194" s="21"/>
     </row>
-    <row r="195" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A195" s="21"/>
     </row>
-    <row r="196" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A196" s="21"/>
     </row>
-    <row r="197" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A197" s="21"/>
     </row>
-    <row r="198" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A198" s="21"/>
     </row>
-    <row r="199" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A199" s="21"/>
     </row>
-    <row r="200" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A200" s="21"/>
     </row>
-    <row r="201" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A201" s="21"/>
     </row>
-    <row r="202" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A202" s="21"/>
     </row>
-    <row r="203" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A203" s="21"/>
     </row>
-    <row r="204" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A204" s="21"/>
     </row>
-    <row r="205" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A205" s="21"/>
     </row>
-    <row r="206" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A206" s="21"/>
     </row>
-    <row r="207" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A207" s="21"/>
     </row>
-    <row r="208" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A208" s="21"/>
     </row>
-    <row r="209" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A209" s="21"/>
     </row>
-    <row r="210" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A210" s="21"/>
     </row>
-    <row r="211" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A211" s="21"/>
     </row>
-    <row r="212" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A212" s="21"/>
     </row>
-    <row r="213" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A213" s="21"/>
     </row>
-    <row r="214" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A214" s="21"/>
     </row>
-    <row r="215" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A215" s="21"/>
     </row>
-    <row r="216" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A216" s="21"/>
     </row>
-    <row r="217" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A217" s="21"/>
     </row>
-    <row r="218" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A218" s="21"/>
     </row>
-    <row r="219" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A219" s="21"/>
     </row>
-    <row r="220" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A220" s="21"/>
     </row>
-    <row r="221" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A221" s="21"/>
     </row>
-    <row r="222" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A222" s="21"/>
     </row>
-    <row r="223" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A223" s="21"/>
     </row>
-    <row r="224" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A224" s="21"/>
     </row>
-    <row r="225" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A225" s="21"/>
     </row>
-    <row r="226" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A226" s="21"/>
     </row>
-    <row r="227" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A227" s="21"/>
     </row>
-    <row r="228" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A228" s="21"/>
     </row>
-    <row r="229" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A229" s="21"/>
     </row>
-    <row r="230" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A230" s="21"/>
     </row>
-    <row r="231" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A231" s="21"/>
     </row>
-    <row r="232" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A232" s="21"/>
     </row>
-    <row r="233" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A233" s="21"/>
     </row>
-    <row r="234" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A234" s="21"/>
     </row>
-    <row r="235" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A235" s="21"/>
     </row>
-    <row r="236" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A236" s="21"/>
     </row>
-    <row r="237" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A237" s="21"/>
     </row>
-    <row r="238" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A238" s="21"/>
     </row>
-    <row r="239" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A239" s="21"/>
     </row>
-    <row r="240" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A240" s="21"/>
     </row>
-    <row r="241" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A241" s="21"/>
     </row>
-    <row r="242" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A242" s="21"/>
     </row>
-    <row r="243" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A243" s="21"/>
     </row>
-    <row r="244" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A244" s="21"/>
     </row>
-    <row r="245" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A245" s="21"/>
     </row>
-    <row r="246" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A246" s="21"/>
     </row>
-    <row r="247" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A247" s="21"/>
     </row>
-    <row r="248" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A248" s="21"/>
     </row>
-    <row r="249" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A249" s="21"/>
     </row>
-    <row r="250" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A250" s="21"/>
     </row>
-    <row r="251" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A251" s="21"/>
     </row>
-    <row r="252" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A252" s="21"/>
     </row>
-    <row r="253" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A253" s="21"/>
     </row>
-    <row r="254" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A254" s="21"/>
     </row>
-    <row r="255" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A255" s="21"/>
     </row>
-    <row r="256" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A256" s="21"/>
     </row>
-    <row r="257" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A257" s="21"/>
     </row>
-    <row r="258" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A258" s="21"/>
     </row>
-    <row r="259" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A259" s="21"/>
     </row>
-    <row r="260" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A260" s="21"/>
     </row>
-    <row r="261" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A261" s="21"/>
     </row>
-    <row r="262" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A262" s="21"/>
     </row>
-    <row r="263" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A263" s="21"/>
     </row>
-    <row r="264" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A264" s="21"/>
     </row>
-    <row r="265" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A265" s="21"/>
     </row>
-    <row r="266" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A266" s="21"/>
     </row>
-    <row r="267" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A267" s="21"/>
     </row>
-    <row r="268" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A268" s="21"/>
     </row>
-    <row r="269" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A269" s="21"/>
     </row>
-    <row r="270" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A270" s="21"/>
     </row>
-    <row r="271" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A271" s="21"/>
     </row>
-    <row r="272" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A272" s="21"/>
     </row>
-    <row r="273" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A273" s="21"/>
     </row>
-    <row r="274" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A274" s="21"/>
     </row>
-    <row r="275" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A275" s="21"/>
     </row>
-    <row r="276" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A276" s="21"/>
     </row>
-    <row r="277" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A277" s="21"/>
     </row>
-    <row r="278" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A278" s="21"/>
     </row>
-    <row r="279" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A279" s="21"/>
     </row>
-    <row r="280" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A280" s="21"/>
     </row>
-    <row r="281" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A281" s="21"/>
     </row>
-    <row r="282" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A282" s="21"/>
     </row>
-    <row r="283" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A283" s="21"/>
     </row>
-    <row r="284" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A284" s="21"/>
     </row>
-    <row r="285" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A285" s="21"/>
     </row>
-    <row r="286" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A286" s="21"/>
     </row>
-    <row r="287" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A287" s="21"/>
     </row>
-    <row r="288" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A288" s="21"/>
     </row>
-    <row r="289" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A289" s="21"/>
     </row>
-    <row r="290" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A290" s="21"/>
     </row>
-    <row r="291" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A291" s="21"/>
     </row>
-    <row r="292" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A292" s="21"/>
     </row>
-    <row r="293" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A293" s="21"/>
     </row>
-    <row r="294" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A294" s="21"/>
     </row>
-    <row r="295" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A295" s="21"/>
     </row>
-    <row r="296" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A296" s="21"/>
     </row>
-    <row r="297" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A297" s="21"/>
     </row>
-    <row r="298" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A298" s="21"/>
     </row>
-    <row r="299" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A299" s="21"/>
     </row>
-    <row r="300" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A300" s="21"/>
     </row>
-    <row r="301" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A301" s="21"/>
     </row>
-    <row r="302" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A302" s="21"/>
     </row>
-    <row r="303" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A303" s="21"/>
     </row>
-    <row r="304" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A304" s="21"/>
     </row>
-    <row r="305" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A305" s="21"/>
     </row>
-    <row r="306" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A306" s="21"/>
     </row>
-    <row r="307" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A307" s="21"/>
     </row>
-    <row r="308" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A308" s="21"/>
     </row>
-    <row r="309" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A309" s="21"/>
     </row>
-    <row r="310" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A310" s="21"/>
     </row>
-    <row r="311" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A311" s="21"/>
     </row>
-    <row r="312" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A312" s="21"/>
     </row>
-    <row r="313" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A313" s="21"/>
     </row>
-    <row r="314" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A314" s="21"/>
     </row>
-    <row r="315" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A315" s="21"/>
     </row>
-    <row r="316" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A316" s="21"/>
     </row>
-    <row r="317" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A317" s="21"/>
     </row>
-    <row r="318" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A318" s="21"/>
     </row>
-    <row r="319" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A319" s="21"/>
     </row>
-    <row r="320" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A320" s="21"/>
     </row>
-    <row r="321" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A321" s="21"/>
     </row>
-    <row r="322" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A322" s="21"/>
     </row>
-    <row r="323" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A323" s="21"/>
     </row>
-    <row r="324" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A324" s="21"/>
     </row>
-    <row r="325" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A325" s="21"/>
     </row>
-    <row r="326" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A326" s="21"/>
     </row>
-    <row r="327" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A327" s="21"/>
     </row>
-    <row r="328" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A328" s="21"/>
     </row>
-    <row r="329" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A329" s="21"/>
     </row>
-    <row r="330" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A330" s="21"/>
     </row>
-    <row r="331" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A331" s="21"/>
     </row>
-    <row r="332" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A332" s="21"/>
     </row>
-    <row r="333" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A333" s="21"/>
     </row>
-    <row r="334" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A334" s="21"/>
     </row>
-    <row r="335" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A335" s="21"/>
     </row>
-    <row r="336" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A336" s="21"/>
     </row>
-    <row r="337" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A337" s="21"/>
     </row>
-    <row r="338" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A338" s="21"/>
     </row>
-    <row r="339" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A339" s="21"/>
     </row>
-    <row r="340" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A340" s="21"/>
     </row>
-    <row r="341" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A341" s="21"/>
     </row>
-    <row r="342" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A342" s="21"/>
     </row>
-    <row r="343" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A343" s="21"/>
     </row>
-    <row r="344" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A344" s="21"/>
     </row>
-    <row r="345" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A345" s="21"/>
     </row>
-    <row r="346" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A346" s="21"/>
     </row>
-    <row r="347" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A347" s="21"/>
     </row>
-    <row r="348" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A348" s="21"/>
     </row>
-    <row r="349" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A349" s="21"/>
     </row>
-    <row r="350" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A350" s="21"/>
     </row>
-    <row r="351" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A351" s="21"/>
     </row>
-    <row r="352" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A352" s="21"/>
     </row>
-    <row r="353" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A353" s="21"/>
     </row>
-    <row r="354" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A354" s="21"/>
     </row>
-    <row r="355" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A355" s="21"/>
     </row>
-    <row r="356" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A356" s="21"/>
     </row>
-    <row r="357" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A357" s="21"/>
     </row>
-    <row r="358" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A358" s="21"/>
     </row>
-    <row r="359" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A359" s="21"/>
     </row>
-    <row r="360" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A360" s="21"/>
     </row>
-    <row r="361" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A361" s="21"/>
     </row>
-    <row r="362" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A362" s="21"/>
     </row>
-    <row r="363" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A363" s="21"/>
     </row>
-    <row r="364" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A364" s="21"/>
     </row>
-    <row r="365" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A365" s="21"/>
     </row>
-    <row r="366" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A366" s="21"/>
     </row>
-    <row r="367" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="367" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A367" s="21"/>
     </row>
-    <row r="368" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="368" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A368" s="21"/>
     </row>
-    <row r="369" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="369" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A369" s="21"/>
     </row>
-    <row r="370" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="370" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A370" s="21"/>
     </row>
-    <row r="371" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="371" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A371" s="21"/>
     </row>
-    <row r="372" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="372" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A372" s="21"/>
     </row>
-    <row r="373" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="373" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A373" s="21"/>
     </row>
-    <row r="374" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="374" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A374" s="21"/>
     </row>
-    <row r="375" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="375" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A375" s="21"/>
     </row>
-    <row r="376" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="376" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A376" s="21"/>
     </row>
-    <row r="377" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="377" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A377" s="21"/>
     </row>
-    <row r="378" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="378" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A378" s="21"/>
     </row>
-    <row r="379" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="379" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A379" s="21"/>
     </row>
-    <row r="380" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="380" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A380" s="21"/>
     </row>
-    <row r="381" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="381" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A381" s="21"/>
     </row>
-    <row r="382" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="382" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A382" s="21"/>
     </row>
-    <row r="383" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="383" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A383" s="21"/>
     </row>
-    <row r="384" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="384" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A384" s="21"/>
     </row>
-    <row r="385" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="385" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A385" s="21"/>
     </row>
-    <row r="386" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="386" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A386" s="21"/>
     </row>
-    <row r="387" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="387" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A387" s="21"/>
     </row>
-    <row r="388" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="388" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A388" s="21"/>
     </row>
-    <row r="389" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="389" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A389" s="21"/>
     </row>
-    <row r="390" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="390" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A390" s="21"/>
     </row>
-    <row r="391" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="391" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A391" s="21"/>
     </row>
-    <row r="392" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="392" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A392" s="21"/>
     </row>
-    <row r="393" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="393" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A393" s="21"/>
     </row>
-    <row r="394" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="394" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A394" s="21"/>
     </row>
-    <row r="395" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="395" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A395" s="21"/>
     </row>
-    <row r="396" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="396" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A396" s="21"/>
     </row>
-    <row r="397" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="397" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A397" s="21"/>
     </row>
-    <row r="398" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="398" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A398" s="21"/>
     </row>
-    <row r="399" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="399" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A399" s="21"/>
     </row>
-    <row r="400" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="400" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A400" s="21"/>
     </row>
-    <row r="401" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="401" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A401" s="21"/>
     </row>
-    <row r="402" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="402" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A402" s="21"/>
     </row>
-    <row r="403" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="403" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A403" s="21"/>
     </row>
-    <row r="404" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="404" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A404" s="21"/>
     </row>
-    <row r="405" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="405" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A405" s="21"/>
     </row>
-    <row r="406" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="406" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A406" s="21"/>
     </row>
-    <row r="407" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="407" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A407" s="21"/>
     </row>
-    <row r="408" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="408" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A408" s="21"/>
     </row>
-    <row r="409" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="409" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A409" s="21"/>
     </row>
-    <row r="410" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="410" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A410" s="21"/>
     </row>
-    <row r="411" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="411" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A411" s="21"/>
     </row>
-    <row r="412" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="412" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A412" s="21"/>
     </row>
-    <row r="413" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="413" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A413" s="21"/>
     </row>
-    <row r="414" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="414" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A414" s="21"/>
     </row>
-    <row r="415" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="415" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A415" s="21"/>
     </row>
-    <row r="416" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="416" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A416" s="21"/>
     </row>
-    <row r="417" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="417" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A417" s="21"/>
     </row>
-    <row r="418" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="418" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A418" s="21"/>
     </row>
-    <row r="419" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="419" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A419" s="21"/>
     </row>
-    <row r="420" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="420" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A420" s="21"/>
     </row>
-    <row r="421" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="421" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A421" s="21"/>
     </row>
-    <row r="422" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="422" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A422" s="21"/>
     </row>
-    <row r="423" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="423" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A423" s="21"/>
     </row>
-    <row r="424" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="424" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A424" s="21"/>
     </row>
-    <row r="425" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="425" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A425" s="21"/>
     </row>
-    <row r="426" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="426" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A426" s="21"/>
     </row>
-    <row r="427" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="427" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A427" s="21"/>
     </row>
-    <row r="428" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="428" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A428" s="21"/>
     </row>
-    <row r="429" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="429" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A429" s="21"/>
     </row>
-    <row r="430" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="430" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A430" s="21"/>
     </row>
-    <row r="431" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="431" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A431" s="21"/>
     </row>
-    <row r="432" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="432" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A432" s="21"/>
     </row>
-    <row r="433" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="433" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A433" s="21"/>
     </row>
-    <row r="434" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="434" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A434" s="21"/>
     </row>
-    <row r="435" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="435" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A435" s="21"/>
     </row>
-    <row r="436" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="436" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A436" s="21"/>
     </row>
-    <row r="437" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="437" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A437" s="21"/>
     </row>
-    <row r="438" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="438" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A438" s="21"/>
     </row>
-    <row r="439" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="439" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A439" s="21"/>
     </row>
-    <row r="440" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="440" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A440" s="21"/>
     </row>
-    <row r="441" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="441" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A441" s="21"/>
     </row>
-    <row r="442" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="442" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A442" s="21"/>
     </row>
-    <row r="443" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="443" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A443" s="21"/>
     </row>
-    <row r="444" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="444" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A444" s="21"/>
     </row>
-    <row r="445" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="445" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A445" s="21"/>
     </row>
-    <row r="446" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="446" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A446" s="21"/>
     </row>
-    <row r="447" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="447" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A447" s="21"/>
     </row>
-    <row r="448" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="448" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A448" s="21"/>
     </row>
-    <row r="449" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="449" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A449" s="21"/>
     </row>
-    <row r="450" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="450" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A450" s="21"/>
     </row>
-    <row r="451" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="451" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A451" s="21"/>
     </row>
-    <row r="452" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="452" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A452" s="21"/>
     </row>
-    <row r="453" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="453" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A453" s="21"/>
     </row>
-    <row r="454" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="454" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A454" s="21"/>
     </row>
-    <row r="455" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="455" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A455" s="21"/>
     </row>
-    <row r="456" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="456" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A456" s="21"/>
     </row>
-    <row r="457" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="457" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A457" s="21"/>
     </row>
-    <row r="458" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="458" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A458" s="21"/>
     </row>
-    <row r="459" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="459" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A459" s="21"/>
     </row>
-    <row r="460" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="460" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A460" s="21"/>
     </row>
-    <row r="461" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="461" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A461" s="21"/>
     </row>
-    <row r="462" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="462" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A462" s="21"/>
     </row>
-    <row r="463" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="463" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A463" s="21"/>
     </row>
-    <row r="464" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="464" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A464" s="21"/>
     </row>
-    <row r="465" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="465" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A465" s="21"/>
     </row>
-    <row r="466" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="466" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A466" s="21"/>
     </row>
-    <row r="467" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="467" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A467" s="21"/>
     </row>
-    <row r="468" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="468" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A468" s="21"/>
     </row>
-    <row r="469" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="469" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A469" s="21"/>
     </row>
-    <row r="470" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="470" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A470" s="21"/>
     </row>
-    <row r="471" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="471" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A471" s="21"/>
     </row>
-    <row r="472" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="472" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A472" s="21"/>
     </row>
-    <row r="473" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="473" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A473" s="21"/>
     </row>
-    <row r="474" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="474" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A474" s="21"/>
     </row>
-    <row r="475" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="475" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A475" s="21"/>
     </row>
-    <row r="476" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="476" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A476" s="21"/>
     </row>
-    <row r="477" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="477" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A477" s="21"/>
     </row>
-    <row r="478" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="478" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A478" s="21"/>
     </row>
-    <row r="479" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="479" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A479" s="21"/>
     </row>
-    <row r="480" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="480" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A480" s="21"/>
     </row>
-    <row r="481" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="481" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A481" s="21"/>
     </row>
-    <row r="482" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="482" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A482" s="21"/>
     </row>
-    <row r="483" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="483" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A483" s="21"/>
     </row>
-    <row r="484" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="484" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A484" s="21"/>
     </row>
-    <row r="485" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="485" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A485" s="21"/>
     </row>
-    <row r="486" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="486" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A486" s="21"/>
     </row>
-    <row r="487" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="487" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A487" s="21"/>
     </row>
-    <row r="488" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="488" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A488" s="21"/>
     </row>
-    <row r="489" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="489" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A489" s="21"/>
     </row>
-    <row r="490" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="490" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A490" s="21"/>
     </row>
-    <row r="491" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="491" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A491" s="21"/>
     </row>
-    <row r="492" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="492" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A492" s="21"/>
     </row>
-    <row r="493" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="493" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A493" s="21"/>
     </row>
-    <row r="494" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="494" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A494" s="21"/>
     </row>
-    <row r="495" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="495" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A495" s="21"/>
     </row>
-    <row r="496" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="496" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A496" s="21"/>
     </row>
-    <row r="497" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="497" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A497" s="21"/>
     </row>
-    <row r="498" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="498" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A498" s="21"/>
     </row>
-    <row r="499" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="499" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A499" s="21"/>
     </row>
-    <row r="500" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="500" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A500" s="21"/>
     </row>
-    <row r="501" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="501" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A501" s="21"/>
     </row>
-    <row r="502" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="502" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A502" s="21"/>
     </row>
-    <row r="503" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="503" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A503" s="21"/>
     </row>
-    <row r="504" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="504" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A504" s="21"/>
     </row>
-    <row r="505" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="505" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A505" s="21"/>
     </row>
-    <row r="506" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="506" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A506" s="21"/>
     </row>
-    <row r="507" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="507" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A507" s="21"/>
     </row>
-    <row r="508" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="508" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A508" s="21"/>
     </row>
-    <row r="509" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="509" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A509" s="21"/>
     </row>
-    <row r="510" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="510" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A510" s="21"/>
     </row>
-    <row r="511" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="511" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A511" s="21"/>
     </row>
-    <row r="512" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="512" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A512" s="21"/>
     </row>
-    <row r="513" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="513" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A513" s="21"/>
     </row>
-    <row r="514" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="514" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A514" s="21"/>
     </row>
-    <row r="515" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="515" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A515" s="21"/>
     </row>
-    <row r="516" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="516" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A516" s="21"/>
     </row>
-    <row r="517" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="517" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A517" s="21"/>
     </row>
-    <row r="518" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="518" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A518" s="21"/>
     </row>
-    <row r="519" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="519" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A519" s="21"/>
     </row>
-    <row r="520" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="520" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A520" s="21"/>
     </row>
-    <row r="521" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="521" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A521" s="21"/>
     </row>
-    <row r="522" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="522" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A522" s="21"/>
     </row>
-    <row r="523" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="523" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A523" s="21"/>
     </row>
-    <row r="524" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="524" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A524" s="21"/>
     </row>
-    <row r="525" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="525" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A525" s="21"/>
     </row>
-    <row r="526" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="526" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A526" s="21"/>
     </row>
-    <row r="527" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="527" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A527" s="21"/>
     </row>
-    <row r="528" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="528" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A528" s="21"/>
     </row>
-    <row r="529" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="529" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A529" s="21"/>
     </row>
-    <row r="530" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="530" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A530" s="21"/>
     </row>
-    <row r="531" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="531" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A531" s="21"/>
     </row>
-    <row r="532" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="532" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A532" s="21"/>
     </row>
-    <row r="533" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="533" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A533" s="21"/>
     </row>
-    <row r="534" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="534" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A534" s="21"/>
     </row>
-    <row r="535" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="535" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A535" s="21"/>
     </row>
-    <row r="536" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="536" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A536" s="21"/>
     </row>
-    <row r="537" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="537" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A537" s="21"/>
     </row>
-    <row r="538" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="538" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A538" s="21"/>
     </row>
-    <row r="539" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="539" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A539" s="21"/>
     </row>
-    <row r="540" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="540" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A540" s="21"/>
     </row>
-    <row r="541" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="541" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A541" s="21"/>
     </row>
-    <row r="542" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="542" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A542" s="21"/>
     </row>
-    <row r="543" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="543" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A543" s="21"/>
     </row>
-    <row r="544" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="544" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A544" s="21"/>
     </row>
-    <row r="545" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="545" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A545" s="21"/>
     </row>
-    <row r="546" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="546" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A546" s="21"/>
     </row>
-    <row r="547" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="547" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A547" s="21"/>
     </row>
-    <row r="548" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="548" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A548" s="21"/>
     </row>
-    <row r="549" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="549" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A549" s="21"/>
     </row>
-    <row r="550" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="550" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A550" s="21"/>
     </row>
-    <row r="551" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="551" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A551" s="21"/>
     </row>
-    <row r="552" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="552" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A552" s="21"/>
     </row>
-    <row r="553" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="553" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A553" s="21"/>
     </row>
-    <row r="554" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="554" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A554" s="21"/>
     </row>
-    <row r="555" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="555" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A555" s="21"/>
     </row>
-    <row r="556" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="556" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A556" s="21"/>
     </row>
-    <row r="557" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="557" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A557" s="21"/>
     </row>
-    <row r="558" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="558" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A558" s="21"/>
     </row>
-    <row r="559" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="559" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A559" s="21"/>
     </row>
-    <row r="560" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="560" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A560" s="21"/>
     </row>
-    <row r="561" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="561" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A561" s="21"/>
     </row>
-    <row r="562" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="562" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A562" s="21"/>
     </row>
-    <row r="563" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="563" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A563" s="21"/>
     </row>
-    <row r="564" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="564" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A564" s="21"/>
     </row>
-    <row r="565" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="565" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A565" s="21"/>
     </row>
-    <row r="566" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="566" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A566" s="21"/>
     </row>
-    <row r="567" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="567" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A567" s="21"/>
     </row>
-    <row r="568" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="568" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A568" s="21"/>
     </row>
-    <row r="569" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="569" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A569" s="21"/>
     </row>
-    <row r="570" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="570" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A570" s="21"/>
     </row>
-    <row r="571" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="571" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A571" s="21"/>
     </row>
-    <row r="572" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="572" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A572" s="21"/>
     </row>
-    <row r="573" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="573" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A573" s="21"/>
     </row>
-    <row r="574" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="574" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A574" s="21"/>
     </row>
-    <row r="575" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="575" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A575" s="21"/>
     </row>
-    <row r="576" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="576" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A576" s="21"/>
     </row>
-    <row r="577" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="577" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A577" s="21"/>
     </row>
-    <row r="578" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="578" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A578" s="21"/>
     </row>
-    <row r="579" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="579" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A579" s="21"/>
     </row>
-    <row r="580" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="580" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A580" s="21"/>
     </row>
-    <row r="581" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="581" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A581" s="21"/>
     </row>
-    <row r="582" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="582" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A582" s="21"/>
     </row>
-    <row r="583" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="583" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A583" s="21"/>
     </row>
-    <row r="584" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="584" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A584" s="21"/>
     </row>
-    <row r="585" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="585" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A585" s="21"/>
     </row>
-    <row r="586" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="586" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A586" s="21"/>
     </row>
-    <row r="587" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="587" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A587" s="21"/>
     </row>
-    <row r="588" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="588" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A588" s="21"/>
     </row>
-    <row r="589" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="589" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A589" s="21"/>
     </row>
-    <row r="590" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="590" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A590" s="21"/>
     </row>
-    <row r="591" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="591" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A591" s="21"/>
     </row>
-    <row r="592" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="592" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A592" s="21"/>
     </row>
-    <row r="593" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="593" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A593" s="21"/>
     </row>
-    <row r="594" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="594" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A594" s="21"/>
     </row>
-    <row r="595" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="595" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A595" s="21"/>
     </row>
-    <row r="596" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="596" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A596" s="21"/>
     </row>
-    <row r="597" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="597" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A597" s="21"/>
     </row>
-    <row r="598" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="598" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A598" s="21"/>
     </row>
-    <row r="599" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="599" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A599" s="21"/>
     </row>
-    <row r="600" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="600" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A600" s="21"/>
     </row>
-    <row r="601" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="601" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A601" s="21"/>
     </row>
-    <row r="602" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="602" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A602" s="21"/>
     </row>
-    <row r="603" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="603" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A603" s="21"/>
     </row>
-    <row r="604" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="604" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A604" s="21"/>
     </row>
-    <row r="605" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="605" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A605" s="21"/>
     </row>
-    <row r="606" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="606" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A606" s="21"/>
     </row>
-    <row r="607" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="607" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A607" s="21"/>
     </row>
-    <row r="608" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="608" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A608" s="21"/>
     </row>
-    <row r="609" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="609" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A609" s="21"/>
     </row>
-    <row r="610" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="610" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A610" s="21"/>
     </row>
-    <row r="611" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="611" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A611" s="21"/>
     </row>
-    <row r="612" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="612" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A612" s="21"/>
     </row>
-    <row r="613" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="613" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A613" s="21"/>
     </row>
-    <row r="614" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="614" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A614" s="21"/>
     </row>
-    <row r="615" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="615" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A615" s="21"/>
     </row>
-    <row r="616" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="616" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A616" s="21"/>
     </row>
-    <row r="617" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="617" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A617" s="21"/>
     </row>
-    <row r="618" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="618" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A618" s="21"/>
     </row>
-    <row r="619" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="619" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A619" s="21"/>
     </row>
-    <row r="620" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="620" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A620" s="21"/>
     </row>
-    <row r="621" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="621" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A621" s="21"/>
     </row>
-    <row r="622" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="622" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A622" s="21"/>
     </row>
-    <row r="623" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="623" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A623" s="21"/>
     </row>
-    <row r="624" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="624" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A624" s="21"/>
     </row>
-    <row r="625" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="625" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A625" s="21"/>
     </row>
-    <row r="626" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="626" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A626" s="21"/>
     </row>
-    <row r="627" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="627" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A627" s="21"/>
     </row>
-    <row r="628" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="628" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A628" s="21"/>
     </row>
-    <row r="629" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="629" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A629" s="21"/>
     </row>
-    <row r="630" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="630" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A630" s="21"/>
     </row>
-    <row r="631" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="631" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A631" s="21"/>
     </row>
-    <row r="632" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="632" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A632" s="21"/>
     </row>
-    <row r="633" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="633" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A633" s="21"/>
     </row>
-    <row r="634" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="634" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A634" s="21"/>
     </row>
-    <row r="635" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="635" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A635" s="21"/>
     </row>
-    <row r="636" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="636" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A636" s="21"/>
     </row>
-    <row r="637" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="637" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A637" s="21"/>
     </row>
-    <row r="638" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="638" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A638" s="21"/>
     </row>
-    <row r="639" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="639" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A639" s="21"/>
     </row>
-    <row r="640" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="640" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A640" s="21"/>
     </row>
-    <row r="641" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="641" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A641" s="21"/>
     </row>
-    <row r="642" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="642" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A642" s="21"/>
     </row>
-    <row r="643" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="643" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A643" s="21"/>
     </row>
-    <row r="644" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="644" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A644" s="21"/>
     </row>
-    <row r="645" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="645" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A645" s="21"/>
     </row>
-    <row r="646" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="646" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A646" s="21"/>
     </row>
-    <row r="647" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="647" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A647" s="21"/>
     </row>
-    <row r="648" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="648" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A648" s="21"/>
     </row>
-    <row r="649" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="649" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A649" s="21"/>
     </row>
-    <row r="650" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="650" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A650" s="21"/>
     </row>
-    <row r="651" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="651" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A651" s="21"/>
     </row>
-    <row r="652" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="652" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A652" s="21"/>
     </row>
-    <row r="653" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="653" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A653" s="21"/>
     </row>
-    <row r="654" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="654" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A654" s="21"/>
     </row>
-    <row r="655" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="655" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A655" s="21"/>
     </row>
-    <row r="656" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="656" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A656" s="21"/>
     </row>
-    <row r="657" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="657" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A657" s="21"/>
     </row>
-    <row r="658" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="658" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A658" s="21"/>
     </row>
-    <row r="659" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="659" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A659" s="21"/>
     </row>
-    <row r="660" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="660" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A660" s="21"/>
     </row>
-    <row r="661" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="661" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A661" s="21"/>
     </row>
-    <row r="662" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="662" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A662" s="21"/>
     </row>
-    <row r="663" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="663" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A663" s="21"/>
     </row>
-    <row r="664" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="664" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A664" s="21"/>
     </row>
-    <row r="665" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="665" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A665" s="21"/>
     </row>
-    <row r="666" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="666" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A666" s="21"/>
     </row>
-    <row r="667" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="667" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A667" s="21"/>
     </row>
-    <row r="668" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="668" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A668" s="21"/>
     </row>
-    <row r="669" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="669" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A669" s="21"/>
     </row>
-    <row r="670" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="670" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A670" s="21"/>
     </row>
-    <row r="671" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="671" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A671" s="21"/>
     </row>
-    <row r="672" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="672" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A672" s="21"/>
     </row>
-    <row r="673" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="673" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A673" s="21"/>
     </row>
-    <row r="674" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="674" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A674" s="21"/>
     </row>
-    <row r="675" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="675" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A675" s="21"/>
     </row>
-    <row r="676" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="676" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A676" s="21"/>
     </row>
-    <row r="677" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="677" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A677" s="21"/>
     </row>
-    <row r="678" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="678" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A678" s="21"/>
     </row>
-    <row r="679" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="679" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A679" s="21"/>
     </row>
-    <row r="680" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="680" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A680" s="21"/>
     </row>
-    <row r="681" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="681" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A681" s="21"/>
     </row>
-    <row r="682" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="682" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A682" s="21"/>
     </row>
-    <row r="683" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="683" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A683" s="21"/>
     </row>
-    <row r="684" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="684" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A684" s="21"/>
     </row>
-    <row r="685" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="685" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A685" s="21"/>
     </row>
-    <row r="686" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="686" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A686" s="21"/>
     </row>
-    <row r="687" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="687" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A687" s="21"/>
     </row>
-    <row r="688" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="688" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A688" s="21"/>
     </row>
-    <row r="689" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="689" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A689" s="21"/>
     </row>
-    <row r="690" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="690" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A690" s="21"/>
     </row>
-    <row r="691" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="691" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A691" s="21"/>
     </row>
-    <row r="692" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="692" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A692" s="21"/>
     </row>
-    <row r="693" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="693" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A693" s="21"/>
     </row>
-    <row r="694" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="694" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A694" s="21"/>
     </row>
-    <row r="695" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="695" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A695" s="21"/>
     </row>
-    <row r="696" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="696" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A696" s="21"/>
     </row>
-    <row r="697" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="697" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A697" s="21"/>
     </row>
-    <row r="698" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="698" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A698" s="21"/>
     </row>
-    <row r="699" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="699" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A699" s="21"/>
     </row>
-    <row r="700" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="700" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A700" s="21"/>
     </row>
-    <row r="701" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="701" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A701" s="21"/>
     </row>
-    <row r="702" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="702" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A702" s="21"/>
     </row>
-    <row r="703" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="703" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A703" s="21"/>
     </row>
-    <row r="704" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="704" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A704" s="21"/>
     </row>
-    <row r="705" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="705" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A705" s="21"/>
     </row>
-    <row r="706" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="706" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A706" s="21"/>
     </row>
-    <row r="707" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="707" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A707" s="21"/>
     </row>
-    <row r="708" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="708" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A708" s="21"/>
     </row>
-    <row r="709" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="709" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A709" s="21"/>
     </row>
-    <row r="710" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="710" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A710" s="21"/>
     </row>
-    <row r="711" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="711" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A711" s="21"/>
     </row>
-    <row r="712" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="712" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A712" s="21"/>
     </row>
-    <row r="713" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="713" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A713" s="21"/>
     </row>
-    <row r="714" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="714" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A714" s="21"/>
     </row>
-    <row r="715" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="715" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A715" s="21"/>
     </row>
-    <row r="716" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="716" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A716" s="21"/>
     </row>
-    <row r="717" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="717" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A717" s="21"/>
     </row>
-    <row r="718" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="718" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A718" s="21"/>
     </row>
-    <row r="719" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="719" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A719" s="21"/>
     </row>
-    <row r="720" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="720" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A720" s="21"/>
     </row>
-    <row r="721" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="721" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A721" s="21"/>
     </row>
-    <row r="722" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="722" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A722" s="21"/>
     </row>
-    <row r="723" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="723" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A723" s="21"/>
     </row>
-    <row r="724" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="724" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A724" s="21"/>
     </row>
-    <row r="725" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="725" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A725" s="21"/>
     </row>
-    <row r="726" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="726" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A726" s="21"/>
     </row>
-    <row r="727" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="727" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A727" s="21"/>
     </row>
-    <row r="728" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="728" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A728" s="21"/>
     </row>
-    <row r="729" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="729" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A729" s="21"/>
     </row>
-    <row r="730" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="730" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A730" s="21"/>
     </row>
-    <row r="731" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="731" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A731" s="21"/>
     </row>
-    <row r="732" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="732" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A732" s="21"/>
     </row>
-    <row r="733" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="733" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A733" s="21"/>
     </row>
-    <row r="734" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="734" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A734" s="21"/>
     </row>
-    <row r="735" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="735" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A735" s="21"/>
     </row>
-    <row r="736" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="736" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A736" s="21"/>
     </row>
-    <row r="737" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="737" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A737" s="21"/>
     </row>
-    <row r="738" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="738" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A738" s="21"/>
     </row>
-    <row r="739" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="739" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A739" s="21"/>
     </row>
-    <row r="740" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="740" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A740" s="21"/>
     </row>
-    <row r="741" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="741" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A741" s="21"/>
     </row>
-    <row r="742" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="742" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A742" s="21"/>
     </row>
-    <row r="743" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="743" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A743" s="21"/>
     </row>
-    <row r="744" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="744" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A744" s="21"/>
     </row>
-    <row r="745" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="745" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A745" s="21"/>
     </row>
-    <row r="746" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="746" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A746" s="21"/>
     </row>
-    <row r="747" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="747" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A747" s="21"/>
     </row>
-    <row r="748" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="748" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A748" s="21"/>
     </row>
-    <row r="749" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="749" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A749" s="21"/>
     </row>
-    <row r="750" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="750" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A750" s="21"/>
     </row>
-    <row r="751" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="751" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A751" s="21"/>
     </row>
-    <row r="752" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="752" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A752" s="21"/>
     </row>
-    <row r="753" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="753" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A753" s="21"/>
     </row>
-    <row r="754" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="754" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A754" s="21"/>
     </row>
-    <row r="755" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="755" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A755" s="21"/>
     </row>
-    <row r="756" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="756" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A756" s="21"/>
     </row>
-    <row r="757" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="757" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A757" s="21"/>
     </row>
-    <row r="758" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="758" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A758" s="21"/>
     </row>
-    <row r="759" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="759" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A759" s="21"/>
     </row>
-    <row r="760" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="760" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A760" s="21"/>
     </row>
-    <row r="761" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="761" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A761" s="21"/>
     </row>
-    <row r="762" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="762" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A762" s="21"/>
     </row>
-    <row r="763" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="763" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A763" s="21"/>
     </row>
-    <row r="764" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="764" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A764" s="21"/>
     </row>
-    <row r="765" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="765" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A765" s="21"/>
     </row>
-    <row r="766" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="766" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A766" s="21"/>
     </row>
-    <row r="767" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="767" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A767" s="21"/>
     </row>
-    <row r="768" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="768" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A768" s="21"/>
     </row>
-    <row r="769" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="769" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A769" s="21"/>
     </row>
-    <row r="770" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="770" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A770" s="21"/>
     </row>
-    <row r="771" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="771" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A771" s="21"/>
     </row>
-    <row r="772" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="772" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A772" s="21"/>
     </row>
-    <row r="773" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="773" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A773" s="21"/>
     </row>
-    <row r="774" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="774" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A774" s="21"/>
     </row>
-    <row r="775" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="775" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A775" s="21"/>
     </row>
-    <row r="776" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="776" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A776" s="21"/>
     </row>
-    <row r="777" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="777" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A777" s="21"/>
     </row>
-    <row r="778" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="778" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A778" s="21"/>
     </row>
-    <row r="779" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="779" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A779" s="21"/>
     </row>
-    <row r="780" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="780" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A780" s="21"/>
     </row>
-    <row r="781" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="781" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A781" s="21"/>
     </row>
-    <row r="782" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="782" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A782" s="21"/>
     </row>
-    <row r="783" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="783" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A783" s="21"/>
     </row>
-    <row r="784" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="784" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A784" s="21"/>
     </row>
-    <row r="785" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="785" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A785" s="21"/>
     </row>
-    <row r="786" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="786" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A786" s="21"/>
     </row>
-    <row r="787" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="787" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A787" s="21"/>
     </row>
-    <row r="788" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="788" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A788" s="21"/>
     </row>
-    <row r="789" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="789" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A789" s="21"/>
     </row>
-    <row r="790" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="790" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A790" s="21"/>
     </row>
-    <row r="791" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="791" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A791" s="21"/>
     </row>
-    <row r="792" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="792" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A792" s="21"/>
     </row>
-    <row r="793" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="793" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A793" s="21"/>
     </row>
-    <row r="794" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="794" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A794" s="21"/>
     </row>
-    <row r="795" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="795" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A795" s="21"/>
     </row>
-    <row r="796" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="796" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A796" s="21"/>
     </row>
-    <row r="797" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="797" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A797" s="21"/>
     </row>
-    <row r="798" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="798" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A798" s="21"/>
     </row>
-    <row r="799" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="799" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A799" s="21"/>
     </row>
-    <row r="800" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="800" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A800" s="21"/>
     </row>
-    <row r="801" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="801" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A801" s="21"/>
     </row>
-    <row r="802" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="802" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A802" s="21"/>
     </row>
-    <row r="803" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="803" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A803" s="21"/>
     </row>
-    <row r="804" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="804" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A804" s="21"/>
     </row>
-    <row r="805" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="805" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A805" s="21"/>
     </row>
-    <row r="806" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="806" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A806" s="21"/>
     </row>
-    <row r="807" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="807" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A807" s="21"/>
     </row>
-    <row r="808" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="808" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A808" s="21"/>
     </row>
-    <row r="809" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="809" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A809" s="21"/>
     </row>
-    <row r="810" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="810" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A810" s="21"/>
     </row>
-    <row r="811" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="811" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A811" s="21"/>
     </row>
-    <row r="812" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="812" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A812" s="21"/>
     </row>
-    <row r="813" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="813" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A813" s="21"/>
     </row>
-    <row r="814" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="814" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A814" s="21"/>
     </row>
-    <row r="815" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="815" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A815" s="21"/>
     </row>
-    <row r="816" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="816" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A816" s="21"/>
     </row>
-    <row r="817" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="817" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A817" s="21"/>
     </row>
-    <row r="818" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="818" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A818" s="21"/>
     </row>
-    <row r="819" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="819" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A819" s="21"/>
     </row>
-    <row r="820" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="820" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A820" s="21"/>
     </row>
-    <row r="821" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="821" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A821" s="21"/>
     </row>
-    <row r="822" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="822" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A822" s="21"/>
     </row>
-    <row r="823" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="823" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A823" s="21"/>
     </row>
-    <row r="824" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="824" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A824" s="21"/>
     </row>
-    <row r="825" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="825" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A825" s="21"/>
     </row>
-    <row r="826" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="826" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A826" s="21"/>
     </row>
-    <row r="827" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="827" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A827" s="21"/>
     </row>
-    <row r="828" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="828" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A828" s="21"/>
     </row>
-    <row r="829" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="829" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A829" s="21"/>
     </row>
-    <row r="830" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="830" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A830" s="21"/>
     </row>
-    <row r="831" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="831" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A831" s="21"/>
     </row>
-    <row r="832" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="832" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A832" s="21"/>
     </row>
-    <row r="833" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="833" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A833" s="21"/>
     </row>
-    <row r="834" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="834" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A834" s="21"/>
     </row>
-    <row r="835" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="835" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A835" s="21"/>
     </row>
-    <row r="836" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="836" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A836" s="21"/>
     </row>
-    <row r="837" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="837" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A837" s="21"/>
     </row>
-    <row r="838" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="838" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A838" s="21"/>
     </row>
-    <row r="839" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="839" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A839" s="21"/>
     </row>
-    <row r="840" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="840" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A840" s="21"/>
     </row>
-    <row r="841" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="841" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A841" s="21"/>
     </row>
-    <row r="842" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="842" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A842" s="21"/>
     </row>
-    <row r="843" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="843" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A843" s="21"/>
     </row>
-    <row r="844" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="844" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A844" s="21"/>
     </row>
-    <row r="845" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="845" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A845" s="21"/>
     </row>
-    <row r="846" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="846" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A846" s="21"/>
     </row>
-    <row r="847" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="847" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A847" s="21"/>
     </row>
-    <row r="848" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="848" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A848" s="21"/>
     </row>
-    <row r="849" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="849" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A849" s="21"/>
     </row>
-    <row r="850" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="850" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A850" s="21"/>
     </row>
-    <row r="851" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="851" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A851" s="21"/>
     </row>
-    <row r="852" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="852" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A852" s="21"/>
     </row>
-    <row r="853" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="853" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A853" s="21"/>
     </row>
-    <row r="854" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="854" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A854" s="21"/>
     </row>
-    <row r="855" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="855" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A855" s="21"/>
     </row>
-    <row r="856" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="856" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A856" s="21"/>
     </row>
-    <row r="857" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="857" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A857" s="21"/>
     </row>
-    <row r="858" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="858" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A858" s="21"/>
     </row>
-    <row r="859" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="859" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A859" s="21"/>
     </row>
-    <row r="860" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="860" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A860" s="21"/>
     </row>
-    <row r="861" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="861" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A861" s="21"/>
     </row>
-    <row r="862" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="862" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A862" s="21"/>
     </row>
-    <row r="863" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="863" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A863" s="21"/>
     </row>
-    <row r="864" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="864" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A864" s="21"/>
     </row>
-    <row r="865" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="865" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A865" s="21"/>
     </row>
-    <row r="866" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="866" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A866" s="21"/>
     </row>
-    <row r="867" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="867" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A867" s="21"/>
     </row>
-    <row r="868" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="868" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A868" s="21"/>
     </row>
-    <row r="869" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="869" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A869" s="21"/>
     </row>
-    <row r="870" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="870" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A870" s="21"/>
     </row>
-    <row r="871" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="871" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A871" s="21"/>
     </row>
-    <row r="872" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="872" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A872" s="21"/>
     </row>
-    <row r="873" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="873" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A873" s="21"/>
     </row>
-    <row r="874" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="874" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A874" s="21"/>
     </row>
-    <row r="875" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="875" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A875" s="21"/>
     </row>
-    <row r="876" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="876" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A876" s="21"/>
     </row>
-    <row r="877" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="877" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A877" s="21"/>
     </row>
-    <row r="878" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="878" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A878" s="21"/>
     </row>
-    <row r="879" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="879" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A879" s="21"/>
     </row>
-    <row r="880" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="880" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A880" s="21"/>
     </row>
-    <row r="881" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="881" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A881" s="21"/>
     </row>
-    <row r="882" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="882" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A882" s="21"/>
     </row>
-    <row r="883" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="883" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A883" s="21"/>
     </row>
-    <row r="884" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="884" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A884" s="21"/>
     </row>
-    <row r="885" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="885" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A885" s="21"/>
     </row>
-    <row r="886" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="886" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A886" s="21"/>
     </row>
-    <row r="887" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="887" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A887" s="21"/>
     </row>
-    <row r="888" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="888" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A888" s="21"/>
     </row>
-    <row r="889" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="889" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A889" s="21"/>
     </row>
-    <row r="890" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="890" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A890" s="21"/>
     </row>
-    <row r="891" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="891" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A891" s="21"/>
     </row>
-    <row r="892" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="892" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A892" s="21"/>
     </row>
-    <row r="893" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="893" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A893" s="21"/>
     </row>
-    <row r="894" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="894" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A894" s="21"/>
     </row>
-    <row r="895" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="895" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A895" s="21"/>
     </row>
-    <row r="896" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="896" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A896" s="21"/>
     </row>
-    <row r="897" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="897" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A897" s="21"/>
     </row>
-    <row r="898" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="898" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A898" s="21"/>
     </row>
-    <row r="899" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="899" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A899" s="21"/>
     </row>
-    <row r="900" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="900" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A900" s="21"/>
     </row>
-    <row r="901" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="901" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A901" s="21"/>
     </row>
-    <row r="902" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="902" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A902" s="21"/>
     </row>
-    <row r="903" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="903" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A903" s="21"/>
     </row>
-    <row r="904" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="904" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A904" s="21"/>
     </row>
-    <row r="905" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="905" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A905" s="21"/>
     </row>
-    <row r="906" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="906" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A906" s="21"/>
     </row>
-    <row r="907" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="907" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A907" s="21"/>
     </row>
-    <row r="908" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="908" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A908" s="21"/>
     </row>
-    <row r="909" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="909" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A909" s="21"/>
     </row>
-    <row r="910" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="910" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A910" s="21"/>
     </row>
-    <row r="911" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="911" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A911" s="21"/>
     </row>
-    <row r="912" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="912" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A912" s="21"/>
     </row>
-    <row r="913" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="913" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A913" s="21"/>
     </row>
-    <row r="914" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="914" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A914" s="21"/>
     </row>
-    <row r="915" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="915" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A915" s="21"/>
     </row>
-    <row r="916" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="916" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A916" s="21"/>
     </row>
-    <row r="917" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="917" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A917" s="21"/>
     </row>
-    <row r="918" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="918" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A918" s="21"/>
     </row>
-    <row r="919" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="919" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A919" s="21"/>
     </row>
-    <row r="920" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="920" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A920" s="21"/>
     </row>
-    <row r="921" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="921" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A921" s="21"/>
     </row>
-    <row r="922" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="922" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A922" s="21"/>
     </row>
-    <row r="923" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="923" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A923" s="21"/>
     </row>
-    <row r="924" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="924" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A924" s="21"/>
     </row>
-    <row r="925" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="925" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A925" s="21"/>
     </row>
-    <row r="926" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="926" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A926" s="21"/>
     </row>
-    <row r="927" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="927" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A927" s="21"/>
     </row>
-    <row r="928" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="928" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A928" s="21"/>
     </row>
-    <row r="929" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="929" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A929" s="21"/>
     </row>
-    <row r="930" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="930" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A930" s="21"/>
     </row>
-    <row r="931" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="931" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A931" s="21"/>
     </row>
-    <row r="932" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="932" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A932" s="21"/>
     </row>
-    <row r="933" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="933" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A933" s="21"/>
     </row>
-    <row r="934" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="934" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A934" s="21"/>
     </row>
-    <row r="935" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="935" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A935" s="21"/>
     </row>
-    <row r="936" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="936" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A936" s="21"/>
     </row>
-    <row r="937" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="937" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A937" s="21"/>
     </row>
-    <row r="938" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="938" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A938" s="21"/>
     </row>
-    <row r="939" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="939" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A939" s="21"/>
     </row>
-    <row r="940" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="940" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A940" s="21"/>
     </row>
-    <row r="941" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="941" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A941" s="21"/>
     </row>
-    <row r="942" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="942" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A942" s="21"/>
     </row>
-    <row r="943" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="943" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A943" s="21"/>
     </row>
-    <row r="944" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="944" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A944" s="21"/>
     </row>
-    <row r="945" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="945" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A945" s="21"/>
     </row>
-    <row r="946" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="946" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A946" s="21"/>
     </row>
-    <row r="947" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="947" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A947" s="21"/>
     </row>
-    <row r="948" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="948" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A948" s="21"/>
     </row>
-    <row r="949" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="949" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A949" s="21"/>
     </row>
-    <row r="950" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="950" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A950" s="21"/>
     </row>
-    <row r="951" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="951" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A951" s="21"/>
     </row>
-    <row r="952" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="952" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A952" s="21"/>
     </row>
-    <row r="953" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="953" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A953" s="21"/>
     </row>
-    <row r="954" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="954" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A954" s="21"/>
     </row>
-    <row r="955" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="955" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A955" s="21"/>
     </row>
-    <row r="956" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="956" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A956" s="21"/>
     </row>
-    <row r="957" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="957" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A957" s="21"/>
     </row>
-    <row r="958" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="958" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A958" s="21"/>
     </row>
-    <row r="959" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="959" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A959" s="21"/>
     </row>
-    <row r="960" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="960" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A960" s="21"/>
     </row>
-    <row r="961" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="961" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A961" s="21"/>
     </row>
-    <row r="962" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="962" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A962" s="21"/>
     </row>
-    <row r="963" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="963" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A963" s="21"/>
     </row>
-    <row r="964" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="964" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A964" s="21"/>
     </row>
-    <row r="965" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="965" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A965" s="21"/>
     </row>
-    <row r="966" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="966" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A966" s="21"/>
     </row>
-    <row r="967" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="967" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A967" s="21"/>
     </row>
-    <row r="968" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="968" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A968" s="21"/>
     </row>
-    <row r="969" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="969" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A969" s="21"/>
     </row>
-    <row r="970" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="970" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A970" s="21"/>
     </row>
-    <row r="971" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="971" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A971" s="21"/>
     </row>
-    <row r="972" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="972" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A972" s="21"/>
     </row>
-    <row r="973" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="973" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A973" s="21"/>
     </row>
-    <row r="974" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="974" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A974" s="21"/>
     </row>
-    <row r="975" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="975" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A975" s="21"/>
     </row>
-    <row r="976" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="976" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A976" s="21"/>
     </row>
-    <row r="977" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="977" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A977" s="21"/>
     </row>
-    <row r="978" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="978" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A978" s="21"/>
     </row>
-    <row r="979" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="979" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A979" s="21"/>
     </row>
-    <row r="980" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="980" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A980" s="21"/>
     </row>
-    <row r="981" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="981" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A981" s="21"/>
     </row>
-    <row r="982" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="982" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A982" s="21"/>
     </row>
-    <row r="983" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="983" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A983" s="21"/>
     </row>
-    <row r="984" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="984" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A984" s="21"/>
     </row>
-    <row r="985" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="985" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A985" s="21"/>
     </row>
-    <row r="986" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="986" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A986" s="21"/>
     </row>
-    <row r="987" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="987" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A987" s="21"/>
     </row>
-    <row r="988" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="988" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A988" s="21"/>
     </row>
-    <row r="989" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="989" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A989" s="21"/>
     </row>
-    <row r="990" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="990" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A990" s="21"/>
     </row>
-    <row r="991" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="991" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A991" s="21"/>
     </row>
-    <row r="992" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="992" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A992" s="21"/>
     </row>
-    <row r="993" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="993" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A993" s="21"/>
     </row>
-    <row r="994" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="994" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A994" s="21"/>
     </row>
-    <row r="995" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="995" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A995" s="21"/>
     </row>
-    <row r="996" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="996" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A996" s="21"/>
     </row>
-    <row r="997" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="997" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A997" s="21"/>
     </row>
-    <row r="998" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="998" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A998" s="21"/>
     </row>
-    <row r="999" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="999" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A999" s="21"/>
     </row>
-    <row r="1000" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1000" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1000" s="21"/>
     </row>
   </sheetData>
@@ -10936,17 +10936,17 @@
   </sheetPr>
   <dimension ref="A1:K28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+    <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
+      <selection activeCell="E2" sqref="A1:K27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="3" width="14.44140625" customWidth="1"/>
-    <col min="5" max="5" width="29.88671875" customWidth="1"/>
+    <col min="3" max="3" width="14.5" customWidth="1"/>
+    <col min="5" max="5" width="29.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" ht="27" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>308</v>
       </c>
@@ -10981,7 +10981,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
         <v>227</v>
       </c>
@@ -11016,7 +11016,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
         <v>230</v>
       </c>
@@ -11048,7 +11048,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
         <v>233</v>
       </c>
@@ -11083,7 +11083,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
         <v>236</v>
       </c>
@@ -11118,7 +11118,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
         <v>239</v>
       </c>
@@ -11147,7 +11147,7 @@
       <c r="J6" s="10"/>
       <c r="K6" s="10"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
         <v>242</v>
       </c>
@@ -11182,7 +11182,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
         <v>245</v>
       </c>
@@ -11217,7 +11217,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
         <v>248</v>
       </c>
@@ -11252,7 +11252,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" s="4" t="s">
         <v>252</v>
       </c>
@@ -11283,7 +11283,7 @@
       <c r="J10" s="10"/>
       <c r="K10" s="10"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" s="4" t="s">
         <v>255</v>
       </c>
@@ -11318,7 +11318,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="s">
         <v>258</v>
       </c>
@@ -11347,7 +11347,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" s="4" t="s">
         <v>261</v>
       </c>
@@ -11380,7 +11380,7 @@
       </c>
       <c r="K13" s="10"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
         <v>264</v>
       </c>
@@ -11415,7 +11415,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15" s="4" t="s">
         <v>267</v>
       </c>
@@ -11450,7 +11450,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A16" s="4" t="s">
         <v>270</v>
       </c>
@@ -11485,7 +11485,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A17" s="4" t="s">
         <v>273</v>
       </c>
@@ -11520,7 +11520,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A18" s="4" t="s">
         <v>276</v>
       </c>
@@ -11555,7 +11555,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A19" s="4" t="s">
         <v>279</v>
       </c>
@@ -11590,7 +11590,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A20" s="4" t="s">
         <v>282</v>
       </c>
@@ -11623,7 +11623,7 @@
       </c>
       <c r="K20" s="10"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A21" s="4" t="s">
         <v>285</v>
       </c>
@@ -11658,7 +11658,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A22" s="4" t="s">
         <v>289</v>
       </c>
@@ -11690,7 +11690,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A23" s="4" t="s">
         <v>293</v>
       </c>
@@ -11725,7 +11725,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A24" s="4" t="s">
         <v>296</v>
       </c>
@@ -11760,7 +11760,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A25" s="4" t="s">
         <v>299</v>
       </c>
@@ -11793,7 +11793,7 @@
       </c>
       <c r="K25" s="10"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A26" s="4" t="s">
         <v>302</v>
       </c>
@@ -11828,7 +11828,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A27" s="4" t="s">
         <v>305</v>
       </c>
@@ -11863,7 +11863,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="28" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G28" s="4"/>
       <c r="H28" s="4"/>
       <c r="I28" s="4"/>

--- a/server/public/uploads/applicantListsExcel.xlsx
+++ b/server/public/uploads/applicantListsExcel.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10711"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Applications/development/319-Project/server/public/uploads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\oktay\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3D10B79-6E40-A34D-AC88-93DF509F6C17}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D1B8B4B-F0FB-4D67-8860-B8DD1006941A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1220" yWindow="1160" windowWidth="27560" windowHeight="15320" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1224" yWindow="1152" windowWidth="21600" windowHeight="11208" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sayfa1" sheetId="1" r:id="rId1"/>
@@ -1486,27 +1486,27 @@
       <selection activeCell="W39" sqref="W39:AA39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="3.83203125" customWidth="1"/>
+    <col min="1" max="1" width="3.88671875" customWidth="1"/>
     <col min="2" max="2" width="21" customWidth="1"/>
-    <col min="3" max="3" width="12.83203125" customWidth="1"/>
+    <col min="3" max="3" width="12.88671875" customWidth="1"/>
     <col min="4" max="4" width="8.6640625" customWidth="1"/>
-    <col min="5" max="5" width="15.5" customWidth="1"/>
-    <col min="6" max="6" width="23.83203125" customWidth="1"/>
+    <col min="5" max="5" width="15.44140625" customWidth="1"/>
+    <col min="6" max="6" width="23.88671875" customWidth="1"/>
     <col min="7" max="13" width="8.6640625" customWidth="1"/>
-    <col min="14" max="14" width="11.5" customWidth="1"/>
+    <col min="14" max="14" width="11.5546875" customWidth="1"/>
     <col min="15" max="21" width="8.6640625" customWidth="1"/>
     <col min="22" max="22" width="11" customWidth="1"/>
-    <col min="23" max="24" width="40.5" customWidth="1"/>
-    <col min="25" max="25" width="45.5" customWidth="1"/>
-    <col min="26" max="26" width="54.5" customWidth="1"/>
-    <col min="27" max="27" width="40.5" customWidth="1"/>
+    <col min="23" max="24" width="40.44140625" customWidth="1"/>
+    <col min="25" max="25" width="45.44140625" customWidth="1"/>
+    <col min="26" max="26" width="54.5546875" customWidth="1"/>
+    <col min="27" max="27" width="40.44140625" customWidth="1"/>
     <col min="28" max="30" width="11.6640625" customWidth="1"/>
     <col min="31" max="43" width="8.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" ht="67.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:30" ht="67.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1592,7 +1592,7 @@
       <c r="AC1" s="2"/>
       <c r="AD1" s="2"/>
     </row>
-    <row r="2" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A2" s="3"/>
       <c r="B2" s="4" t="s">
         <v>314</v>
@@ -1674,7 +1674,7 @@
       <c r="AC2" s="10"/>
       <c r="AD2" s="10"/>
     </row>
-    <row r="3" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A3" s="3"/>
       <c r="B3" s="4" t="s">
         <v>317</v>
@@ -1754,7 +1754,7 @@
       <c r="AC3" s="10"/>
       <c r="AD3" s="10"/>
     </row>
-    <row r="4" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A4" s="3"/>
       <c r="B4" s="4" t="s">
         <v>318</v>
@@ -1836,7 +1836,7 @@
       <c r="AC4" s="10"/>
       <c r="AD4" s="10"/>
     </row>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A5" s="3"/>
       <c r="B5" s="4" t="s">
         <v>319</v>
@@ -1918,7 +1918,7 @@
       <c r="AC5" s="10"/>
       <c r="AD5" s="10"/>
     </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A6" s="3"/>
       <c r="B6" s="4" t="s">
         <v>322</v>
@@ -1994,7 +1994,7 @@
       <c r="AC6" s="10"/>
       <c r="AD6" s="10"/>
     </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A7" s="3"/>
       <c r="B7" s="4" t="s">
         <v>325</v>
@@ -2076,7 +2076,7 @@
       <c r="AC7" s="10"/>
       <c r="AD7" s="10"/>
     </row>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A8" s="3"/>
       <c r="B8" s="4" t="s">
         <v>245</v>
@@ -2154,7 +2154,7 @@
       <c r="AC8" s="10"/>
       <c r="AD8" s="10"/>
     </row>
-    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A9" s="3"/>
       <c r="B9" s="4" t="s">
         <v>248</v>
@@ -2230,7 +2230,7 @@
       <c r="AC9" s="10"/>
       <c r="AD9" s="10"/>
     </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A10" s="3"/>
       <c r="B10" s="4" t="s">
         <v>252</v>
@@ -2312,7 +2312,7 @@
       <c r="AC10" s="10"/>
       <c r="AD10" s="10"/>
     </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A11" s="3"/>
       <c r="B11" s="4" t="s">
         <v>255</v>
@@ -2394,7 +2394,7 @@
       <c r="AC11" s="10"/>
       <c r="AD11" s="10"/>
     </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A12" s="3"/>
       <c r="B12" s="4" t="s">
         <v>258</v>
@@ -2472,7 +2472,7 @@
       <c r="AC12" s="10"/>
       <c r="AD12" s="10"/>
     </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A13" s="3"/>
       <c r="B13" s="4" t="s">
         <v>261</v>
@@ -2554,7 +2554,7 @@
       <c r="AC13" s="10"/>
       <c r="AD13" s="10"/>
     </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A14" s="3"/>
       <c r="B14" s="4" t="s">
         <v>264</v>
@@ -2632,7 +2632,7 @@
       <c r="AC14" s="10"/>
       <c r="AD14" s="10"/>
     </row>
-    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A15" s="3"/>
       <c r="B15" s="4" t="s">
         <v>267</v>
@@ -2712,7 +2712,7 @@
       <c r="AC15" s="10"/>
       <c r="AD15" s="10"/>
     </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A16" s="3"/>
       <c r="B16" s="4" t="s">
         <v>270</v>
@@ -2794,7 +2794,7 @@
       <c r="AC16" s="10"/>
       <c r="AD16" s="10"/>
     </row>
-    <row r="17" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A17" s="3"/>
       <c r="B17" s="4" t="s">
         <v>273</v>
@@ -2878,7 +2878,7 @@
       <c r="AC17" s="10"/>
       <c r="AD17" s="10"/>
     </row>
-    <row r="18" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A18" s="3"/>
       <c r="B18" s="4" t="s">
         <v>276</v>
@@ -2945,7 +2945,7 @@
       <c r="AC18" s="10"/>
       <c r="AD18" s="10"/>
     </row>
-    <row r="19" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A19" s="3"/>
       <c r="B19" s="4" t="s">
         <v>279</v>
@@ -3012,7 +3012,7 @@
       <c r="AC19" s="10"/>
       <c r="AD19" s="10"/>
     </row>
-    <row r="20" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:30" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A20" s="3"/>
       <c r="B20" s="4" t="s">
         <v>282</v>
@@ -3081,7 +3081,7 @@
       <c r="AC20" s="10"/>
       <c r="AD20" s="10"/>
     </row>
-    <row r="21" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="3"/>
       <c r="B21" s="4" t="s">
         <v>285</v>
@@ -3150,7 +3150,7 @@
       <c r="AC21" s="10"/>
       <c r="AD21" s="10"/>
     </row>
-    <row r="22" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="3"/>
       <c r="B22" s="4" t="s">
         <v>289</v>
@@ -3217,7 +3217,7 @@
       <c r="AC22" s="10"/>
       <c r="AD22" s="10"/>
     </row>
-    <row r="23" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="3"/>
       <c r="B23" s="4" t="s">
         <v>293</v>
@@ -3297,7 +3297,7 @@
       <c r="AC23" s="10"/>
       <c r="AD23" s="10"/>
     </row>
-    <row r="24" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="3"/>
       <c r="B24" s="4" t="s">
         <v>296</v>
@@ -3379,7 +3379,7 @@
       <c r="AC24" s="10"/>
       <c r="AD24" s="10"/>
     </row>
-    <row r="25" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="3"/>
       <c r="B25" s="4" t="s">
         <v>299</v>
@@ -3461,7 +3461,7 @@
       <c r="AC25" s="10"/>
       <c r="AD25" s="10"/>
     </row>
-    <row r="26" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="3"/>
       <c r="B26" s="4" t="s">
         <v>302</v>
@@ -3543,7 +3543,7 @@
       <c r="AC26" s="10"/>
       <c r="AD26" s="10"/>
     </row>
-    <row r="27" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="3"/>
       <c r="B27" s="4" t="s">
         <v>305</v>
@@ -3612,7 +3612,7 @@
       </c>
       <c r="AD27" s="10"/>
     </row>
-    <row r="28" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="3"/>
       <c r="B28" s="4" t="s">
         <v>227</v>
@@ -3679,7 +3679,7 @@
       <c r="AC28" s="10"/>
       <c r="AD28" s="10"/>
     </row>
-    <row r="29" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="3"/>
       <c r="B29" s="4" t="s">
         <v>230</v>
@@ -3746,7 +3746,7 @@
       <c r="AC29" s="10"/>
       <c r="AD29" s="10"/>
     </row>
-    <row r="30" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="3"/>
       <c r="B30" s="4" t="s">
         <v>233</v>
@@ -3817,7 +3817,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="31" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="3"/>
       <c r="B31" s="4" t="s">
         <v>236</v>
@@ -3886,7 +3886,7 @@
       <c r="AC31" s="10"/>
       <c r="AD31" s="10"/>
     </row>
-    <row r="32" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="3"/>
       <c r="B32" s="4" t="s">
         <v>239</v>
@@ -3953,7 +3953,7 @@
       <c r="AC32" s="10"/>
       <c r="AD32" s="10"/>
     </row>
-    <row r="33" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="3"/>
       <c r="B33" s="4" t="s">
         <v>242</v>
@@ -4022,7 +4022,7 @@
       <c r="AC33" s="10"/>
       <c r="AD33" s="10"/>
     </row>
-    <row r="34" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="3"/>
       <c r="B34" s="4" t="s">
         <v>245</v>
@@ -4089,7 +4089,7 @@
       <c r="AC34" s="10"/>
       <c r="AD34" s="10"/>
     </row>
-    <row r="35" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="3"/>
       <c r="B35" s="4" t="s">
         <v>248</v>
@@ -4171,7 +4171,7 @@
       <c r="AC35" s="10"/>
       <c r="AD35" s="10"/>
     </row>
-    <row r="36" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="3"/>
       <c r="B36" s="4" t="s">
         <v>252</v>
@@ -4255,7 +4255,7 @@
       <c r="AC36" s="10"/>
       <c r="AD36" s="10"/>
     </row>
-    <row r="37" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="3"/>
       <c r="B37" s="4" t="s">
         <v>255</v>
@@ -4337,7 +4337,7 @@
       <c r="AC37" s="10"/>
       <c r="AD37" s="10"/>
     </row>
-    <row r="38" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="3"/>
       <c r="B38" s="4" t="s">
         <v>258</v>
@@ -4423,7 +4423,7 @@
       </c>
       <c r="AD38" s="10"/>
     </row>
-    <row r="39" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="3"/>
       <c r="B39" s="4" t="s">
         <v>261</v>
@@ -4496,7 +4496,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="40" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="3"/>
       <c r="B40" s="4" t="s">
         <v>264</v>
@@ -4578,7 +4578,7 @@
       <c r="AC40" s="10"/>
       <c r="AD40" s="10"/>
     </row>
-    <row r="41" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="3"/>
       <c r="B41" s="4" t="s">
         <v>267</v>
@@ -4660,7 +4660,7 @@
       <c r="AC41" s="10"/>
       <c r="AD41" s="10"/>
     </row>
-    <row r="42" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="3"/>
       <c r="B42" s="4" t="s">
         <v>270</v>
@@ -4744,7 +4744,7 @@
       <c r="AC42" s="10"/>
       <c r="AD42" s="10"/>
     </row>
-    <row r="43" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="3"/>
       <c r="B43" s="4" t="s">
         <v>273</v>
@@ -4826,7 +4826,7 @@
       <c r="AC43" s="10"/>
       <c r="AD43" s="10"/>
     </row>
-    <row r="44" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="3"/>
       <c r="B44" s="4" t="s">
         <v>276</v>
@@ -4910,7 +4910,7 @@
       <c r="AC44" s="10"/>
       <c r="AD44" s="10"/>
     </row>
-    <row r="45" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="3"/>
       <c r="B45" s="4" t="s">
         <v>279</v>
@@ -4992,7 +4992,7 @@
       <c r="AC45" s="10"/>
       <c r="AD45" s="10"/>
     </row>
-    <row r="46" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="3"/>
       <c r="B46" s="4" t="s">
         <v>282</v>
@@ -5074,7 +5074,7 @@
       <c r="AC46" s="10"/>
       <c r="AD46" s="10"/>
     </row>
-    <row r="47" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="3"/>
       <c r="B47" s="4" t="s">
         <v>285</v>
@@ -5156,7 +5156,7 @@
       <c r="AC47" s="10"/>
       <c r="AD47" s="10"/>
     </row>
-    <row r="48" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="3"/>
       <c r="B48" s="4" t="s">
         <v>289</v>
@@ -5240,7 +5240,7 @@
       <c r="AC48" s="10"/>
       <c r="AD48" s="10"/>
     </row>
-    <row r="49" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="3"/>
       <c r="B49" s="4"/>
       <c r="C49" s="4"/>
@@ -5272,7 +5272,7 @@
       <c r="AC49" s="10"/>
       <c r="AD49" s="10"/>
     </row>
-    <row r="50" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="3"/>
       <c r="B50" s="4"/>
       <c r="C50" s="4"/>
@@ -5304,7 +5304,7 @@
       <c r="AC50" s="10"/>
       <c r="AD50" s="10"/>
     </row>
-    <row r="51" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="3"/>
       <c r="B51" s="4"/>
       <c r="C51" s="4"/>
@@ -5336,7 +5336,7 @@
       <c r="AC51" s="10"/>
       <c r="AD51" s="10"/>
     </row>
-    <row r="52" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="3"/>
       <c r="B52" s="4"/>
       <c r="C52" s="4"/>
@@ -5368,7 +5368,7 @@
       <c r="AC52" s="10"/>
       <c r="AD52" s="10"/>
     </row>
-    <row r="53" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" s="3"/>
       <c r="B53" s="4"/>
       <c r="C53" s="4"/>
@@ -5400,7 +5400,7 @@
       <c r="AC53" s="10"/>
       <c r="AD53" s="10"/>
     </row>
-    <row r="54" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="3"/>
       <c r="B54" s="4"/>
       <c r="C54" s="4"/>
@@ -5432,7 +5432,7 @@
       <c r="AC54" s="10"/>
       <c r="AD54" s="10"/>
     </row>
-    <row r="55" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" s="3"/>
       <c r="B55" s="4"/>
       <c r="C55" s="4"/>
@@ -5464,7 +5464,7 @@
       <c r="AC55" s="10"/>
       <c r="AD55" s="10"/>
     </row>
-    <row r="56" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" s="3"/>
       <c r="B56" s="4"/>
       <c r="C56" s="4"/>
@@ -5496,7 +5496,7 @@
       <c r="AC56" s="10"/>
       <c r="AD56" s="10"/>
     </row>
-    <row r="57" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" s="3"/>
       <c r="B57" s="4"/>
       <c r="C57" s="4"/>
@@ -5528,7 +5528,7 @@
       <c r="AC57" s="10"/>
       <c r="AD57" s="10"/>
     </row>
-    <row r="58" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58" s="3"/>
       <c r="B58" s="4"/>
       <c r="C58" s="4"/>
@@ -5560,7 +5560,7 @@
       <c r="AC58" s="10"/>
       <c r="AD58" s="10"/>
     </row>
-    <row r="59" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A59" s="3"/>
       <c r="B59" s="4"/>
       <c r="C59" s="4"/>
@@ -5592,7 +5592,7 @@
       <c r="AC59" s="10"/>
       <c r="AD59" s="10"/>
     </row>
-    <row r="60" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A60" s="3"/>
       <c r="B60" s="4"/>
       <c r="C60" s="4"/>
@@ -5624,7 +5624,7 @@
       <c r="AC60" s="10"/>
       <c r="AD60" s="10"/>
     </row>
-    <row r="61" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A61" s="3"/>
       <c r="B61" s="4"/>
       <c r="C61" s="4"/>
@@ -5656,7 +5656,7 @@
       <c r="AC61" s="10"/>
       <c r="AD61" s="10"/>
     </row>
-    <row r="62" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A62" s="3"/>
       <c r="B62" s="4"/>
       <c r="C62" s="4"/>
@@ -5688,7 +5688,7 @@
       <c r="AC62" s="10"/>
       <c r="AD62" s="10"/>
     </row>
-    <row r="63" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63" s="3"/>
       <c r="B63" s="4"/>
       <c r="C63" s="4"/>
@@ -5720,7 +5720,7 @@
       <c r="AC63" s="10"/>
       <c r="AD63" s="10"/>
     </row>
-    <row r="64" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A64" s="3"/>
       <c r="B64" s="4"/>
       <c r="C64" s="4"/>
@@ -5752,7 +5752,7 @@
       <c r="AC64" s="10"/>
       <c r="AD64" s="10"/>
     </row>
-    <row r="65" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A65" s="3"/>
       <c r="B65" s="4"/>
       <c r="C65" s="4"/>
@@ -5784,7 +5784,7 @@
       <c r="AC65" s="10"/>
       <c r="AD65" s="10"/>
     </row>
-    <row r="66" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A66" s="3"/>
       <c r="B66" s="4"/>
       <c r="C66" s="4"/>
@@ -5816,7 +5816,7 @@
       <c r="AC66" s="10"/>
       <c r="AD66" s="10"/>
     </row>
-    <row r="67" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A67" s="3"/>
       <c r="B67" s="4"/>
       <c r="C67" s="4"/>
@@ -5848,7 +5848,7 @@
       <c r="AC67" s="10"/>
       <c r="AD67" s="10"/>
     </row>
-    <row r="68" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A68" s="3"/>
       <c r="B68" s="4"/>
       <c r="C68" s="4"/>
@@ -5880,7 +5880,7 @@
       <c r="AC68" s="10"/>
       <c r="AD68" s="10"/>
     </row>
-    <row r="69" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A69" s="3"/>
       <c r="B69" s="4"/>
       <c r="C69" s="4"/>
@@ -5912,7 +5912,7 @@
       <c r="AC69" s="10"/>
       <c r="AD69" s="10"/>
     </row>
-    <row r="70" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A70" s="3"/>
       <c r="B70" s="4"/>
       <c r="C70" s="4"/>
@@ -5944,7 +5944,7 @@
       <c r="AC70" s="10"/>
       <c r="AD70" s="10"/>
     </row>
-    <row r="71" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A71" s="3"/>
       <c r="B71" s="4"/>
       <c r="C71" s="4"/>
@@ -5976,7 +5976,7 @@
       <c r="AC71" s="10"/>
       <c r="AD71" s="10"/>
     </row>
-    <row r="72" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A72" s="3"/>
       <c r="B72" s="4"/>
       <c r="C72" s="4"/>
@@ -6008,7 +6008,7 @@
       <c r="AC72" s="10"/>
       <c r="AD72" s="10"/>
     </row>
-    <row r="73" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A73" s="3"/>
       <c r="B73" s="4"/>
       <c r="C73" s="4"/>
@@ -6040,7 +6040,7 @@
       <c r="AC73" s="10"/>
       <c r="AD73" s="10"/>
     </row>
-    <row r="74" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A74" s="3"/>
       <c r="B74" s="4"/>
       <c r="C74" s="4"/>
@@ -6072,7 +6072,7 @@
       <c r="AC74" s="10"/>
       <c r="AD74" s="10"/>
     </row>
-    <row r="75" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A75" s="3"/>
       <c r="B75" s="4"/>
       <c r="C75" s="4"/>
@@ -6104,7 +6104,7 @@
       <c r="AC75" s="10"/>
       <c r="AD75" s="10"/>
     </row>
-    <row r="76" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A76" s="3"/>
       <c r="B76" s="4"/>
       <c r="C76" s="4"/>
@@ -6136,7 +6136,7 @@
       <c r="AC76" s="10"/>
       <c r="AD76" s="10"/>
     </row>
-    <row r="77" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A77" s="3"/>
       <c r="B77" s="4"/>
       <c r="C77" s="4"/>
@@ -6168,7 +6168,7 @@
       <c r="AC77" s="10"/>
       <c r="AD77" s="10"/>
     </row>
-    <row r="78" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A78" s="3"/>
       <c r="B78" s="4"/>
       <c r="C78" s="4"/>
@@ -6200,7 +6200,7 @@
       <c r="AC78" s="10"/>
       <c r="AD78" s="10"/>
     </row>
-    <row r="79" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A79" s="3"/>
       <c r="B79" s="4"/>
       <c r="C79" s="4"/>
@@ -6232,7 +6232,7 @@
       <c r="AC79" s="10"/>
       <c r="AD79" s="10"/>
     </row>
-    <row r="80" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A80" s="3"/>
       <c r="B80" s="4"/>
       <c r="C80" s="4"/>
@@ -6264,7 +6264,7 @@
       <c r="AC80" s="10"/>
       <c r="AD80" s="10"/>
     </row>
-    <row r="81" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A81" s="3"/>
       <c r="B81" s="4"/>
       <c r="C81" s="4"/>
@@ -6296,7 +6296,7 @@
       <c r="AC81" s="10"/>
       <c r="AD81" s="10"/>
     </row>
-    <row r="82" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A82" s="3"/>
       <c r="B82" s="4"/>
       <c r="C82" s="4"/>
@@ -6328,7 +6328,7 @@
       <c r="AC82" s="10"/>
       <c r="AD82" s="10"/>
     </row>
-    <row r="83" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A83" s="3"/>
       <c r="B83" s="4"/>
       <c r="C83" s="4"/>
@@ -6360,7 +6360,7 @@
       <c r="AC83" s="10"/>
       <c r="AD83" s="10"/>
     </row>
-    <row r="84" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A84" s="3"/>
       <c r="B84" s="4"/>
       <c r="C84" s="4"/>
@@ -6392,7 +6392,7 @@
       <c r="AC84" s="10"/>
       <c r="AD84" s="10"/>
     </row>
-    <row r="85" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A85" s="3"/>
       <c r="B85" s="4"/>
       <c r="C85" s="4"/>
@@ -6424,7 +6424,7 @@
       <c r="AC85" s="10"/>
       <c r="AD85" s="10"/>
     </row>
-    <row r="86" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A86" s="3"/>
       <c r="B86" s="4"/>
       <c r="C86" s="4"/>
@@ -6456,7 +6456,7 @@
       <c r="AC86" s="10"/>
       <c r="AD86" s="10"/>
     </row>
-    <row r="87" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A87" s="3"/>
       <c r="B87" s="4"/>
       <c r="C87" s="4"/>
@@ -6488,7 +6488,7 @@
       <c r="AC87" s="10"/>
       <c r="AD87" s="10"/>
     </row>
-    <row r="88" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A88" s="3"/>
       <c r="B88" s="4"/>
       <c r="C88" s="4"/>
@@ -6520,7 +6520,7 @@
       <c r="AC88" s="10"/>
       <c r="AD88" s="10"/>
     </row>
-    <row r="89" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A89" s="3"/>
       <c r="B89" s="4"/>
       <c r="C89" s="4"/>
@@ -6552,7 +6552,7 @@
       <c r="AC89" s="10"/>
       <c r="AD89" s="10"/>
     </row>
-    <row r="90" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A90" s="3"/>
       <c r="B90" s="4"/>
       <c r="C90" s="4"/>
@@ -6584,7 +6584,7 @@
       <c r="AC90" s="10"/>
       <c r="AD90" s="10"/>
     </row>
-    <row r="91" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A91" s="3"/>
       <c r="B91" s="4"/>
       <c r="C91" s="4"/>
@@ -6616,7 +6616,7 @@
       <c r="AC91" s="10"/>
       <c r="AD91" s="10"/>
     </row>
-    <row r="92" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A92" s="3"/>
       <c r="B92" s="4"/>
       <c r="C92" s="4"/>
@@ -6648,7 +6648,7 @@
       <c r="AC92" s="10"/>
       <c r="AD92" s="10"/>
     </row>
-    <row r="93" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A93" s="3"/>
       <c r="B93" s="4"/>
       <c r="C93" s="4"/>
@@ -6680,7 +6680,7 @@
       <c r="AC93" s="10"/>
       <c r="AD93" s="10"/>
     </row>
-    <row r="94" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A94" s="3"/>
       <c r="B94" s="4"/>
       <c r="C94" s="4"/>
@@ -6712,7 +6712,7 @@
       <c r="AC94" s="10"/>
       <c r="AD94" s="10"/>
     </row>
-    <row r="95" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A95" s="3"/>
       <c r="B95" s="4"/>
       <c r="C95" s="4"/>
@@ -6744,7 +6744,7 @@
       <c r="AC95" s="10"/>
       <c r="AD95" s="10"/>
     </row>
-    <row r="96" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A96" s="3"/>
       <c r="B96" s="4"/>
       <c r="C96" s="4"/>
@@ -6776,7 +6776,7 @@
       <c r="AC96" s="10"/>
       <c r="AD96" s="10"/>
     </row>
-    <row r="97" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A97" s="3"/>
       <c r="B97" s="4"/>
       <c r="C97" s="4"/>
@@ -6808,7 +6808,7 @@
       <c r="AC97" s="10"/>
       <c r="AD97" s="10"/>
     </row>
-    <row r="98" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A98" s="3"/>
       <c r="B98" s="4"/>
       <c r="C98" s="4"/>
@@ -6840,7 +6840,7 @@
       <c r="AC98" s="10"/>
       <c r="AD98" s="10"/>
     </row>
-    <row r="99" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A99" s="3"/>
       <c r="B99" s="4"/>
       <c r="C99" s="4"/>
@@ -6872,7 +6872,7 @@
       <c r="AC99" s="10"/>
       <c r="AD99" s="10"/>
     </row>
-    <row r="100" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A100" s="3"/>
       <c r="B100" s="4"/>
       <c r="C100" s="4"/>
@@ -6904,7 +6904,7 @@
       <c r="AC100" s="10"/>
       <c r="AD100" s="10"/>
     </row>
-    <row r="101" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A101" s="3"/>
       <c r="B101" s="4"/>
       <c r="C101" s="4"/>
@@ -6936,7 +6936,7 @@
       <c r="AC101" s="10"/>
       <c r="AD101" s="10"/>
     </row>
-    <row r="102" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A102" s="3"/>
       <c r="B102" s="4"/>
       <c r="C102" s="4"/>
@@ -6968,7 +6968,7 @@
       <c r="AC102" s="10"/>
       <c r="AD102" s="10"/>
     </row>
-    <row r="103" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A103" s="3"/>
       <c r="B103" s="4"/>
       <c r="C103" s="4"/>
@@ -7000,7 +7000,7 @@
       <c r="AC103" s="10"/>
       <c r="AD103" s="10"/>
     </row>
-    <row r="104" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A104" s="3"/>
       <c r="B104" s="4"/>
       <c r="C104" s="4"/>
@@ -7032,7 +7032,7 @@
       <c r="AC104" s="10"/>
       <c r="AD104" s="10"/>
     </row>
-    <row r="105" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A105" s="3"/>
       <c r="B105" s="4"/>
       <c r="C105" s="4"/>
@@ -7064,7 +7064,7 @@
       <c r="AC105" s="10"/>
       <c r="AD105" s="10"/>
     </row>
-    <row r="106" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A106" s="3"/>
       <c r="B106" s="4"/>
       <c r="C106" s="4"/>
@@ -7096,7 +7096,7 @@
       <c r="AC106" s="10"/>
       <c r="AD106" s="10"/>
     </row>
-    <row r="107" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A107" s="3"/>
       <c r="B107" s="4"/>
       <c r="C107" s="4"/>
@@ -7128,7 +7128,7 @@
       <c r="AC107" s="10"/>
       <c r="AD107" s="10"/>
     </row>
-    <row r="108" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A108" s="3"/>
       <c r="B108" s="4"/>
       <c r="C108" s="4"/>
@@ -7160,7 +7160,7 @@
       <c r="AC108" s="10"/>
       <c r="AD108" s="10"/>
     </row>
-    <row r="109" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A109" s="3"/>
       <c r="B109" s="4"/>
       <c r="C109" s="4"/>
@@ -7192,7 +7192,7 @@
       <c r="AC109" s="10"/>
       <c r="AD109" s="10"/>
     </row>
-    <row r="110" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A110" s="3"/>
       <c r="B110" s="4"/>
       <c r="C110" s="4"/>
@@ -7224,7 +7224,7 @@
       <c r="AC110" s="10"/>
       <c r="AD110" s="10"/>
     </row>
-    <row r="111" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A111" s="3"/>
       <c r="B111" s="4"/>
       <c r="C111" s="4"/>
@@ -7256,7 +7256,7 @@
       <c r="AC111" s="10"/>
       <c r="AD111" s="10"/>
     </row>
-    <row r="112" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A112" s="3"/>
       <c r="B112" s="4"/>
       <c r="C112" s="4"/>
@@ -7288,7 +7288,7 @@
       <c r="AC112" s="10"/>
       <c r="AD112" s="10"/>
     </row>
-    <row r="113" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A113" s="3"/>
       <c r="B113" s="4"/>
       <c r="C113" s="4"/>
@@ -7320,7 +7320,7 @@
       <c r="AC113" s="10"/>
       <c r="AD113" s="10"/>
     </row>
-    <row r="114" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A114" s="3"/>
       <c r="B114" s="4"/>
       <c r="C114" s="4"/>
@@ -7352,7 +7352,7 @@
       <c r="AC114" s="10"/>
       <c r="AD114" s="10"/>
     </row>
-    <row r="115" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A115" s="3"/>
       <c r="B115" s="4"/>
       <c r="C115" s="4"/>
@@ -7384,7 +7384,7 @@
       <c r="AC115" s="10"/>
       <c r="AD115" s="10"/>
     </row>
-    <row r="116" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A116" s="3"/>
       <c r="B116" s="4"/>
       <c r="C116" s="4"/>
@@ -7416,7 +7416,7 @@
       <c r="AC116" s="10"/>
       <c r="AD116" s="10"/>
     </row>
-    <row r="117" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A117" s="3"/>
       <c r="B117" s="4"/>
       <c r="C117" s="4"/>
@@ -7448,7 +7448,7 @@
       <c r="AC117" s="10"/>
       <c r="AD117" s="10"/>
     </row>
-    <row r="118" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A118" s="3"/>
       <c r="B118" s="4"/>
       <c r="C118" s="4"/>
@@ -7480,7 +7480,7 @@
       <c r="AC118" s="10"/>
       <c r="AD118" s="10"/>
     </row>
-    <row r="119" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A119" s="3"/>
       <c r="B119" s="4"/>
       <c r="C119" s="4"/>
@@ -7512,7 +7512,7 @@
       <c r="AC119" s="10"/>
       <c r="AD119" s="10"/>
     </row>
-    <row r="120" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A120" s="3"/>
       <c r="B120" s="4"/>
       <c r="C120" s="4"/>
@@ -7544,7 +7544,7 @@
       <c r="AC120" s="10"/>
       <c r="AD120" s="10"/>
     </row>
-    <row r="121" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A121" s="3"/>
       <c r="B121" s="4"/>
       <c r="C121" s="4"/>
@@ -7576,7 +7576,7 @@
       <c r="AC121" s="10"/>
       <c r="AD121" s="10"/>
     </row>
-    <row r="122" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A122" s="3"/>
       <c r="B122" s="4"/>
       <c r="C122" s="4"/>
@@ -7608,7 +7608,7 @@
       <c r="AC122" s="10"/>
       <c r="AD122" s="10"/>
     </row>
-    <row r="123" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A123" s="3"/>
       <c r="B123" s="4"/>
       <c r="C123" s="4"/>
@@ -7640,7 +7640,7 @@
       <c r="AC123" s="10"/>
       <c r="AD123" s="10"/>
     </row>
-    <row r="124" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A124" s="3"/>
       <c r="B124" s="4"/>
       <c r="C124" s="4"/>
@@ -7672,7 +7672,7 @@
       <c r="AC124" s="10"/>
       <c r="AD124" s="10"/>
     </row>
-    <row r="125" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A125" s="3"/>
       <c r="B125" s="4"/>
       <c r="C125" s="4"/>
@@ -7704,7 +7704,7 @@
       <c r="AC125" s="10"/>
       <c r="AD125" s="10"/>
     </row>
-    <row r="126" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A126" s="3"/>
       <c r="B126" s="4"/>
       <c r="C126" s="4"/>
@@ -7736,7 +7736,7 @@
       <c r="AC126" s="10"/>
       <c r="AD126" s="10"/>
     </row>
-    <row r="127" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A127" s="3"/>
       <c r="B127" s="4"/>
       <c r="C127" s="4"/>
@@ -7768,7 +7768,7 @@
       <c r="AC127" s="10"/>
       <c r="AD127" s="10"/>
     </row>
-    <row r="128" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A128" s="3"/>
       <c r="B128" s="4"/>
       <c r="C128" s="4"/>
@@ -7800,7 +7800,7 @@
       <c r="AC128" s="10"/>
       <c r="AD128" s="10"/>
     </row>
-    <row r="129" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A129" s="12"/>
       <c r="B129" s="13"/>
       <c r="C129" s="13"/>
@@ -7821,7 +7821,7 @@
       <c r="X129" s="19"/>
       <c r="Y129" s="20"/>
     </row>
-    <row r="130" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A130" s="12"/>
       <c r="B130" s="13"/>
       <c r="C130" s="13"/>
@@ -7842,7 +7842,7 @@
       <c r="X130" s="19"/>
       <c r="Y130" s="20"/>
     </row>
-    <row r="131" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A131" s="12"/>
       <c r="B131" s="13"/>
       <c r="C131" s="13"/>
@@ -7863,7 +7863,7 @@
       <c r="X131" s="19"/>
       <c r="Y131" s="20"/>
     </row>
-    <row r="132" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A132" s="12"/>
       <c r="B132" s="13"/>
       <c r="C132" s="13"/>
@@ -7884,7 +7884,7 @@
       <c r="X132" s="19"/>
       <c r="Y132" s="20"/>
     </row>
-    <row r="133" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A133" s="12"/>
       <c r="B133" s="13"/>
       <c r="C133" s="13"/>
@@ -7905,7 +7905,7 @@
       <c r="X133" s="19"/>
       <c r="Y133" s="20"/>
     </row>
-    <row r="134" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A134" s="12"/>
       <c r="B134" s="13"/>
       <c r="C134" s="13"/>
@@ -7926,7 +7926,7 @@
       <c r="X134" s="19"/>
       <c r="Y134" s="20"/>
     </row>
-    <row r="135" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A135" s="21"/>
       <c r="N135" s="22"/>
       <c r="O135" s="22"/>
@@ -7937,7 +7937,7 @@
       <c r="T135" s="22"/>
       <c r="U135" s="23"/>
     </row>
-    <row r="136" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A136" s="21"/>
       <c r="N136" s="22"/>
       <c r="O136" s="22"/>
@@ -7948,7 +7948,7 @@
       <c r="T136" s="22"/>
       <c r="U136" s="23"/>
     </row>
-    <row r="137" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A137" s="21"/>
       <c r="N137" s="22"/>
       <c r="O137" s="22"/>
@@ -7959,7 +7959,7 @@
       <c r="T137" s="22"/>
       <c r="U137" s="23"/>
     </row>
-    <row r="138" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A138" s="21"/>
       <c r="N138" s="22"/>
       <c r="O138" s="22"/>
@@ -7970,7 +7970,7 @@
       <c r="T138" s="22"/>
       <c r="U138" s="23"/>
     </row>
-    <row r="139" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A139" s="21"/>
       <c r="N139" s="22"/>
       <c r="O139" s="22"/>
@@ -7981,7 +7981,7 @@
       <c r="T139" s="22"/>
       <c r="U139" s="23"/>
     </row>
-    <row r="140" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A140" s="21"/>
       <c r="N140" s="22"/>
       <c r="O140" s="22"/>
@@ -7992,7 +7992,7 @@
       <c r="T140" s="22"/>
       <c r="U140" s="23"/>
     </row>
-    <row r="141" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A141" s="21"/>
       <c r="N141" s="22"/>
       <c r="O141" s="22"/>
@@ -8003,7 +8003,7 @@
       <c r="T141" s="22"/>
       <c r="U141" s="23"/>
     </row>
-    <row r="142" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A142" s="21"/>
       <c r="N142" s="22"/>
       <c r="O142" s="22"/>
@@ -8014,7 +8014,7 @@
       <c r="T142" s="22"/>
       <c r="U142" s="23"/>
     </row>
-    <row r="143" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A143" s="21"/>
       <c r="N143" s="22"/>
       <c r="O143" s="22"/>
@@ -8025,7 +8025,7 @@
       <c r="T143" s="22"/>
       <c r="U143" s="23"/>
     </row>
-    <row r="144" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A144" s="21"/>
       <c r="N144" s="22"/>
       <c r="O144" s="22"/>
@@ -8036,7 +8036,7 @@
       <c r="T144" s="22"/>
       <c r="U144" s="23"/>
     </row>
-    <row r="145" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A145" s="21"/>
       <c r="N145" s="22"/>
       <c r="O145" s="22"/>
@@ -8047,7 +8047,7 @@
       <c r="T145" s="22"/>
       <c r="U145" s="23"/>
     </row>
-    <row r="146" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A146" s="21"/>
       <c r="N146" s="22"/>
       <c r="O146" s="22"/>
@@ -8058,7 +8058,7 @@
       <c r="T146" s="22"/>
       <c r="U146" s="23"/>
     </row>
-    <row r="147" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A147" s="21"/>
       <c r="N147" s="22"/>
       <c r="O147" s="22"/>
@@ -8069,7 +8069,7 @@
       <c r="T147" s="22"/>
       <c r="U147" s="23"/>
     </row>
-    <row r="148" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A148" s="21"/>
       <c r="N148" s="22"/>
       <c r="O148" s="22"/>
@@ -8080,7 +8080,7 @@
       <c r="T148" s="22"/>
       <c r="U148" s="23"/>
     </row>
-    <row r="149" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A149" s="21"/>
       <c r="N149" s="22"/>
       <c r="O149" s="22"/>
@@ -8091,7 +8091,7 @@
       <c r="T149" s="22"/>
       <c r="U149" s="23"/>
     </row>
-    <row r="150" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A150" s="21"/>
       <c r="N150" s="22"/>
       <c r="O150" s="22"/>
@@ -8102,7 +8102,7 @@
       <c r="T150" s="22"/>
       <c r="U150" s="23"/>
     </row>
-    <row r="151" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A151" s="21"/>
       <c r="N151" s="22"/>
       <c r="O151" s="22"/>
@@ -8113,7 +8113,7 @@
       <c r="T151" s="22"/>
       <c r="U151" s="23"/>
     </row>
-    <row r="152" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A152" s="21"/>
       <c r="N152" s="22"/>
       <c r="O152" s="22"/>
@@ -8124,7 +8124,7 @@
       <c r="T152" s="22"/>
       <c r="U152" s="23"/>
     </row>
-    <row r="153" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A153" s="21"/>
       <c r="N153" s="22"/>
       <c r="O153" s="22"/>
@@ -8135,7 +8135,7 @@
       <c r="T153" s="22"/>
       <c r="U153" s="23"/>
     </row>
-    <row r="154" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A154" s="21"/>
       <c r="N154" s="22"/>
       <c r="O154" s="22"/>
@@ -8146,7 +8146,7 @@
       <c r="T154" s="22"/>
       <c r="U154" s="23"/>
     </row>
-    <row r="155" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A155" s="21"/>
       <c r="N155" s="22"/>
       <c r="O155" s="22"/>
@@ -8157,7 +8157,7 @@
       <c r="T155" s="22"/>
       <c r="U155" s="23"/>
     </row>
-    <row r="156" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A156" s="21"/>
       <c r="N156" s="22"/>
       <c r="O156" s="22"/>
@@ -8168,7 +8168,7 @@
       <c r="T156" s="22"/>
       <c r="U156" s="23"/>
     </row>
-    <row r="157" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A157" s="21"/>
       <c r="N157" s="22"/>
       <c r="O157" s="22"/>
@@ -8179,7 +8179,7 @@
       <c r="T157" s="22"/>
       <c r="U157" s="23"/>
     </row>
-    <row r="158" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A158" s="21"/>
       <c r="N158" s="22"/>
       <c r="O158" s="22"/>
@@ -8190,7 +8190,7 @@
       <c r="T158" s="22"/>
       <c r="U158" s="23"/>
     </row>
-    <row r="159" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A159" s="21"/>
       <c r="N159" s="22"/>
       <c r="O159" s="22"/>
@@ -8201,7 +8201,7 @@
       <c r="T159" s="22"/>
       <c r="U159" s="23"/>
     </row>
-    <row r="160" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A160" s="21"/>
       <c r="N160" s="22"/>
       <c r="O160" s="22"/>
@@ -8212,7 +8212,7 @@
       <c r="T160" s="22"/>
       <c r="U160" s="23"/>
     </row>
-    <row r="161" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A161" s="21"/>
       <c r="N161" s="22"/>
       <c r="O161" s="22"/>
@@ -8223,7 +8223,7 @@
       <c r="T161" s="22"/>
       <c r="U161" s="23"/>
     </row>
-    <row r="162" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A162" s="21"/>
       <c r="N162" s="22"/>
       <c r="O162" s="22"/>
@@ -8234,7 +8234,7 @@
       <c r="T162" s="22"/>
       <c r="U162" s="23"/>
     </row>
-    <row r="163" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A163" s="21"/>
       <c r="N163" s="22"/>
       <c r="O163" s="22"/>
@@ -8245,7 +8245,7 @@
       <c r="T163" s="22"/>
       <c r="U163" s="23"/>
     </row>
-    <row r="164" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A164" s="21"/>
       <c r="N164" s="22"/>
       <c r="O164" s="22"/>
@@ -8256,7 +8256,7 @@
       <c r="T164" s="22"/>
       <c r="U164" s="23"/>
     </row>
-    <row r="165" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A165" s="21"/>
       <c r="N165" s="22"/>
       <c r="O165" s="22"/>
@@ -8267,7 +8267,7 @@
       <c r="T165" s="22"/>
       <c r="U165" s="23"/>
     </row>
-    <row r="166" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A166" s="21"/>
       <c r="N166" s="22"/>
       <c r="O166" s="22"/>
@@ -8278,7 +8278,7 @@
       <c r="T166" s="22"/>
       <c r="U166" s="23"/>
     </row>
-    <row r="167" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A167" s="21"/>
       <c r="N167" s="22"/>
       <c r="O167" s="22"/>
@@ -8289,7 +8289,7 @@
       <c r="T167" s="22"/>
       <c r="U167" s="23"/>
     </row>
-    <row r="168" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A168" s="21"/>
       <c r="N168" s="22"/>
       <c r="O168" s="22"/>
@@ -8300,7 +8300,7 @@
       <c r="T168" s="22"/>
       <c r="U168" s="23"/>
     </row>
-    <row r="169" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A169" s="21"/>
       <c r="N169" s="22"/>
       <c r="O169" s="22"/>
@@ -8311,7 +8311,7 @@
       <c r="T169" s="22"/>
       <c r="U169" s="23"/>
     </row>
-    <row r="170" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A170" s="21"/>
       <c r="N170" s="22"/>
       <c r="O170" s="22"/>
@@ -8322,7 +8322,7 @@
       <c r="T170" s="22"/>
       <c r="U170" s="23"/>
     </row>
-    <row r="171" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A171" s="21"/>
       <c r="N171" s="22"/>
       <c r="O171" s="22"/>
@@ -8333,7 +8333,7 @@
       <c r="T171" s="22"/>
       <c r="U171" s="23"/>
     </row>
-    <row r="172" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A172" s="21"/>
       <c r="N172" s="22"/>
       <c r="O172" s="22"/>
@@ -8344,7 +8344,7 @@
       <c r="T172" s="22"/>
       <c r="U172" s="23"/>
     </row>
-    <row r="173" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A173" s="21"/>
       <c r="N173" s="22"/>
       <c r="O173" s="22"/>
@@ -8355,7 +8355,7 @@
       <c r="T173" s="22"/>
       <c r="U173" s="23"/>
     </row>
-    <row r="174" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A174" s="21"/>
       <c r="N174" s="22"/>
       <c r="O174" s="22"/>
@@ -8366,7 +8366,7 @@
       <c r="T174" s="22"/>
       <c r="U174" s="23"/>
     </row>
-    <row r="175" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A175" s="21"/>
       <c r="N175" s="22"/>
       <c r="O175" s="22"/>
@@ -8377,7 +8377,7 @@
       <c r="T175" s="22"/>
       <c r="U175" s="23"/>
     </row>
-    <row r="176" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A176" s="21"/>
       <c r="N176" s="22"/>
       <c r="O176" s="22"/>
@@ -8388,7 +8388,7 @@
       <c r="T176" s="22"/>
       <c r="U176" s="23"/>
     </row>
-    <row r="177" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A177" s="21"/>
       <c r="N177" s="22"/>
       <c r="O177" s="22"/>
@@ -8399,7 +8399,7 @@
       <c r="T177" s="22"/>
       <c r="U177" s="23"/>
     </row>
-    <row r="178" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A178" s="21"/>
       <c r="N178" s="22"/>
       <c r="O178" s="22"/>
@@ -8410,7 +8410,7 @@
       <c r="T178" s="22"/>
       <c r="U178" s="23"/>
     </row>
-    <row r="179" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A179" s="21"/>
       <c r="N179" s="22"/>
       <c r="O179" s="22"/>
@@ -8421,7 +8421,7 @@
       <c r="T179" s="22"/>
       <c r="U179" s="23"/>
     </row>
-    <row r="180" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A180" s="21"/>
       <c r="N180" s="22"/>
       <c r="O180" s="22"/>
@@ -8432,7 +8432,7 @@
       <c r="T180" s="22"/>
       <c r="U180" s="23"/>
     </row>
-    <row r="181" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A181" s="21"/>
       <c r="N181" s="22"/>
       <c r="O181" s="22"/>
@@ -8443,7 +8443,7 @@
       <c r="T181" s="22"/>
       <c r="U181" s="23"/>
     </row>
-    <row r="182" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A182" s="21"/>
       <c r="N182" s="22"/>
       <c r="O182" s="22"/>
@@ -8454,2458 +8454,2458 @@
       <c r="T182" s="22"/>
       <c r="U182" s="23"/>
     </row>
-    <row r="183" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A183" s="21"/>
     </row>
-    <row r="184" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A184" s="21"/>
     </row>
-    <row r="185" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A185" s="21"/>
     </row>
-    <row r="186" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A186" s="21"/>
     </row>
-    <row r="187" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A187" s="21"/>
     </row>
-    <row r="188" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A188" s="21"/>
     </row>
-    <row r="189" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A189" s="21"/>
     </row>
-    <row r="190" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A190" s="21"/>
     </row>
-    <row r="191" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A191" s="21"/>
     </row>
-    <row r="192" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A192" s="21"/>
     </row>
-    <row r="193" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A193" s="21"/>
     </row>
-    <row r="194" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A194" s="21"/>
     </row>
-    <row r="195" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A195" s="21"/>
     </row>
-    <row r="196" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A196" s="21"/>
     </row>
-    <row r="197" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A197" s="21"/>
     </row>
-    <row r="198" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A198" s="21"/>
     </row>
-    <row r="199" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A199" s="21"/>
     </row>
-    <row r="200" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A200" s="21"/>
     </row>
-    <row r="201" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A201" s="21"/>
     </row>
-    <row r="202" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A202" s="21"/>
     </row>
-    <row r="203" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A203" s="21"/>
     </row>
-    <row r="204" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A204" s="21"/>
     </row>
-    <row r="205" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A205" s="21"/>
     </row>
-    <row r="206" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A206" s="21"/>
     </row>
-    <row r="207" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A207" s="21"/>
     </row>
-    <row r="208" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A208" s="21"/>
     </row>
-    <row r="209" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A209" s="21"/>
     </row>
-    <row r="210" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A210" s="21"/>
     </row>
-    <row r="211" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A211" s="21"/>
     </row>
-    <row r="212" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A212" s="21"/>
     </row>
-    <row r="213" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A213" s="21"/>
     </row>
-    <row r="214" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A214" s="21"/>
     </row>
-    <row r="215" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A215" s="21"/>
     </row>
-    <row r="216" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A216" s="21"/>
     </row>
-    <row r="217" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A217" s="21"/>
     </row>
-    <row r="218" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A218" s="21"/>
     </row>
-    <row r="219" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A219" s="21"/>
     </row>
-    <row r="220" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A220" s="21"/>
     </row>
-    <row r="221" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A221" s="21"/>
     </row>
-    <row r="222" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A222" s="21"/>
     </row>
-    <row r="223" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A223" s="21"/>
     </row>
-    <row r="224" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A224" s="21"/>
     </row>
-    <row r="225" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A225" s="21"/>
     </row>
-    <row r="226" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A226" s="21"/>
     </row>
-    <row r="227" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A227" s="21"/>
     </row>
-    <row r="228" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A228" s="21"/>
     </row>
-    <row r="229" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A229" s="21"/>
     </row>
-    <row r="230" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A230" s="21"/>
     </row>
-    <row r="231" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A231" s="21"/>
     </row>
-    <row r="232" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A232" s="21"/>
     </row>
-    <row r="233" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A233" s="21"/>
     </row>
-    <row r="234" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A234" s="21"/>
     </row>
-    <row r="235" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A235" s="21"/>
     </row>
-    <row r="236" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A236" s="21"/>
     </row>
-    <row r="237" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A237" s="21"/>
     </row>
-    <row r="238" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A238" s="21"/>
     </row>
-    <row r="239" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A239" s="21"/>
     </row>
-    <row r="240" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A240" s="21"/>
     </row>
-    <row r="241" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A241" s="21"/>
     </row>
-    <row r="242" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A242" s="21"/>
     </row>
-    <row r="243" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A243" s="21"/>
     </row>
-    <row r="244" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A244" s="21"/>
     </row>
-    <row r="245" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A245" s="21"/>
     </row>
-    <row r="246" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A246" s="21"/>
     </row>
-    <row r="247" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A247" s="21"/>
     </row>
-    <row r="248" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A248" s="21"/>
     </row>
-    <row r="249" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A249" s="21"/>
     </row>
-    <row r="250" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A250" s="21"/>
     </row>
-    <row r="251" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A251" s="21"/>
     </row>
-    <row r="252" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A252" s="21"/>
     </row>
-    <row r="253" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A253" s="21"/>
     </row>
-    <row r="254" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A254" s="21"/>
     </row>
-    <row r="255" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A255" s="21"/>
     </row>
-    <row r="256" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A256" s="21"/>
     </row>
-    <row r="257" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A257" s="21"/>
     </row>
-    <row r="258" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A258" s="21"/>
     </row>
-    <row r="259" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A259" s="21"/>
     </row>
-    <row r="260" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A260" s="21"/>
     </row>
-    <row r="261" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A261" s="21"/>
     </row>
-    <row r="262" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A262" s="21"/>
     </row>
-    <row r="263" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A263" s="21"/>
     </row>
-    <row r="264" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A264" s="21"/>
     </row>
-    <row r="265" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A265" s="21"/>
     </row>
-    <row r="266" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A266" s="21"/>
     </row>
-    <row r="267" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A267" s="21"/>
     </row>
-    <row r="268" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A268" s="21"/>
     </row>
-    <row r="269" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A269" s="21"/>
     </row>
-    <row r="270" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A270" s="21"/>
     </row>
-    <row r="271" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A271" s="21"/>
     </row>
-    <row r="272" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A272" s="21"/>
     </row>
-    <row r="273" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A273" s="21"/>
     </row>
-    <row r="274" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A274" s="21"/>
     </row>
-    <row r="275" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A275" s="21"/>
     </row>
-    <row r="276" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A276" s="21"/>
     </row>
-    <row r="277" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A277" s="21"/>
     </row>
-    <row r="278" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A278" s="21"/>
     </row>
-    <row r="279" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A279" s="21"/>
     </row>
-    <row r="280" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A280" s="21"/>
     </row>
-    <row r="281" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A281" s="21"/>
     </row>
-    <row r="282" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A282" s="21"/>
     </row>
-    <row r="283" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A283" s="21"/>
     </row>
-    <row r="284" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A284" s="21"/>
     </row>
-    <row r="285" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A285" s="21"/>
     </row>
-    <row r="286" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A286" s="21"/>
     </row>
-    <row r="287" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A287" s="21"/>
     </row>
-    <row r="288" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A288" s="21"/>
     </row>
-    <row r="289" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A289" s="21"/>
     </row>
-    <row r="290" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A290" s="21"/>
     </row>
-    <row r="291" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A291" s="21"/>
     </row>
-    <row r="292" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A292" s="21"/>
     </row>
-    <row r="293" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A293" s="21"/>
     </row>
-    <row r="294" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A294" s="21"/>
     </row>
-    <row r="295" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A295" s="21"/>
     </row>
-    <row r="296" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A296" s="21"/>
     </row>
-    <row r="297" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A297" s="21"/>
     </row>
-    <row r="298" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A298" s="21"/>
     </row>
-    <row r="299" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A299" s="21"/>
     </row>
-    <row r="300" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A300" s="21"/>
     </row>
-    <row r="301" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A301" s="21"/>
     </row>
-    <row r="302" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A302" s="21"/>
     </row>
-    <row r="303" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A303" s="21"/>
     </row>
-    <row r="304" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A304" s="21"/>
     </row>
-    <row r="305" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="305" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A305" s="21"/>
     </row>
-    <row r="306" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="306" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A306" s="21"/>
     </row>
-    <row r="307" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="307" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A307" s="21"/>
     </row>
-    <row r="308" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="308" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A308" s="21"/>
     </row>
-    <row r="309" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="309" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A309" s="21"/>
     </row>
-    <row r="310" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="310" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A310" s="21"/>
     </row>
-    <row r="311" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="311" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A311" s="21"/>
     </row>
-    <row r="312" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="312" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A312" s="21"/>
     </row>
-    <row r="313" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="313" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A313" s="21"/>
     </row>
-    <row r="314" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="314" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A314" s="21"/>
     </row>
-    <row r="315" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="315" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A315" s="21"/>
     </row>
-    <row r="316" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="316" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A316" s="21"/>
     </row>
-    <row r="317" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="317" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A317" s="21"/>
     </row>
-    <row r="318" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="318" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A318" s="21"/>
     </row>
-    <row r="319" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="319" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A319" s="21"/>
     </row>
-    <row r="320" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="320" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A320" s="21"/>
     </row>
-    <row r="321" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="321" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A321" s="21"/>
     </row>
-    <row r="322" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="322" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A322" s="21"/>
     </row>
-    <row r="323" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="323" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A323" s="21"/>
     </row>
-    <row r="324" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="324" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A324" s="21"/>
     </row>
-    <row r="325" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="325" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A325" s="21"/>
     </row>
-    <row r="326" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="326" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A326" s="21"/>
     </row>
-    <row r="327" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="327" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A327" s="21"/>
     </row>
-    <row r="328" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="328" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A328" s="21"/>
     </row>
-    <row r="329" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="329" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A329" s="21"/>
     </row>
-    <row r="330" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="330" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A330" s="21"/>
     </row>
-    <row r="331" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="331" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A331" s="21"/>
     </row>
-    <row r="332" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="332" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A332" s="21"/>
     </row>
-    <row r="333" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="333" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A333" s="21"/>
     </row>
-    <row r="334" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="334" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A334" s="21"/>
     </row>
-    <row r="335" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="335" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A335" s="21"/>
     </row>
-    <row r="336" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="336" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A336" s="21"/>
     </row>
-    <row r="337" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="337" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A337" s="21"/>
     </row>
-    <row r="338" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="338" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A338" s="21"/>
     </row>
-    <row r="339" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="339" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A339" s="21"/>
     </row>
-    <row r="340" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="340" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A340" s="21"/>
     </row>
-    <row r="341" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="341" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A341" s="21"/>
     </row>
-    <row r="342" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="342" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A342" s="21"/>
     </row>
-    <row r="343" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="343" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A343" s="21"/>
     </row>
-    <row r="344" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="344" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A344" s="21"/>
     </row>
-    <row r="345" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="345" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A345" s="21"/>
     </row>
-    <row r="346" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="346" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A346" s="21"/>
     </row>
-    <row r="347" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="347" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A347" s="21"/>
     </row>
-    <row r="348" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="348" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A348" s="21"/>
     </row>
-    <row r="349" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="349" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A349" s="21"/>
     </row>
-    <row r="350" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="350" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A350" s="21"/>
     </row>
-    <row r="351" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="351" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A351" s="21"/>
     </row>
-    <row r="352" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="352" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A352" s="21"/>
     </row>
-    <row r="353" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="353" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A353" s="21"/>
     </row>
-    <row r="354" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="354" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A354" s="21"/>
     </row>
-    <row r="355" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="355" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A355" s="21"/>
     </row>
-    <row r="356" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="356" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A356" s="21"/>
     </row>
-    <row r="357" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="357" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A357" s="21"/>
     </row>
-    <row r="358" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="358" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A358" s="21"/>
     </row>
-    <row r="359" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="359" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A359" s="21"/>
     </row>
-    <row r="360" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="360" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A360" s="21"/>
     </row>
-    <row r="361" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="361" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A361" s="21"/>
     </row>
-    <row r="362" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="362" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A362" s="21"/>
     </row>
-    <row r="363" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="363" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A363" s="21"/>
     </row>
-    <row r="364" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="364" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A364" s="21"/>
     </row>
-    <row r="365" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="365" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A365" s="21"/>
     </row>
-    <row r="366" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="366" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A366" s="21"/>
     </row>
-    <row r="367" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="367" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A367" s="21"/>
     </row>
-    <row r="368" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="368" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A368" s="21"/>
     </row>
-    <row r="369" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="369" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A369" s="21"/>
     </row>
-    <row r="370" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="370" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A370" s="21"/>
     </row>
-    <row r="371" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="371" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A371" s="21"/>
     </row>
-    <row r="372" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="372" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A372" s="21"/>
     </row>
-    <row r="373" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="373" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A373" s="21"/>
     </row>
-    <row r="374" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="374" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A374" s="21"/>
     </row>
-    <row r="375" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="375" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A375" s="21"/>
     </row>
-    <row r="376" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="376" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A376" s="21"/>
     </row>
-    <row r="377" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="377" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A377" s="21"/>
     </row>
-    <row r="378" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="378" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A378" s="21"/>
     </row>
-    <row r="379" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="379" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A379" s="21"/>
     </row>
-    <row r="380" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="380" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A380" s="21"/>
     </row>
-    <row r="381" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="381" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A381" s="21"/>
     </row>
-    <row r="382" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="382" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A382" s="21"/>
     </row>
-    <row r="383" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="383" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A383" s="21"/>
     </row>
-    <row r="384" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="384" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A384" s="21"/>
     </row>
-    <row r="385" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="385" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A385" s="21"/>
     </row>
-    <row r="386" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="386" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A386" s="21"/>
     </row>
-    <row r="387" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="387" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A387" s="21"/>
     </row>
-    <row r="388" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="388" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A388" s="21"/>
     </row>
-    <row r="389" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="389" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A389" s="21"/>
     </row>
-    <row r="390" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="390" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A390" s="21"/>
     </row>
-    <row r="391" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="391" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A391" s="21"/>
     </row>
-    <row r="392" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="392" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A392" s="21"/>
     </row>
-    <row r="393" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="393" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A393" s="21"/>
     </row>
-    <row r="394" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="394" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A394" s="21"/>
     </row>
-    <row r="395" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="395" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A395" s="21"/>
     </row>
-    <row r="396" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="396" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A396" s="21"/>
     </row>
-    <row r="397" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="397" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A397" s="21"/>
     </row>
-    <row r="398" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="398" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A398" s="21"/>
     </row>
-    <row r="399" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="399" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A399" s="21"/>
     </row>
-    <row r="400" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="400" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A400" s="21"/>
     </row>
-    <row r="401" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="401" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A401" s="21"/>
     </row>
-    <row r="402" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="402" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A402" s="21"/>
     </row>
-    <row r="403" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="403" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A403" s="21"/>
     </row>
-    <row r="404" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="404" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A404" s="21"/>
     </row>
-    <row r="405" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="405" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A405" s="21"/>
     </row>
-    <row r="406" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="406" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A406" s="21"/>
     </row>
-    <row r="407" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="407" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A407" s="21"/>
     </row>
-    <row r="408" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="408" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A408" s="21"/>
     </row>
-    <row r="409" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="409" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A409" s="21"/>
     </row>
-    <row r="410" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="410" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A410" s="21"/>
     </row>
-    <row r="411" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="411" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A411" s="21"/>
     </row>
-    <row r="412" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="412" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A412" s="21"/>
     </row>
-    <row r="413" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="413" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A413" s="21"/>
     </row>
-    <row r="414" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="414" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A414" s="21"/>
     </row>
-    <row r="415" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="415" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A415" s="21"/>
     </row>
-    <row r="416" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="416" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A416" s="21"/>
     </row>
-    <row r="417" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="417" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A417" s="21"/>
     </row>
-    <row r="418" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="418" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A418" s="21"/>
     </row>
-    <row r="419" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="419" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A419" s="21"/>
     </row>
-    <row r="420" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="420" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A420" s="21"/>
     </row>
-    <row r="421" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="421" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A421" s="21"/>
     </row>
-    <row r="422" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="422" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A422" s="21"/>
     </row>
-    <row r="423" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="423" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A423" s="21"/>
     </row>
-    <row r="424" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="424" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A424" s="21"/>
     </row>
-    <row r="425" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="425" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A425" s="21"/>
     </row>
-    <row r="426" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="426" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A426" s="21"/>
     </row>
-    <row r="427" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="427" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A427" s="21"/>
     </row>
-    <row r="428" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="428" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A428" s="21"/>
     </row>
-    <row r="429" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="429" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A429" s="21"/>
     </row>
-    <row r="430" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="430" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A430" s="21"/>
     </row>
-    <row r="431" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="431" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A431" s="21"/>
     </row>
-    <row r="432" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="432" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A432" s="21"/>
     </row>
-    <row r="433" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="433" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A433" s="21"/>
     </row>
-    <row r="434" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="434" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A434" s="21"/>
     </row>
-    <row r="435" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="435" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A435" s="21"/>
     </row>
-    <row r="436" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="436" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A436" s="21"/>
     </row>
-    <row r="437" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="437" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A437" s="21"/>
     </row>
-    <row r="438" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="438" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A438" s="21"/>
     </row>
-    <row r="439" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="439" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A439" s="21"/>
     </row>
-    <row r="440" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="440" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A440" s="21"/>
     </row>
-    <row r="441" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="441" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A441" s="21"/>
     </row>
-    <row r="442" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="442" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A442" s="21"/>
     </row>
-    <row r="443" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="443" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A443" s="21"/>
     </row>
-    <row r="444" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="444" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A444" s="21"/>
     </row>
-    <row r="445" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="445" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A445" s="21"/>
     </row>
-    <row r="446" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="446" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A446" s="21"/>
     </row>
-    <row r="447" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="447" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A447" s="21"/>
     </row>
-    <row r="448" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="448" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A448" s="21"/>
     </row>
-    <row r="449" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="449" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A449" s="21"/>
     </row>
-    <row r="450" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="450" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A450" s="21"/>
     </row>
-    <row r="451" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="451" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A451" s="21"/>
     </row>
-    <row r="452" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="452" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A452" s="21"/>
     </row>
-    <row r="453" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="453" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A453" s="21"/>
     </row>
-    <row r="454" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="454" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A454" s="21"/>
     </row>
-    <row r="455" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="455" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A455" s="21"/>
     </row>
-    <row r="456" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="456" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A456" s="21"/>
     </row>
-    <row r="457" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="457" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A457" s="21"/>
     </row>
-    <row r="458" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="458" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A458" s="21"/>
     </row>
-    <row r="459" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="459" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A459" s="21"/>
     </row>
-    <row r="460" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="460" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A460" s="21"/>
     </row>
-    <row r="461" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="461" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A461" s="21"/>
     </row>
-    <row r="462" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="462" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A462" s="21"/>
     </row>
-    <row r="463" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="463" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A463" s="21"/>
     </row>
-    <row r="464" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="464" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A464" s="21"/>
     </row>
-    <row r="465" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="465" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A465" s="21"/>
     </row>
-    <row r="466" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="466" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A466" s="21"/>
     </row>
-    <row r="467" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="467" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A467" s="21"/>
     </row>
-    <row r="468" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="468" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A468" s="21"/>
     </row>
-    <row r="469" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="469" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A469" s="21"/>
     </row>
-    <row r="470" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="470" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A470" s="21"/>
     </row>
-    <row r="471" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="471" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A471" s="21"/>
     </row>
-    <row r="472" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="472" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A472" s="21"/>
     </row>
-    <row r="473" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="473" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A473" s="21"/>
     </row>
-    <row r="474" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="474" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A474" s="21"/>
     </row>
-    <row r="475" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="475" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A475" s="21"/>
     </row>
-    <row r="476" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="476" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A476" s="21"/>
     </row>
-    <row r="477" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="477" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A477" s="21"/>
     </row>
-    <row r="478" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="478" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A478" s="21"/>
     </row>
-    <row r="479" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="479" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A479" s="21"/>
     </row>
-    <row r="480" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="480" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A480" s="21"/>
     </row>
-    <row r="481" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="481" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A481" s="21"/>
     </row>
-    <row r="482" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="482" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A482" s="21"/>
     </row>
-    <row r="483" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="483" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A483" s="21"/>
     </row>
-    <row r="484" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="484" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A484" s="21"/>
     </row>
-    <row r="485" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="485" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A485" s="21"/>
     </row>
-    <row r="486" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="486" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A486" s="21"/>
     </row>
-    <row r="487" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="487" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A487" s="21"/>
     </row>
-    <row r="488" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="488" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A488" s="21"/>
     </row>
-    <row r="489" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="489" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A489" s="21"/>
     </row>
-    <row r="490" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="490" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A490" s="21"/>
     </row>
-    <row r="491" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="491" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A491" s="21"/>
     </row>
-    <row r="492" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="492" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A492" s="21"/>
     </row>
-    <row r="493" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="493" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A493" s="21"/>
     </row>
-    <row r="494" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="494" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A494" s="21"/>
     </row>
-    <row r="495" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="495" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A495" s="21"/>
     </row>
-    <row r="496" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="496" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A496" s="21"/>
     </row>
-    <row r="497" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="497" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A497" s="21"/>
     </row>
-    <row r="498" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="498" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A498" s="21"/>
     </row>
-    <row r="499" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="499" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A499" s="21"/>
     </row>
-    <row r="500" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="500" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A500" s="21"/>
     </row>
-    <row r="501" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="501" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A501" s="21"/>
     </row>
-    <row r="502" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="502" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A502" s="21"/>
     </row>
-    <row r="503" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="503" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A503" s="21"/>
     </row>
-    <row r="504" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="504" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A504" s="21"/>
     </row>
-    <row r="505" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="505" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A505" s="21"/>
     </row>
-    <row r="506" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="506" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A506" s="21"/>
     </row>
-    <row r="507" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="507" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A507" s="21"/>
     </row>
-    <row r="508" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="508" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A508" s="21"/>
     </row>
-    <row r="509" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="509" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A509" s="21"/>
     </row>
-    <row r="510" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="510" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A510" s="21"/>
     </row>
-    <row r="511" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="511" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A511" s="21"/>
     </row>
-    <row r="512" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="512" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A512" s="21"/>
     </row>
-    <row r="513" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="513" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A513" s="21"/>
     </row>
-    <row r="514" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="514" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A514" s="21"/>
     </row>
-    <row r="515" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="515" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A515" s="21"/>
     </row>
-    <row r="516" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="516" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A516" s="21"/>
     </row>
-    <row r="517" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="517" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A517" s="21"/>
     </row>
-    <row r="518" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="518" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A518" s="21"/>
     </row>
-    <row r="519" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="519" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A519" s="21"/>
     </row>
-    <row r="520" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="520" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A520" s="21"/>
     </row>
-    <row r="521" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="521" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A521" s="21"/>
     </row>
-    <row r="522" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="522" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A522" s="21"/>
     </row>
-    <row r="523" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="523" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A523" s="21"/>
     </row>
-    <row r="524" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="524" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A524" s="21"/>
     </row>
-    <row r="525" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="525" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A525" s="21"/>
     </row>
-    <row r="526" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="526" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A526" s="21"/>
     </row>
-    <row r="527" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="527" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A527" s="21"/>
     </row>
-    <row r="528" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="528" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A528" s="21"/>
     </row>
-    <row r="529" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="529" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A529" s="21"/>
     </row>
-    <row r="530" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="530" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A530" s="21"/>
     </row>
-    <row r="531" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="531" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A531" s="21"/>
     </row>
-    <row r="532" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="532" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A532" s="21"/>
     </row>
-    <row r="533" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="533" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A533" s="21"/>
     </row>
-    <row r="534" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="534" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A534" s="21"/>
     </row>
-    <row r="535" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="535" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A535" s="21"/>
     </row>
-    <row r="536" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="536" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A536" s="21"/>
     </row>
-    <row r="537" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="537" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A537" s="21"/>
     </row>
-    <row r="538" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="538" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A538" s="21"/>
     </row>
-    <row r="539" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="539" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A539" s="21"/>
     </row>
-    <row r="540" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="540" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A540" s="21"/>
     </row>
-    <row r="541" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="541" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A541" s="21"/>
     </row>
-    <row r="542" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="542" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A542" s="21"/>
     </row>
-    <row r="543" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="543" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A543" s="21"/>
     </row>
-    <row r="544" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="544" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A544" s="21"/>
     </row>
-    <row r="545" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="545" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A545" s="21"/>
     </row>
-    <row r="546" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="546" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A546" s="21"/>
     </row>
-    <row r="547" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="547" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A547" s="21"/>
     </row>
-    <row r="548" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="548" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A548" s="21"/>
     </row>
-    <row r="549" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="549" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A549" s="21"/>
     </row>
-    <row r="550" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="550" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A550" s="21"/>
     </row>
-    <row r="551" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="551" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A551" s="21"/>
     </row>
-    <row r="552" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="552" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A552" s="21"/>
     </row>
-    <row r="553" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="553" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A553" s="21"/>
     </row>
-    <row r="554" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="554" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A554" s="21"/>
     </row>
-    <row r="555" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="555" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A555" s="21"/>
     </row>
-    <row r="556" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="556" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A556" s="21"/>
     </row>
-    <row r="557" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="557" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A557" s="21"/>
     </row>
-    <row r="558" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="558" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A558" s="21"/>
     </row>
-    <row r="559" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="559" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A559" s="21"/>
     </row>
-    <row r="560" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="560" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A560" s="21"/>
     </row>
-    <row r="561" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="561" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A561" s="21"/>
     </row>
-    <row r="562" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="562" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A562" s="21"/>
     </row>
-    <row r="563" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="563" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A563" s="21"/>
     </row>
-    <row r="564" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="564" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A564" s="21"/>
     </row>
-    <row r="565" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="565" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A565" s="21"/>
     </row>
-    <row r="566" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="566" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A566" s="21"/>
     </row>
-    <row r="567" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="567" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A567" s="21"/>
     </row>
-    <row r="568" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="568" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A568" s="21"/>
     </row>
-    <row r="569" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="569" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A569" s="21"/>
     </row>
-    <row r="570" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="570" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A570" s="21"/>
     </row>
-    <row r="571" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="571" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A571" s="21"/>
     </row>
-    <row r="572" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="572" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A572" s="21"/>
     </row>
-    <row r="573" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="573" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A573" s="21"/>
     </row>
-    <row r="574" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="574" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A574" s="21"/>
     </row>
-    <row r="575" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="575" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A575" s="21"/>
     </row>
-    <row r="576" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="576" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A576" s="21"/>
     </row>
-    <row r="577" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="577" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A577" s="21"/>
     </row>
-    <row r="578" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="578" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A578" s="21"/>
     </row>
-    <row r="579" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="579" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A579" s="21"/>
     </row>
-    <row r="580" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="580" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A580" s="21"/>
     </row>
-    <row r="581" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="581" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A581" s="21"/>
     </row>
-    <row r="582" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="582" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A582" s="21"/>
     </row>
-    <row r="583" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="583" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A583" s="21"/>
     </row>
-    <row r="584" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="584" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A584" s="21"/>
     </row>
-    <row r="585" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="585" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A585" s="21"/>
     </row>
-    <row r="586" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="586" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A586" s="21"/>
     </row>
-    <row r="587" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="587" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A587" s="21"/>
     </row>
-    <row r="588" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="588" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A588" s="21"/>
     </row>
-    <row r="589" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="589" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A589" s="21"/>
     </row>
-    <row r="590" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="590" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A590" s="21"/>
     </row>
-    <row r="591" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="591" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A591" s="21"/>
     </row>
-    <row r="592" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="592" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A592" s="21"/>
     </row>
-    <row r="593" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="593" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A593" s="21"/>
     </row>
-    <row r="594" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="594" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A594" s="21"/>
     </row>
-    <row r="595" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="595" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A595" s="21"/>
     </row>
-    <row r="596" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="596" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A596" s="21"/>
     </row>
-    <row r="597" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="597" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A597" s="21"/>
     </row>
-    <row r="598" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="598" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A598" s="21"/>
     </row>
-    <row r="599" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="599" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A599" s="21"/>
     </row>
-    <row r="600" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="600" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A600" s="21"/>
     </row>
-    <row r="601" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="601" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A601" s="21"/>
     </row>
-    <row r="602" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="602" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A602" s="21"/>
     </row>
-    <row r="603" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="603" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A603" s="21"/>
     </row>
-    <row r="604" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="604" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A604" s="21"/>
     </row>
-    <row r="605" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="605" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A605" s="21"/>
     </row>
-    <row r="606" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="606" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A606" s="21"/>
     </row>
-    <row r="607" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="607" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A607" s="21"/>
     </row>
-    <row r="608" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="608" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A608" s="21"/>
     </row>
-    <row r="609" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="609" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A609" s="21"/>
     </row>
-    <row r="610" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="610" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A610" s="21"/>
     </row>
-    <row r="611" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="611" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A611" s="21"/>
     </row>
-    <row r="612" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="612" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A612" s="21"/>
     </row>
-    <row r="613" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="613" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A613" s="21"/>
     </row>
-    <row r="614" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="614" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A614" s="21"/>
     </row>
-    <row r="615" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="615" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A615" s="21"/>
     </row>
-    <row r="616" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="616" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A616" s="21"/>
     </row>
-    <row r="617" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="617" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A617" s="21"/>
     </row>
-    <row r="618" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="618" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A618" s="21"/>
     </row>
-    <row r="619" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="619" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A619" s="21"/>
     </row>
-    <row r="620" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="620" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A620" s="21"/>
     </row>
-    <row r="621" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="621" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A621" s="21"/>
     </row>
-    <row r="622" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="622" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A622" s="21"/>
     </row>
-    <row r="623" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="623" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A623" s="21"/>
     </row>
-    <row r="624" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="624" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A624" s="21"/>
     </row>
-    <row r="625" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="625" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A625" s="21"/>
     </row>
-    <row r="626" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="626" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A626" s="21"/>
     </row>
-    <row r="627" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="627" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A627" s="21"/>
     </row>
-    <row r="628" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="628" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A628" s="21"/>
     </row>
-    <row r="629" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="629" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A629" s="21"/>
     </row>
-    <row r="630" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="630" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A630" s="21"/>
     </row>
-    <row r="631" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="631" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A631" s="21"/>
     </row>
-    <row r="632" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="632" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A632" s="21"/>
     </row>
-    <row r="633" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="633" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A633" s="21"/>
     </row>
-    <row r="634" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="634" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A634" s="21"/>
     </row>
-    <row r="635" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="635" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A635" s="21"/>
     </row>
-    <row r="636" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="636" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A636" s="21"/>
     </row>
-    <row r="637" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="637" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A637" s="21"/>
     </row>
-    <row r="638" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="638" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A638" s="21"/>
     </row>
-    <row r="639" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="639" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A639" s="21"/>
     </row>
-    <row r="640" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="640" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A640" s="21"/>
     </row>
-    <row r="641" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="641" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A641" s="21"/>
     </row>
-    <row r="642" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="642" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A642" s="21"/>
     </row>
-    <row r="643" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="643" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A643" s="21"/>
     </row>
-    <row r="644" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="644" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A644" s="21"/>
     </row>
-    <row r="645" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="645" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A645" s="21"/>
     </row>
-    <row r="646" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="646" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A646" s="21"/>
     </row>
-    <row r="647" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="647" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A647" s="21"/>
     </row>
-    <row r="648" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="648" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A648" s="21"/>
     </row>
-    <row r="649" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="649" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A649" s="21"/>
     </row>
-    <row r="650" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="650" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A650" s="21"/>
     </row>
-    <row r="651" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="651" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A651" s="21"/>
     </row>
-    <row r="652" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="652" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A652" s="21"/>
     </row>
-    <row r="653" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="653" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A653" s="21"/>
     </row>
-    <row r="654" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="654" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A654" s="21"/>
     </row>
-    <row r="655" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="655" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A655" s="21"/>
     </row>
-    <row r="656" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="656" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A656" s="21"/>
     </row>
-    <row r="657" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="657" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A657" s="21"/>
     </row>
-    <row r="658" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="658" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A658" s="21"/>
     </row>
-    <row r="659" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="659" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A659" s="21"/>
     </row>
-    <row r="660" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="660" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A660" s="21"/>
     </row>
-    <row r="661" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="661" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A661" s="21"/>
     </row>
-    <row r="662" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="662" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A662" s="21"/>
     </row>
-    <row r="663" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="663" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A663" s="21"/>
     </row>
-    <row r="664" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="664" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A664" s="21"/>
     </row>
-    <row r="665" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="665" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A665" s="21"/>
     </row>
-    <row r="666" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="666" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A666" s="21"/>
     </row>
-    <row r="667" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="667" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A667" s="21"/>
     </row>
-    <row r="668" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="668" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A668" s="21"/>
     </row>
-    <row r="669" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="669" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A669" s="21"/>
     </row>
-    <row r="670" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="670" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A670" s="21"/>
     </row>
-    <row r="671" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="671" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A671" s="21"/>
     </row>
-    <row r="672" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="672" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A672" s="21"/>
     </row>
-    <row r="673" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="673" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A673" s="21"/>
     </row>
-    <row r="674" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="674" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A674" s="21"/>
     </row>
-    <row r="675" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="675" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A675" s="21"/>
     </row>
-    <row r="676" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="676" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A676" s="21"/>
     </row>
-    <row r="677" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="677" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A677" s="21"/>
     </row>
-    <row r="678" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="678" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A678" s="21"/>
     </row>
-    <row r="679" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="679" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A679" s="21"/>
     </row>
-    <row r="680" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="680" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A680" s="21"/>
     </row>
-    <row r="681" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="681" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A681" s="21"/>
     </row>
-    <row r="682" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="682" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A682" s="21"/>
     </row>
-    <row r="683" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="683" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A683" s="21"/>
     </row>
-    <row r="684" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="684" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A684" s="21"/>
     </row>
-    <row r="685" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="685" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A685" s="21"/>
     </row>
-    <row r="686" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="686" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A686" s="21"/>
     </row>
-    <row r="687" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="687" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A687" s="21"/>
     </row>
-    <row r="688" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="688" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A688" s="21"/>
     </row>
-    <row r="689" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="689" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A689" s="21"/>
     </row>
-    <row r="690" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="690" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A690" s="21"/>
     </row>
-    <row r="691" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="691" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A691" s="21"/>
     </row>
-    <row r="692" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="692" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A692" s="21"/>
     </row>
-    <row r="693" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="693" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A693" s="21"/>
     </row>
-    <row r="694" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="694" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A694" s="21"/>
     </row>
-    <row r="695" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="695" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A695" s="21"/>
     </row>
-    <row r="696" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="696" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A696" s="21"/>
     </row>
-    <row r="697" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="697" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A697" s="21"/>
     </row>
-    <row r="698" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="698" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A698" s="21"/>
     </row>
-    <row r="699" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="699" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A699" s="21"/>
     </row>
-    <row r="700" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="700" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A700" s="21"/>
     </row>
-    <row r="701" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="701" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A701" s="21"/>
     </row>
-    <row r="702" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="702" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A702" s="21"/>
     </row>
-    <row r="703" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="703" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A703" s="21"/>
     </row>
-    <row r="704" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="704" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A704" s="21"/>
     </row>
-    <row r="705" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="705" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A705" s="21"/>
     </row>
-    <row r="706" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="706" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A706" s="21"/>
     </row>
-    <row r="707" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="707" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A707" s="21"/>
     </row>
-    <row r="708" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="708" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A708" s="21"/>
     </row>
-    <row r="709" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="709" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A709" s="21"/>
     </row>
-    <row r="710" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="710" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A710" s="21"/>
     </row>
-    <row r="711" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="711" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A711" s="21"/>
     </row>
-    <row r="712" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="712" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A712" s="21"/>
     </row>
-    <row r="713" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="713" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A713" s="21"/>
     </row>
-    <row r="714" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="714" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A714" s="21"/>
     </row>
-    <row r="715" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="715" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A715" s="21"/>
     </row>
-    <row r="716" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="716" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A716" s="21"/>
     </row>
-    <row r="717" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="717" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A717" s="21"/>
     </row>
-    <row r="718" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="718" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A718" s="21"/>
     </row>
-    <row r="719" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="719" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A719" s="21"/>
     </row>
-    <row r="720" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="720" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A720" s="21"/>
     </row>
-    <row r="721" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="721" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A721" s="21"/>
     </row>
-    <row r="722" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="722" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A722" s="21"/>
     </row>
-    <row r="723" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="723" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A723" s="21"/>
     </row>
-    <row r="724" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="724" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A724" s="21"/>
     </row>
-    <row r="725" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="725" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A725" s="21"/>
     </row>
-    <row r="726" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="726" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A726" s="21"/>
     </row>
-    <row r="727" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="727" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A727" s="21"/>
     </row>
-    <row r="728" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="728" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A728" s="21"/>
     </row>
-    <row r="729" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="729" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A729" s="21"/>
     </row>
-    <row r="730" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="730" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A730" s="21"/>
     </row>
-    <row r="731" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="731" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A731" s="21"/>
     </row>
-    <row r="732" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="732" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A732" s="21"/>
     </row>
-    <row r="733" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="733" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A733" s="21"/>
     </row>
-    <row r="734" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="734" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A734" s="21"/>
     </row>
-    <row r="735" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="735" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A735" s="21"/>
     </row>
-    <row r="736" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="736" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A736" s="21"/>
     </row>
-    <row r="737" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="737" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A737" s="21"/>
     </row>
-    <row r="738" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="738" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A738" s="21"/>
     </row>
-    <row r="739" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="739" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A739" s="21"/>
     </row>
-    <row r="740" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="740" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A740" s="21"/>
     </row>
-    <row r="741" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="741" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A741" s="21"/>
     </row>
-    <row r="742" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="742" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A742" s="21"/>
     </row>
-    <row r="743" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="743" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A743" s="21"/>
     </row>
-    <row r="744" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="744" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A744" s="21"/>
     </row>
-    <row r="745" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="745" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A745" s="21"/>
     </row>
-    <row r="746" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="746" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A746" s="21"/>
     </row>
-    <row r="747" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="747" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A747" s="21"/>
     </row>
-    <row r="748" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="748" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A748" s="21"/>
     </row>
-    <row r="749" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="749" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A749" s="21"/>
     </row>
-    <row r="750" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="750" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A750" s="21"/>
     </row>
-    <row r="751" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="751" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A751" s="21"/>
     </row>
-    <row r="752" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="752" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A752" s="21"/>
     </row>
-    <row r="753" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="753" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A753" s="21"/>
     </row>
-    <row r="754" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="754" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A754" s="21"/>
     </row>
-    <row r="755" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="755" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A755" s="21"/>
     </row>
-    <row r="756" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="756" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A756" s="21"/>
     </row>
-    <row r="757" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="757" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A757" s="21"/>
     </row>
-    <row r="758" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="758" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A758" s="21"/>
     </row>
-    <row r="759" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="759" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A759" s="21"/>
     </row>
-    <row r="760" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="760" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A760" s="21"/>
     </row>
-    <row r="761" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="761" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A761" s="21"/>
     </row>
-    <row r="762" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="762" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A762" s="21"/>
     </row>
-    <row r="763" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="763" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A763" s="21"/>
     </row>
-    <row r="764" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="764" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A764" s="21"/>
     </row>
-    <row r="765" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="765" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A765" s="21"/>
     </row>
-    <row r="766" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="766" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A766" s="21"/>
     </row>
-    <row r="767" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="767" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A767" s="21"/>
     </row>
-    <row r="768" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="768" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A768" s="21"/>
     </row>
-    <row r="769" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="769" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A769" s="21"/>
     </row>
-    <row r="770" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="770" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A770" s="21"/>
     </row>
-    <row r="771" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="771" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A771" s="21"/>
     </row>
-    <row r="772" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="772" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A772" s="21"/>
     </row>
-    <row r="773" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="773" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A773" s="21"/>
     </row>
-    <row r="774" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="774" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A774" s="21"/>
     </row>
-    <row r="775" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="775" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A775" s="21"/>
     </row>
-    <row r="776" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="776" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A776" s="21"/>
     </row>
-    <row r="777" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="777" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A777" s="21"/>
     </row>
-    <row r="778" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="778" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A778" s="21"/>
     </row>
-    <row r="779" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="779" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A779" s="21"/>
     </row>
-    <row r="780" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="780" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A780" s="21"/>
     </row>
-    <row r="781" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="781" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A781" s="21"/>
     </row>
-    <row r="782" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="782" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A782" s="21"/>
     </row>
-    <row r="783" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="783" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A783" s="21"/>
     </row>
-    <row r="784" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="784" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A784" s="21"/>
     </row>
-    <row r="785" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="785" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A785" s="21"/>
     </row>
-    <row r="786" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="786" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A786" s="21"/>
     </row>
-    <row r="787" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="787" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A787" s="21"/>
     </row>
-    <row r="788" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="788" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A788" s="21"/>
     </row>
-    <row r="789" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="789" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A789" s="21"/>
     </row>
-    <row r="790" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="790" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A790" s="21"/>
     </row>
-    <row r="791" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="791" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A791" s="21"/>
     </row>
-    <row r="792" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="792" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A792" s="21"/>
     </row>
-    <row r="793" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="793" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A793" s="21"/>
     </row>
-    <row r="794" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="794" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A794" s="21"/>
     </row>
-    <row r="795" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="795" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A795" s="21"/>
     </row>
-    <row r="796" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="796" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A796" s="21"/>
     </row>
-    <row r="797" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="797" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A797" s="21"/>
     </row>
-    <row r="798" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="798" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A798" s="21"/>
     </row>
-    <row r="799" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="799" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A799" s="21"/>
     </row>
-    <row r="800" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="800" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A800" s="21"/>
     </row>
-    <row r="801" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="801" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A801" s="21"/>
     </row>
-    <row r="802" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="802" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A802" s="21"/>
     </row>
-    <row r="803" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="803" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A803" s="21"/>
     </row>
-    <row r="804" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="804" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A804" s="21"/>
     </row>
-    <row r="805" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="805" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A805" s="21"/>
     </row>
-    <row r="806" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="806" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A806" s="21"/>
     </row>
-    <row r="807" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="807" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A807" s="21"/>
     </row>
-    <row r="808" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="808" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A808" s="21"/>
     </row>
-    <row r="809" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="809" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A809" s="21"/>
     </row>
-    <row r="810" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="810" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A810" s="21"/>
     </row>
-    <row r="811" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="811" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A811" s="21"/>
     </row>
-    <row r="812" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="812" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A812" s="21"/>
     </row>
-    <row r="813" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="813" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A813" s="21"/>
     </row>
-    <row r="814" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="814" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A814" s="21"/>
     </row>
-    <row r="815" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="815" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A815" s="21"/>
     </row>
-    <row r="816" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="816" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A816" s="21"/>
     </row>
-    <row r="817" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="817" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A817" s="21"/>
     </row>
-    <row r="818" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="818" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A818" s="21"/>
     </row>
-    <row r="819" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="819" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A819" s="21"/>
     </row>
-    <row r="820" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="820" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A820" s="21"/>
     </row>
-    <row r="821" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="821" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A821" s="21"/>
     </row>
-    <row r="822" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="822" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A822" s="21"/>
     </row>
-    <row r="823" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="823" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A823" s="21"/>
     </row>
-    <row r="824" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="824" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A824" s="21"/>
     </row>
-    <row r="825" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="825" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A825" s="21"/>
     </row>
-    <row r="826" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="826" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A826" s="21"/>
     </row>
-    <row r="827" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="827" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A827" s="21"/>
     </row>
-    <row r="828" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="828" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A828" s="21"/>
     </row>
-    <row r="829" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="829" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A829" s="21"/>
     </row>
-    <row r="830" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="830" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A830" s="21"/>
     </row>
-    <row r="831" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="831" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A831" s="21"/>
     </row>
-    <row r="832" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="832" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A832" s="21"/>
     </row>
-    <row r="833" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="833" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A833" s="21"/>
     </row>
-    <row r="834" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="834" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A834" s="21"/>
     </row>
-    <row r="835" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="835" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A835" s="21"/>
     </row>
-    <row r="836" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="836" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A836" s="21"/>
     </row>
-    <row r="837" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="837" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A837" s="21"/>
     </row>
-    <row r="838" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="838" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A838" s="21"/>
     </row>
-    <row r="839" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="839" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A839" s="21"/>
     </row>
-    <row r="840" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="840" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A840" s="21"/>
     </row>
-    <row r="841" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="841" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A841" s="21"/>
     </row>
-    <row r="842" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="842" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A842" s="21"/>
     </row>
-    <row r="843" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="843" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A843" s="21"/>
     </row>
-    <row r="844" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="844" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A844" s="21"/>
     </row>
-    <row r="845" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="845" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A845" s="21"/>
     </row>
-    <row r="846" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="846" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A846" s="21"/>
     </row>
-    <row r="847" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="847" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A847" s="21"/>
     </row>
-    <row r="848" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="848" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A848" s="21"/>
     </row>
-    <row r="849" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="849" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A849" s="21"/>
     </row>
-    <row r="850" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="850" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A850" s="21"/>
     </row>
-    <row r="851" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="851" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A851" s="21"/>
     </row>
-    <row r="852" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="852" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A852" s="21"/>
     </row>
-    <row r="853" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="853" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A853" s="21"/>
     </row>
-    <row r="854" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="854" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A854" s="21"/>
     </row>
-    <row r="855" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="855" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A855" s="21"/>
     </row>
-    <row r="856" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="856" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A856" s="21"/>
     </row>
-    <row r="857" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="857" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A857" s="21"/>
     </row>
-    <row r="858" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="858" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A858" s="21"/>
     </row>
-    <row r="859" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="859" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A859" s="21"/>
     </row>
-    <row r="860" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="860" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A860" s="21"/>
     </row>
-    <row r="861" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="861" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A861" s="21"/>
     </row>
-    <row r="862" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="862" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A862" s="21"/>
     </row>
-    <row r="863" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="863" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A863" s="21"/>
     </row>
-    <row r="864" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="864" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A864" s="21"/>
     </row>
-    <row r="865" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="865" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A865" s="21"/>
     </row>
-    <row r="866" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="866" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A866" s="21"/>
     </row>
-    <row r="867" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="867" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A867" s="21"/>
     </row>
-    <row r="868" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="868" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A868" s="21"/>
     </row>
-    <row r="869" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="869" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A869" s="21"/>
     </row>
-    <row r="870" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="870" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A870" s="21"/>
     </row>
-    <row r="871" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="871" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A871" s="21"/>
     </row>
-    <row r="872" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="872" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A872" s="21"/>
     </row>
-    <row r="873" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="873" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A873" s="21"/>
     </row>
-    <row r="874" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="874" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A874" s="21"/>
     </row>
-    <row r="875" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="875" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A875" s="21"/>
     </row>
-    <row r="876" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="876" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A876" s="21"/>
     </row>
-    <row r="877" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="877" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A877" s="21"/>
     </row>
-    <row r="878" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="878" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A878" s="21"/>
     </row>
-    <row r="879" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="879" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A879" s="21"/>
     </row>
-    <row r="880" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="880" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A880" s="21"/>
     </row>
-    <row r="881" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="881" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A881" s="21"/>
     </row>
-    <row r="882" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="882" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A882" s="21"/>
     </row>
-    <row r="883" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="883" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A883" s="21"/>
     </row>
-    <row r="884" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="884" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A884" s="21"/>
     </row>
-    <row r="885" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="885" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A885" s="21"/>
     </row>
-    <row r="886" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="886" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A886" s="21"/>
     </row>
-    <row r="887" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="887" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A887" s="21"/>
     </row>
-    <row r="888" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="888" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A888" s="21"/>
     </row>
-    <row r="889" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="889" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A889" s="21"/>
     </row>
-    <row r="890" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="890" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A890" s="21"/>
     </row>
-    <row r="891" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="891" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A891" s="21"/>
     </row>
-    <row r="892" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="892" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A892" s="21"/>
     </row>
-    <row r="893" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="893" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A893" s="21"/>
     </row>
-    <row r="894" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="894" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A894" s="21"/>
     </row>
-    <row r="895" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="895" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A895" s="21"/>
     </row>
-    <row r="896" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="896" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A896" s="21"/>
     </row>
-    <row r="897" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="897" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A897" s="21"/>
     </row>
-    <row r="898" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="898" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A898" s="21"/>
     </row>
-    <row r="899" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="899" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A899" s="21"/>
     </row>
-    <row r="900" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="900" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A900" s="21"/>
     </row>
-    <row r="901" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="901" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A901" s="21"/>
     </row>
-    <row r="902" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="902" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A902" s="21"/>
     </row>
-    <row r="903" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="903" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A903" s="21"/>
     </row>
-    <row r="904" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="904" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A904" s="21"/>
     </row>
-    <row r="905" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="905" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A905" s="21"/>
     </row>
-    <row r="906" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="906" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A906" s="21"/>
     </row>
-    <row r="907" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="907" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A907" s="21"/>
     </row>
-    <row r="908" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="908" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A908" s="21"/>
     </row>
-    <row r="909" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="909" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A909" s="21"/>
     </row>
-    <row r="910" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="910" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A910" s="21"/>
     </row>
-    <row r="911" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="911" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A911" s="21"/>
     </row>
-    <row r="912" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="912" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A912" s="21"/>
     </row>
-    <row r="913" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="913" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A913" s="21"/>
     </row>
-    <row r="914" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="914" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A914" s="21"/>
     </row>
-    <row r="915" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="915" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A915" s="21"/>
     </row>
-    <row r="916" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="916" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A916" s="21"/>
     </row>
-    <row r="917" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="917" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A917" s="21"/>
     </row>
-    <row r="918" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="918" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A918" s="21"/>
     </row>
-    <row r="919" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="919" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A919" s="21"/>
     </row>
-    <row r="920" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="920" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A920" s="21"/>
     </row>
-    <row r="921" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="921" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A921" s="21"/>
     </row>
-    <row r="922" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="922" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A922" s="21"/>
     </row>
-    <row r="923" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="923" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A923" s="21"/>
     </row>
-    <row r="924" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="924" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A924" s="21"/>
     </row>
-    <row r="925" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="925" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A925" s="21"/>
     </row>
-    <row r="926" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="926" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A926" s="21"/>
     </row>
-    <row r="927" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="927" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A927" s="21"/>
     </row>
-    <row r="928" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="928" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A928" s="21"/>
     </row>
-    <row r="929" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="929" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A929" s="21"/>
     </row>
-    <row r="930" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="930" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A930" s="21"/>
     </row>
-    <row r="931" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="931" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A931" s="21"/>
     </row>
-    <row r="932" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="932" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A932" s="21"/>
     </row>
-    <row r="933" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="933" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A933" s="21"/>
     </row>
-    <row r="934" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="934" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A934" s="21"/>
     </row>
-    <row r="935" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="935" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A935" s="21"/>
     </row>
-    <row r="936" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="936" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A936" s="21"/>
     </row>
-    <row r="937" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="937" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A937" s="21"/>
     </row>
-    <row r="938" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="938" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A938" s="21"/>
     </row>
-    <row r="939" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="939" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A939" s="21"/>
     </row>
-    <row r="940" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="940" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A940" s="21"/>
     </row>
-    <row r="941" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="941" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A941" s="21"/>
     </row>
-    <row r="942" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="942" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A942" s="21"/>
     </row>
-    <row r="943" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="943" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A943" s="21"/>
     </row>
-    <row r="944" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="944" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A944" s="21"/>
     </row>
-    <row r="945" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="945" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A945" s="21"/>
     </row>
-    <row r="946" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="946" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A946" s="21"/>
     </row>
-    <row r="947" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="947" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A947" s="21"/>
     </row>
-    <row r="948" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="948" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A948" s="21"/>
     </row>
-    <row r="949" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="949" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A949" s="21"/>
     </row>
-    <row r="950" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="950" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A950" s="21"/>
     </row>
-    <row r="951" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="951" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A951" s="21"/>
     </row>
-    <row r="952" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="952" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A952" s="21"/>
     </row>
-    <row r="953" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="953" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A953" s="21"/>
     </row>
-    <row r="954" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="954" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A954" s="21"/>
     </row>
-    <row r="955" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="955" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A955" s="21"/>
     </row>
-    <row r="956" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="956" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A956" s="21"/>
     </row>
-    <row r="957" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="957" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A957" s="21"/>
     </row>
-    <row r="958" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="958" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A958" s="21"/>
     </row>
-    <row r="959" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="959" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A959" s="21"/>
     </row>
-    <row r="960" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="960" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A960" s="21"/>
     </row>
-    <row r="961" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="961" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A961" s="21"/>
     </row>
-    <row r="962" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="962" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A962" s="21"/>
     </row>
-    <row r="963" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="963" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A963" s="21"/>
     </row>
-    <row r="964" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="964" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A964" s="21"/>
     </row>
-    <row r="965" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="965" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A965" s="21"/>
     </row>
-    <row r="966" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="966" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A966" s="21"/>
     </row>
-    <row r="967" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="967" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A967" s="21"/>
     </row>
-    <row r="968" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="968" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A968" s="21"/>
     </row>
-    <row r="969" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="969" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A969" s="21"/>
     </row>
-    <row r="970" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="970" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A970" s="21"/>
     </row>
-    <row r="971" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="971" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A971" s="21"/>
     </row>
-    <row r="972" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="972" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A972" s="21"/>
     </row>
-    <row r="973" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="973" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A973" s="21"/>
     </row>
-    <row r="974" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="974" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A974" s="21"/>
     </row>
-    <row r="975" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="975" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A975" s="21"/>
     </row>
-    <row r="976" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="976" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A976" s="21"/>
     </row>
-    <row r="977" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="977" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A977" s="21"/>
     </row>
-    <row r="978" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="978" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A978" s="21"/>
     </row>
-    <row r="979" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="979" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A979" s="21"/>
     </row>
-    <row r="980" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="980" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A980" s="21"/>
     </row>
-    <row r="981" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="981" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A981" s="21"/>
     </row>
-    <row r="982" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="982" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A982" s="21"/>
     </row>
-    <row r="983" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="983" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A983" s="21"/>
     </row>
-    <row r="984" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="984" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A984" s="21"/>
     </row>
-    <row r="985" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="985" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A985" s="21"/>
     </row>
-    <row r="986" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="986" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A986" s="21"/>
     </row>
-    <row r="987" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="987" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A987" s="21"/>
     </row>
-    <row r="988" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="988" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A988" s="21"/>
     </row>
-    <row r="989" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="989" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A989" s="21"/>
     </row>
-    <row r="990" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="990" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A990" s="21"/>
     </row>
-    <row r="991" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="991" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A991" s="21"/>
     </row>
-    <row r="992" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="992" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A992" s="21"/>
     </row>
-    <row r="993" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="993" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A993" s="21"/>
     </row>
-    <row r="994" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="994" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A994" s="21"/>
     </row>
-    <row r="995" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="995" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A995" s="21"/>
     </row>
-    <row r="996" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="996" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A996" s="21"/>
     </row>
-    <row r="997" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="997" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A997" s="21"/>
     </row>
-    <row r="998" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="998" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A998" s="21"/>
     </row>
-    <row r="999" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="999" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A999" s="21"/>
     </row>
-    <row r="1000" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1000" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1000" s="21"/>
     </row>
   </sheetData>
@@ -10936,17 +10936,17 @@
   </sheetPr>
   <dimension ref="A1:K28"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
-      <selection activeCell="E2" sqref="A1:K27"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="14.5" customWidth="1"/>
-    <col min="5" max="5" width="29.83203125" customWidth="1"/>
+    <col min="3" max="3" width="14.44140625" customWidth="1"/>
+    <col min="5" max="5" width="29.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="27" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>308</v>
       </c>
@@ -10981,7 +10981,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>227</v>
       </c>
@@ -11016,7 +11016,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>230</v>
       </c>
@@ -11048,7 +11048,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
         <v>233</v>
       </c>
@@ -11083,7 +11083,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
         <v>236</v>
       </c>
@@ -11118,7 +11118,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
         <v>239</v>
       </c>
@@ -11147,7 +11147,7 @@
       <c r="J6" s="10"/>
       <c r="K6" s="10"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
         <v>242</v>
       </c>
@@ -11182,7 +11182,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
         <v>245</v>
       </c>
@@ -11217,7 +11217,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
         <v>248</v>
       </c>
@@ -11252,7 +11252,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
         <v>252</v>
       </c>
@@ -11283,7 +11283,7 @@
       <c r="J10" s="10"/>
       <c r="K10" s="10"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="s">
         <v>255</v>
       </c>
@@ -11318,7 +11318,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="s">
         <v>258</v>
       </c>
@@ -11347,7 +11347,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="4" t="s">
         <v>261</v>
       </c>
@@ -11380,7 +11380,7 @@
       </c>
       <c r="K13" s="10"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="4" t="s">
         <v>264</v>
       </c>
@@ -11415,7 +11415,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="4" t="s">
         <v>267</v>
       </c>
@@ -11450,7 +11450,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" s="4" t="s">
         <v>270</v>
       </c>
@@ -11485,7 +11485,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" s="4" t="s">
         <v>273</v>
       </c>
@@ -11520,7 +11520,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" s="4" t="s">
         <v>276</v>
       </c>
@@ -11555,7 +11555,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" s="4" t="s">
         <v>279</v>
       </c>
@@ -11590,7 +11590,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" s="4" t="s">
         <v>282</v>
       </c>
@@ -11623,7 +11623,7 @@
       </c>
       <c r="K20" s="10"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" s="4" t="s">
         <v>285</v>
       </c>
@@ -11658,7 +11658,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" s="4" t="s">
         <v>289</v>
       </c>
@@ -11690,7 +11690,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" s="4" t="s">
         <v>293</v>
       </c>
@@ -11725,7 +11725,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24" s="4" t="s">
         <v>296</v>
       </c>
@@ -11760,7 +11760,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" s="4" t="s">
         <v>299</v>
       </c>
@@ -11793,7 +11793,7 @@
       </c>
       <c r="K25" s="10"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" s="4" t="s">
         <v>302</v>
       </c>
@@ -11828,7 +11828,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" s="4" t="s">
         <v>305</v>
       </c>
@@ -11863,7 +11863,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="28" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="G28" s="4"/>
       <c r="H28" s="4"/>
       <c r="I28" s="4"/>
